--- a/output.xlsx
+++ b/output.xlsx
@@ -457,14 +457,14 @@
     <col width="46" customWidth="1" min="22" max="22"/>
     <col width="17" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
-    <col width="13" customWidth="1" min="25" max="25"/>
-    <col width="17" customWidth="1" min="26" max="26"/>
-    <col width="16" customWidth="1" min="27" max="27"/>
-    <col width="10" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
-    <col width="15" customWidth="1" min="30" max="30"/>
-    <col width="14" customWidth="1" min="31" max="31"/>
-    <col width="29" customWidth="1" min="32" max="32"/>
+    <col width="50" customWidth="1" min="25" max="25"/>
+    <col width="26" customWidth="1" min="26" max="26"/>
+    <col width="50" customWidth="1" min="27" max="27"/>
+    <col width="50" customWidth="1" min="28" max="28"/>
+    <col width="26" customWidth="1" min="29" max="29"/>
+    <col width="50" customWidth="1" min="30" max="30"/>
+    <col width="50" customWidth="1" min="31" max="31"/>
+    <col width="50" customWidth="1" min="32" max="32"/>
     <col width="33" customWidth="1" min="33" max="33"/>
   </cols>
   <sheetData>
@@ -753,47 +753,42 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>GLOBAL REALTORS</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02068280714</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>OFFICE NO -1025, GERA IMPERIUM ALFA ,RAJARAM PATIL NAGAR ,VITTHAL NAGAR ,KHARADI ,PUNE- 411014</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>globalrealtorspune@gmail.com</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Pharande Promoters and Builders, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, SHREE YASHADA DEVELOPERS, OLYMPIA, Poloroche Business Avenue LLP, Enerrgia Skyi Ventures, YASHADA HOMES, AVIOR MERLIN VENTURE LLP, Pate Life Melange Developers Pvt Ltd, Pate Life Melange Developers Pvt Ltd, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, Kalpataru Construction (Pune), Kunal Sulakshan Associates, Kunal Sulakshan Associates, Kunal Sulakshan Associates, Kunal Sulakshan Associates, LANDSCAPE REALITY, LANDSCAPE REALITY, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, MARVEL ZETA DEVELOPERS PVT LTD, AVIOR SHELTERS LLP, GODREJ SKYLINE DEVELOPERS PRIVATE LIMITED, Manjari Housing Projects LLP, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, KEVIN PROPERTIES, DREAM WORLD LANDMARKS LLP, DREAM WORLD LANDMARKS LLP, NYATI REALTORS LLP, Pate Life Melange Developers Pvt Ltd, Kasturi Builders, Kasturi Builders, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, M/S SHIVDAN CONSTRUCTIONS, M/S SHIVDAN CONSTRUCTIONS, MARVEL SIGMA HOMES PRIVATE LIMITED, Peninsula Land Limited, Peninsula Land Limited, Peninsula Land Limited, Peninsula Land Limited, TUSCAN REAL ESTATE PRIVATE LIMITED, TUSCAN REAL ESTATE PRIVATE LIMITED, KOLTE-PATIL REAL ESTATE PRIVATE LIMITED, KOLTE-PATIL REAL ESTATE PRIVATE LIMITED, Sukumar Township Development Private Limited, Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., SUNGUARD BUILDERS LLP, Vilas Javdekar Eco Homes, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Jaikul Associates, Jaikul Associates, SHIV CONSTRUCTIONS, Enerrgia Skyi Developers, Enerrgia Skyi Developers, Enerrgia Skyi Developers, Enerrgia Skyi Developers, Enerrgia Skyi Developers, Shivam Development Ventures LLP, PRISTINE DEVELOPERS, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Enerrgia Skyi Ventures, Enerrgia Skyi Ventures, Enerrgia Skyi Realty, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, YASHADA GOVIND CITY CORPORATION, YASHADA GOVIND CITY CORPORATION, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, NANDAN DEVELOPERS, ADI HOMES, YELLOWSTONE NIRMITI LLP, YELLOWSTONE NIRMITI LLP, YELLOWSTONE NIRMITI LLP, YELLOWSTONE NIRMITI LLP, PRISTINE PROPERTIES, PRISTINE PROPERTIES, PRISTINE PROPERTIES, Vascon Engineers Ltd, Duville Estates Private Limited, Duville Estates Private Limited, Duville Estates Private Limited, OXFORD REALTY LLP, Enerrgia Skyi Ventures LLP, Enerrgia Skyi Ventures LLP, Enerrgia Skyi Ventures LLP, SHRI SIDDHIVINAYAK DEVELOPERS, Pearlite Real Properties Private Limited, Godrej Skyline Developers Private Limited, Godrej Skyline Developers Private Limited, RACHANA SUKHWANI ASSOCIATES, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, MERIDIAN, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL OMEGA BUILDERS PVT LTD, MARVEL OMEGA BUILDERS PVT LTD, NNP BUILDCON PRIVATE LIMITED, SHREEMANGAL VISHHRAM DEVELOPERS, Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Mountview Properties LLP, Gera Realty Estates, Gera Realty Estates, M/S. AVIOR MERLIN VENTURE LLP, Green Olive Venture, VISION INFRA, STRATFORD REALTY LLP, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Regency Aawishkar Sarsan Developers LLP, Kasturi Developers, Kasturi Developers, Apex Builders, Ajanta Enterprises, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, KOLTE-PATIL INTEGRATED TOWNSHIPS LIMITED, KOLTE-PATIL INTEGRATED TOWNSHIPS LIMITED, KOLTE-PATIL INTEGRATED TOWNSHIPS LIMITED, KOLTE-PATIL INTEGRATED TOWNSHIPS LIMITED, Kasturi Shelters, Classic Promoters and Builders Private Limited, AVIOR MERLIN VENTURE LLP, AVIOR MERLIN VENTURE LLP, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Supreme High Spaces LLP, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Mahalunge Township Developers LLP, Mahalunge Township Developers LLP, Gini Citicorp Realty LLP, DOREA HOMES LLP, YASHADA DEVELOPERS, YASHADA DEVELOPERS, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, PETHKAR PROJECTS, Yashada Brothers, Azure Tree Lands Private Limited, PAX HOMES LLP, ANANTVENKATESH CONSTRUCTION LLP, Axis Landmarks, Prakruti Constructions Pvt Ltd, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, Maan-Hinje Township Developers LLP, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, M/S. AVIOR MAJESTIQUE PROPERTIES, GROW INDIA NIRMITI LLP, MAHALAXMI SHELTERS, Rajendra Suresh Jain, Rajendra Suresh Jain, Rajendra Suresh Jain, M/S. AVIOR MERLIN VENTURE LLP, MERIDIAN, Kunal Spaces Pvt Ltd, Kunal Spaces Pvt Ltd, Kunal Spaces Pvt Ltd, Shivam Development Ventures LLP, PRISTINE DEVELOPERS, NANDAN ASSOCIATES, NANDAN ASSOCIATES, NANDAN ASSOCIATES, PLATINUM CONSTRUCTION, DAJIKAKA GADGIL DEVLOPERS .PVT.LTD ., Kumar Properties Govind Shree Realtors LLP, Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Kalpataru Gardens Pvt. Ltd., Pride Purple Properties, PRIDE BUILDERS LLP, PRIDE BUILDERS LLP, AVINASH BHOSALE GROUP, RIBERA PROJECTS LLP, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, Antariksha Developers, NNP BUILDCON PVT. LTD., NNP BUILDCON PVT. LTD., YASHADA BUILDERS, DUVILLE ESTATES PRIVATE LIMITED, KOLTE-PATIL DEVELOPERS LIMITED, KOLTE-PATIL DEVELOPERS LIMITED, KOLTE-PATIL DEVELOPERS LIMITED, Adi Siddhashila Associates, AMAR BUILDERS AND DEVELOPERS, Vilas Javdekar Lifestyle Developers Pvt. Ltd., Cherry Contruction Pvt. Ltd., Shivam Development Ventures LLP, Supreme Palatial Developers LLP, Avinash Bhosale Group, ABIL PROPCON LLP, AMJ Land Developers, AMJ Land Developers, AMJ Land Developers, VINOD PREMCHAND CHANDWANI, S S Properties, Kalpataru Retail Ventures Private Limited, Kalpataru Retail Ventures Private Limited, Kalpataru Retail Ventures Private Limited, Kalpataru Retail Ventures Private Limited, Kalpataru Retail Ventures Private Limited, REGENCY NIRMAN LTD, GODREJ SKYLINE DEVELOPERS PRIVATE LIMITED, Benchmarrk Realty LLP, Kasturi Spaces Private Limited, MARATHON REALTY PVT LTD, MARATHON REALTY PVT LTD, M/S Suyog Developers, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Macrotech Developers Limited, Macrotech Developers Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Lodha Buildcon Private Ltd (Lodha Develoopers Pvt Ltd), Acme Housing India Private Limited, Acme Housing India Private Limited, Acme Housing India Private Limited, Parasmani Constructions Pvt .Ltd, Twenty Five South Realty Limited, Twenty Five South Realty Limited, EPITOME RESIDENCY PRIVATE LIMITED, RADIUS SUMER DEVELOPERS PRIVATE LIMITED, MIG (Bandra) Realtors &amp; Builders Private Limited, RADIUS &amp; DESERVE BUILDERS LLP, RADIUS &amp; DESERVE BUILDERS LLP, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, RADIUS PROJECT DEVELOPERS LLP, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Messrs SRC And Associates, SUMER RADIUS REALTY PVT LTD, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, NEXZONE ENERGY UTILITES LLP, Rohan Developers Pvt Ltd, VIJAY ASSOCIATES (WADHWA), VIJAY ASSOCIATES (WADHWA), VIJAY ASSOCIATES (WADHWA), VIJAY ASSOCIATES (WADHWA), Messrs Neuzen Realtors LLP, SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., TWENTY FIVE DOWNTOWN REALTY LIMITED</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Aldea Annexo -C1, Aldea Annexo - C2, Sayama Phase 3, Aldea Annexo - D, Sayama Phase 2, Sayama Phase 4, L Axis Phase 1 Cluster B, Building A2 Eon Homes, Building D3 Eon Homes, Building A3 Eon homes, SPLENDID COURTYARD, AVAANTI RESIDENCES AND PREMIUM COMMERCIAL SPACES, POLOROCHE BUSINESS AVENUE, Skyi Wild Woods Phase I, Splendid Lake view, AMENITY SPACE 1 - NAVYANGAN PHASE - II, Skyi Star Town Phase I, Skyi Star Town Phase II, KUMAR PRAJWAL, Primavera - B6 and S1, Kalpataru Estate Building 8, ICONIA Phase V, ICONIA Phase III, ICONIA Phase II, ICONIA PHASE IV, ANANTSRISHTI PHASE I, ANANTSRISHTI PHASE II, PLOT NO.7, VIVA, PIRANGUT, PLOT NO 8, VIVA, PIRANGUT, PLOT NO. 10, VIVA,PIRANGUT,PUNE, PLOT NO. B-01 TO B-21 VIVA,PIRANGUT,PUNE, Marvel Piazza phase -01, UP-LIFE-PHASE-1-VERONICA, FOREST GROVE AT GODREJ PARK GREENS, GODREJ BOULEVARD, Centralis Tower 1, Centralis Tower 1, Centralis Tower 2, Centralis Tower 2, MSPACE, MSPACE, Antheia B4, Antheia D4, Antheia C2, Antheia A3, Antheia B3, Antheia C3, Centralis Tower 4, Centralis Tower 4, Centralis Tower 3, Centralis Tower 3, Antheia C1, Antheia A4, Paradise - B2 and B3, Godrej Greens, Godrej Greens, NYATI ESTEBAN I, Skyi Star Town Commercial, Apostrophe Next, Apostrophe Next, Aldea Espanola Phase VII, Puraniks Abitante Phase 1A, Puraniks Abitante Phase 1B, Aldea Espanola Phase V, Aldea Espanola Phase VI, M J OPERA, M J OPERA, Marvel Bounty J Building, addressOne - Phase 2, addressOne - Phase 4, addressOne - Phase 3, addressOne - Phase 1, Tuscan Parkland, TUSCAN ESTATE, CITY VISTA, Xenia, Prithvi - H2, Park Infinia - I1, I2, I3, J2, J3 and K1, Park Infinia Phase IV, Park Infinia - L1, K3 and I4, Park Infinia - L2, L3, L4, K4, K5 and J4, Park Infinia - B1 and B2, Picasso Phase II, PICASSO - O, Park Infinia Phase III, PARK IVORY PHASE II, YashONE Phase - I, Princetown Tower - C3, Princetown Tower - C2, Princetown Royal - B5, Princetown Royal - B3 and B6, Princetown Royal - B2, Princetown Royal - B4, Geras Misty Waters, Geras Imperium Gateway A and C, Geras Planet of Joy Project II, Geras Imperium Rise, Geras Isle Royale Tower 4 and 5, Geras Planet of Joy Project I, A3, Song of Joy, Geras Greensville2, KINGSBURY PHASE II, KINGSBURY PHASE III, SAI PARADISE, Skyi Songbirds Phase A, Skyi Songbirds Phase B, Skyi Songbirds Phase C, Skyi Songbirds Phase D, The Songbirds Estate Phase I, 19 Grand West Wing A, PRISTINE PRONEXT, 47 East - A, 47 East - B Wing B, C and D, 47 East - B Wing A, Skyi Star Towers Phase I, Skyi Star Towers Phase II, Skyi First Bhukum Phase I, Princeville - B3 and C1, Princeville - B4 and B5, Primus - A, STERLING BLOOMS, BRAND SQUARE, Kumar Parc Residences - C Mhada, Kumar Parc Residences - B2, Kumar Parc residences - A1, VATSALYA PURAM BUILDING A, ADI AVENTURA, EQUILIFE HOMES PHASE I, EQUILIFE HOMES PHASE II, EQUILIFE HOMES PHASE II, EQUILIFE HOMES PHASE III, Pristine Greens Phase 1, PRISTINE GREENS PHASE II, PRISTINE GREENS PHASE III, Platinum Square Phase 2, Riverdale Suites, Riverdale Heights, Riverdale Residences-I, Godrej Rejuve, Skyi Manas Lake Phase I, Skyi Manas Lake Phase II, Skyi Manas Lake Phase III, GANGA AMBER PH I, Godrej Elements, Godrej Park Greens, Godrej Wood Park, BEVERLY HILLS, Palmspring Towers - A1, A2 and A3, Palmspring Towers - A6, A7 and B3, Palmspring Towers - A4, A5 and B2, Palmspring Bungalows - E1 to E6, Geras World of Joy D, Geras World of Joy S, Geras World of Joy C, Geras World of Joy L, Kumar Prospera - A6, Kumar Prospera - A7 and A8, Kumar Prospera - A3, A4 and A5, Kumar Prospera - A1 and A2, IMPERIAL COMMERCIAL SPACES, PARK TITAN PHASE III, PARK ASTRA PHASE III, PARK TITAN PHASE IV, PARK CONNECT, PARK CONNECT PHASE II, Marvel Bounty K Building, MARVEL BOUNTY BUILDING L, MARVEL ARCO B BUILDING, MARVEL ARCO E BUILDING, Marvel Cascada C Building, Marvel Cascada D building, Marvel Cascada E Building, Marvel Castella A And B Building, MARVEL SERA A,B,C BUILDING, Marvel Kyra A AND B Building, Marvel Basilo A AND B Building, Marvel Fuego, MARVEL CITRINE A BUILDING, MARVEL CERISE Bldg-A, MARVEL CERISE BLDG B, C, D, MARVEL AQUANAS, Marvel Aurum, Marvel Brisa, MARVEL ISOLA J BUILDING, Marvel Ganga Sangria D,E Building, Marvel Ganga Sangria G,H,J Building, Marvel Ganga Sangria K,L,M Building, Marvel Ganga Sangria A,B,C Building, Marvel Ganga Boulevard Phase 02, MARVEL ZEPHYR BUILDING U, Marvel Selva Ridge A,B Building, Marvel Selva Ridge Villa Phase 01, VTP Leonara building C and F, LITTLE HEARTS PHASE 2, Megapolis Mystic Phase 2, Megapolis Symphony Phase I, Lords Estate, Geras Adara, Geras Adara, Navyangan 2- Building C1, Green Olive, VISION INDRAMEGH, VERDE RESIDENCE COLLECTION, Siddhachal - A1, Siddhachal - A4, REGENCY ASTRA PHASE I, EPITOME PHASE I, Epitome Phase II, Apostrophe, Moshi, Forest Edge Phase 1, Joyville Hinjawadi - I, Phase 1, Joyville Hinjawadi - I, Phase 2, Joyville Hinjawadi - I, Phase 3, Joyville Hinjawadi - I, Phase 3, Kumar Pratham - D E G, Priyadarshan - J, Priyadarshan - I, Princeville - A2, C2 and Conv Shop 2, Kumar Pratham - A B C and Shops, Peninsula C, Kumar Pratham - F Mhada, Peninsula - D, Life Republic Sector R1 - 1st Avenue, Life Republic Sector R2 - 2nd Avenue, Life Republic Sector R3 - 3rd Avenue, Life Republic Sector R16 - 16th Avenue, Building D Voyage, Solitaire Business Hub Viman Nagar Phase 1, BUILDING - M - NAVYANGAN PHASE - II, BUILDING - D- WING -D-1- NAVYANGAN PHASE - II, T9 Chronos and T10 Supremus Phase 1 Of Raheja Reserve being Buildings T7 T8 T9 T10 in RV Premiere, RAHEJA VISTAS BUILDING B2, VISTAS CENTREPOINT, T8 named LUXURIANT Phase 2 of Raheja Reserve being Buildings T7 T8 T9 T10 in RV Premiere, T13 - PHASE OF THE PROJECT COMPRISING BUILDING T12 AND T13, T12 NAMED MAGNA BEING PHASE 2 OF THE PROJECT COMPRISING BUILDINGS T12 AND T13, Supreme Amadore, LODHA BELMONDO ASHBRIDGE D, E, Lodha Belmondo - Tower 31, Lodha Belmondo St. Andrews A, LODHA BELMONDO SAWGRASS B, Lodha Belmondo St. Andrews B,C,D  Villa 1 to 28, Lodha Belmondo - Sawgrass A, LODHA BELMONDO AUGUSTA C, LODHA BELMONDO AUGUSTA B, LODHA BELMONDO Pebble Beach E, Estancia A, Lodha Belmondo - Tower 29, LODHA BELMONDO - ESTANCIA B, Lodha Belmondo - Townhouses, Lodha Belmondo - Tower 32, LODHA BELMONDO ST. ANDREWS E, Lodha Belmondo - Pebble Beach D, Lodha Belmondo - Tower 30, Godrej Hillside 1, Godrej Hillside 2, GINI VIVANTE PHASE 02, Marvel Ideal Spacio Phase 01, SPLENDID MEADOWS, YASHADA SPLENDID PARK, Windermere Phase 1, Platinum Square Phase 1, Windermere Phase 2, Vascon Goodlife Phase C, Vascon Goodlife Phase B, Siyona Phase - II, SPLENDID RADIANCE, Kalpataru Centrino, Marvel Fria P1, P2, P3 Building, anantvenktesh, AXIS CENTRA, Pinnacle - A4 and A5, Kalpataru Jade Residences G, Kalpataru Jade Residences B, Kalpataru Jade Residences C, Kalpataru Jade Residences E, Kalpataru Jade Residences F, Godrej Eden Estate Phase 1, Geras Misty Waters, B1 Song Of Joy Geras Greenville 2, Geras Planet of Joy Project III, Geras Imperium Alpha, Geras Imperium Rise, Geras Imperium Gateway B, Geras Planet of Joy Project IV, Geras Isle Royale Tower 2 and 3, Geras Imperium Oasis, VANALIKA-PARADISE- III -3B, The Canary Phase I, PRISTINE ALLURE PART 1, RUNAL GATEWAY PHASE - II, Runal Spacio, Runal Gateway Phase 1, BUILDING D - WING D-2 - NAVYANGAN PHASE - II, IMPERIAL ATRIA TOWER 2, Kunal Aspiree  Phase II, Kunal Aspiree Phase IV, Kunal Aspiree Phase III, 19 GRAND WEST - C WING and D WING, Pristine Prolife III, NANDAN FORTURA, NANDAN PROSPERA GOLD, NANDAN PROBIZ, PRIDE PLATINUM, ANANTRUKMINI, Kumar Prakruti, Megapolis Springs - B and F, Megapolis Saffron - A10 to A14, Megapolis Mystic - C, Megapolis Mystic - F, Megapolis Saffron - A3 to A9, Megapolis Springs - D and E, Megapolis Springs - A, Megapolis Serenity A8 to A12, B2 and Conv shop B, Megapolis Serenity A1 to A7, B1 and Conv shop A, Megapolis Springs - C, Megapolis Shimmer - A1, Kalpataru Serenity - Bldg. 5, PARK TITANIUM PHASE II, WELLINGTON- A-B, MANHATTAN, CASTEL ROYALE TOWER NINE, Marvel Ribera A Building, PARK ASTRA, PARK TITAN, PARK TITAN PHASE II, Antariksha Signatures, VTPBelair A Building, VTP Belair B And D Building, SPLENDID COUNTY PHASE III, RIVERDALE GRAND, 24K ATRIA, 24K OPULA, 24K World Residences, W-57, AMAR SERENITY, VJ IndiLife Wakad, Citron Phase 2, 19 Grand West Wing B, Supreme Estia Phase I, Castel Royale Excellente (T7), ABIL BOULEVARD, Greens - Cypress - MN, Greens - Beech - GH, Greens Centre, ROSE ASTER, 32 Pinewood Drive -Phase 1, Kalpataru Exquisite - Wing 2, Kalpataru Exquisite - Wing 3, Kalpataru Exquisite - Wing 4, Kalpataru Exquisite - Wing 1, Kalpataru Exquisite - Wing D, Regency Classic Wing B2, Godrej Nurture, The Eminence, The Balmoral Towers - Tower D, Phase I, MARATHON NAGARI NX VITORIA D, MARATHON NAGARI NX VIGO D, MARATHON NEOSKIES, PALAVA VIENTO A to D, PALAVA ELITE K TO T, PALAVA - ELITE - A to J, PALAVA CROWN, Palava - Retail Shop no 15 to 33 - Car Park Building C1, PALAVA VISTA A to D, PALAVA LAKESIDE I TO O, PALAVA LAGOONA A TO F, Palava Cielo A - F, PALAVA LAKESIDE A to H, Palava - Trinity A to C, PALAVA - PASEO - D to H, PALAVA - UNO H - O, PALAVA PRIMIA E to J, PALAVA REGALIA A to F, Lodha Majiwada - Tower 5, Lodha Majiwada - Tower 1, Lodha Majiwada - Tower 4, Lodha Parel Project, NEW CUFFE PARADE - LODHA ESTRELLA, NEW CUFFE PARADE -LODHA ALTIA, NEW CUFFE PARADE - LODHA DIORO AND ELISIUM, NEW CUFFE PARADE - LODHA ENCHANTE, NEW CUFFE PARADE - LODHA EVOQ 41st Floor, LODHA SPLENDORA - PLATINO - B, LODHA SPLENDORA - PLATINO - D, Lodha Panacea I, Lodha Quality Home Tower - 5, CASA UNIVIS - CIELO D, Lodha Adrina, LODHA PARK, CODENAME- MUST-HAVE, LODHA PARK - TOWN HOUSES, PALAVA SERENITY A, Elite 2 Shops, North MLCP Shop, PALAVA CLUSTER 2-06 -  A - G, I - N, Palava Florea - A to D, PALAVA OLIVIA A, Lakeside 1 Shops, Regalia Shops, Palava Olivia C, Lakeside 2 Shops, Clara Shops, PALAVA CLARA E - I, Palava Clara J-M, Palava Magnolia, PALAVA CLARA A to D, D1, Palava Serenity C, Elite 1 Shop, PALAVA SERENITY B, PALAVA SERENITY D, PALAVA URBANO D AND E, PALAVA URBANO G AND H, PALAVA EVIVA K to T, URBANO A, B, C and F, URBANO I to T, Foresta &amp; Fiora, Urbano 2 Shops, LODHA ETERNIS SERENA C, LODHA ETERNIS NATURA A, Lodha Supremus - Andheri, LODHA ETERNIS SERENA A, LODHA ETERNIS IDYLLIA B, SERENA B, NATURA B AND C, UPPER THANE - TIARA A to B, Upper Thane - Sereno D and E, Upper Thane - Sereno A, B, B1, Upper Thane - Meadows E, F, G, Magnolia A B and C, Upper Thane - Woodlands G,H,I, Upper Thane - Tiara C, Upper Thane - Ecopolis A, UPPER THANE - Woodlands E and F, Upper Thane - Meadows A, UPPER THANE - WOODLANDS C AND D, Casa Selva A to C, UPPER THANE - Tiara I, Upper Thane - Sereno A1, C &amp; C1, Upper Thane Ecopolis A - B, Upper Thane Greenville A - E, E1, F - I, UPPER THANE - TIARA D, UPPER THANE - WOODLANDS A, B AND J, UPPER THANE -SERENO A1, Upper Thane - Tiara H, Upper Thane Treetops A - C, C1, C2, D - F, Upper Thane - Tiara E, F, Orchid A to L, Jasmine D, E and F, Jasmine A, B, C, G, H and I, Jasmine T, Orchid M N O, Jasmine L and M, LODHA AZZURO, LODHA VENEZIA - 49TH TO 65TH FLOOR, THE WORLD TOWERS - WORLD ONE - TIER III AND TRINITY, One Lodha Place, THE WORLD TOWERS -  WORLD ONE - TIER II, LODHA SPLENDORA PLATINO E TO G , VIVANT A TO D, Lodha Quality Home Tower 1, Lodha Global Park, Lodha Panacea II, Lodha Quality Home Tower 2, Lodha Quality Home Tower 3, Lodha Quality Home Tower 4, Lodha Fiorenza, Casa Royale - Grande, Alpinia, Herbelia, Gingelia Residential, Parasmani - B, 25 South Tower A 11th to 47th Floor, 25 South Tower A upto 10th Floor, Imperial Heights Wing C and D, Harbour Heights, TEN BKC, ANANTYA 1A, ANANTYA 1B, Lodha Patel Estate - Tower C, D, Lodha Patel Estate - Tower E, F, Lodha Patel Estate - Tower G, Lodha Patel Estate - Tower A, B, Lodha Mira Road Project 1, Radius Residency and Anand Bhuvan, LODHA AMARA - TOWER 38 and 39, Lodha Amara - Tower 46, Lodha Amara - Wing 40 and 41, Lodha Amara Tower 44, Lodha Amara Tower 49 and 50, Lodha Supremus - Thane, Kolshet, Lodha Amara - Tower 36 37, Lodha Kolshet Plot A - Tower J, LODHA AMARA - TOWER 23, Lodha Amara -Tower 42 and 43, Lodha Amara - Tower 45, Lodha Amara Tower 47 and 48, Lodha Sterling - Tower H, LODHA AMARA - TOWER 29,31, LODHA AMARA - TOWER 32,33, LODHA AMARA - TOWER 1 - 5, 7 - 19, Lodha Kolshet Plot A - Tower K, Lodha Sterling - Tower G, Lodha Amara MLCP Retail, Lodha Amara - Tower 6, 22, Lodha Amara Tower 24 and 25, LODHA AMARA - TOWER 26, 27, 28, 30, 34, 35, One Aquaria, AVENUE 54, PALAVA MILANO E, F, PALAVA AURORA B, C, PALVA MILANO D, G, PALAVA MARVELLA B,C,D,E,F,G, PALAVA MILANO A,B,C,H,I,J, PALAVA MARVELLA A, H, LODHA SEAVIEW, PALAVA SAVANA AND SIENA, LODHA FRESHIA WING A, B, C, LODHA FRESHIA WING D, E, Lodha iThink B, PALAVA RIVER VIEW E AND F, PALAVA AURELIA - C, H, I, PALAVA ESTELA A, B, C, PALAVA - ESTELA D to G, FONTANA A ,B, I and J, PALAVA AURELIA A, PALAVA - AURELIA - D TO G, PALAVA FONTANA C - H, PALAVA ESTELA H, I, J, MARATHON NEOHILLS 1, 7 Hughes, Elite Solitaire 15, Elite Solitaire 16, Elite Platina 19, Elite Platina 20, 64 Greens, MARATHON NEXZONE ALTIS -1, MARATHON NEXZONE AVIOR -2, MARATHON NEXZONE ACRUX -1, MARATHON NEXZONE ACRUX -2, MARATHON NEXZONE ALTIS -2, MARATHON NEXZONE AVIOR -1, MARATHON NEXZONE  ZODIAC -1, MARATHON NEXZONE ZODIAC -2, 25 Downtown-Wing 1-Emerald Palm</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100000979, P52100002665, P52100002137, P52100020092, P52100004782, P52100005004, P52100000093, P52100006888, P52100001860, P52100013714, P52100019726, P52100009000, P52100024844, P52100000763, P52100021727, P52100023131, P52100012998, P52100014662, P52100017868, P52100021093, P52100017535, P52100022552, P52100014286, P52100002850, P52100014950, P52100006401, P52100015968, P52100002681, P52100002113, P52100002702, P52100001800, P52100003653, P52100023652, P52100023129, P52100024616, P52100019406, P52100019406, P52100019393, P52100019393, P52100015480, P52100015480, P52100000281, P52100000416, P52100000249, P52100000171, P52100016677, P52100016619, P52100019375, P52100019375, P52100019407, P52100019407, P52100000217, P52100000210, P52100049914, P52100000985, P52100000985, P52100003767, P52100013211, P52100001275, P52100001275, P52100004340, P52100000437, P52100000569, P52100000572, P52100000537, P52100032413, P52100032413, P52100006797, P52100015747, P52100015803, P52100015779, P52100015756, P52100018996, P52100000439, P52100007612, P52100000575, P52100031366, P52100017239, P52100014939, P52100045667, P52100026185, P52100047895, P52100000104, P52100018205, P52100000084, P52100015699, P52100014585, P52100009077, P52100045982, P52100027928, P52100046228, P52100018309, P52100007776, P52100001176, P52100030184, P52100031809, P52100001786, P52100011031, P52100031802, P52100001789, P52100019148, P52100023913, P52100002193, P52100000769, P52100001117, P52100000805, P52100000764, P52100000643, P52100018030, P52100018913, P52100024598, P52100052955, P52100047702, P52100000421, P52100000690, P52100000462, P52100000755, P52100015685, P52100004518, P52100003148, P52100003247, P52100047940, P52100049839, P52100032022, P52100033502, P52100016461, P52100000767, P52100015466, P52100015466, P52100022543, P52100009406, P52100000901, P52100024045, P52100012916, P52100014163, P52100008035, P52100004692, P52100018720, P52100000449, P52100000513, P52100000514, P52100002620, P52100016626, P52100019639, P52100028133, P52100021349, P52100052923, P52100018532, P52100048329, P52100015961, P52100022598, P52100022499, P52100022522, P52100022530, P52100029906, P52100035207, P52100022619, P52100014951, P52100007362, P52100049631, P52100049640, P52100055911, P52100020766, P52100031776, P52100007453, P52100010835, P52100008708, P52100007022, P52100006134, P52100003507, P52100002242, P52100002438, P52100001878, P52100010211, P52100001711, P52100006192, P52100007908, P52100001091, P52100002648, P52100001521, P52100002240, P52100001627, P52100001843, P52100002064, P52100002371, P52100002514, P52100001815, P52100002574, P52100010976, P52100003648, P52100011640, P52100019994, P52100009230, P52100001391, P52100000887, P52100012004, P52100000889, P52100000889, P52100016149, P52100013526, P52100005558, P52100004841, P52100050272, P52100018775, P52100032177, P52100000703, P52100024071, P52100000905, P52100014725, P52100016131, P52100016252, P52100016775, P52100016775, P52100031354, P52100029119, P52100047781, P52100018603, P52100022486, P52100028012, P52100049685, P52100049664, P52100002646, P52100002682, P52100007511, P52100009640, P52100006188, P52100006995, P52100023388, P52100023277, P52100021356, P52100000919, P52100016359, P52100024187, P52100000707, P52100015996, P52100001750, P52100011522, P52100020172, P52100020156, P52100000221, P52100000283, P52100019434, P52100000174, P52100000406, P52100000350, P52100020142, P52100016840, P52100017082, P52100020190, P52100000182, P52100018308, P52100020188, P52100022099, P52100022153, P52100050601, P52100001583, P52100020457, P52100021070, P52100003865, P52100001434, P52100002368, P52100016293, P52100016237, P52100020135, P52100019065, P52100026091, P52100001522, P52100002109, P52100002121, P52100054619, P52100018194, P52100000926, P52100000676, P52100001392, P52100000869, P52100054326, P52100001176, P52100002048, P52100031875, P52100015242, P52100001786, P52100030167, P52100031876, P52100009870, P52100015514, P52100016963, P52100031557, P52100045237, P52100019500, P52100019467, P52100002021, P52100016163, P52100016407, P52100001814, P52100027175, P52100002540, P52100031024, P52100000897, P52100021481, P52100000563, P52100001376, P52100021636, P52100001340, P52100054001, P52100017386, P52100021609, P52100019959, P52100029121, P52100018779, P52100015188, P52100018284, P52100022957, P52100023051, P52100016848, P52100052912, P52100001267, P52100001274, P52100031008, P52100026529, P52100052260, P52100002377, P52100024449, P52100031768, P52100034961, P52100009963, P52100020331, P52100019986, P52100016493, P52100034877, P52100000428, P52100000398, P52100007679, P52100024520, P52100001203, P52100050594, P52100018850, P52100017919, P52100024783, P52100009114, P52100031530, P52100030119, P52100002813, P52100013159, P52100018281, P52100001171, P52100001266, P52100018100, P52100023268, P52100000298, P52100016932, P52100005014, P52100020686, P52100022805, P52100047009, P51700005049, P51700005045, P51800018106, P51700000342, P51700000389, P51700000125, P51700010935, P51700016941, P51700000395, P51700000410, P51700000124, P51700000378, P51700000384, P51700014396, P51700000269, P51700000142, P51700000391, P51700000390, P51700019519, P51700013263, P51700013789, P51900014910, P51900000521, P51900000629, P51900000314, P51900000367, P51900000567, P51700000258, P51700000659, P51700017078, P51700027449, P51700001153, P51900014937, P51900001339, P51900029416, P51900016526, P51700020155, P51700025470, P51700025674, P51700000802, P51700017487, P51700020214, P51700025522, P51700025474, P51700017590, P51700025535, P51700025495, P51700000540, P51700000420, P51700020131, P51700000448, P51700020159, P51700025471, P51700020253, P51700020124, P51700000577, P51700000696, P51700000419, P51700017506, P51700025475, P51800020147, P51800000345, P51800013696, P51800000294, P51800000293, P51700014814, P51700014770, P51700016243, P51700020170, P51700020197, P51700016245, P51700016437, P51700016666, P51700018107, P51700020266, P51700020225, P51700020268, P51700018035, P51700020217, P51700007192, P51700006147, P51700019121, P51700020104, P51700020191, P51700020154, P51700008449, P51700020141, P51700016747, P51700020354, P51700020381, P51700020373, P51700019809, P51700024141, P51900000828, P51900005378, P51900008962, P51900014984, P51900008345, P51700000199, P51700022250, P51700017924, P51700017060, P51700022251, P51700022533, P51700024777, P51800000195, P51700001517, P51700000778, P51700001038, P51700001033, P51900023727, P51900011418, P51900006860, P51800003270, P51900004243, P51800004889, P51800005533, P51800009827, P51800014860, P51800014869, P51800016528, P51800014891, P51700012991, P51800011593, P51700018393, P51700018579, P51700020088, P51700020123, P51700020157, P51700015598, P51700013961, P51700015243, P51700020093, P51700020164, P51700018593, P51700020151, P51700020189, P51700000981, P51700001030, P51700001065, P51700015040, P51700020158, P51700025892, P51700014760, P51700020128, P51700001031, P51800005647, P51800007149, P51700011629, P51700010960, P51700010109, P51700013462, P51700015016, P51700015660, P51900010326, P51700000546, P51700004667, P51700006149, P51700025627, P51700008764, P51700013073, P51700013158, P51700011068, P51700000506, P51700020161, P51700000511, P51700000596, P51700013145, P51800018328, P51900005191, P51700006610, P51700009882, P51700008189, P51700010204, P51800002079, P52000000573, P52000000713, P52000000670, P52000001062, P52000000677, P52000000502, P52000000547, P52000000661, P51900076617</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -915,47 +910,47 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>GODREJ SKYLINE DEVELOPERS PRIVATE LIMITED, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Kumar Properties Govind Shree Realtors LLP, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, Godrej Properties Limited, Godrej Skyline Developers Private Limited, Manjari Housing Projects LLP, KEVIN PROPERTIES, Manjari Housing Projects LLP, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Prakruti Constructions Pvt Ltd, Sukumar Township Development Private Limited, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Glider Buildcon Realtors Private Limited, Labdhi Siddhivinayak Realtors LLP, Messrs Neuzen Realtors LLP, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, KEYSTONE REALTORS LIMITED, KEYSTONE REALTORS LIMITED, KEYSTONE REALTORS LIMITED, Messrs SRC And Associates, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Macrotech Developers Limited, Macrotech Developers Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Lodha Buildcon Private Ltd (Lodha Develoopers Pvt Ltd), PRL Developers Private Limited, Acme Housing India Private Limited, Acme Housing India Private Limited, Acme Housing India Private Limited, Glider Buildcon Realtors, Glider Buildcon Realtors, Glider Buildcon Realtors, M/S. PARADIGM REAL ESTATES LLP, VIJAY ASSOCIATES (WADHWA), VIJAY ASSOCIATES (WADHWA), VIJAY ASSOCIATES (WADHWA), VIJAY ASSOCIATES (WADHWA), Century Textiles &amp; Industries Ltd, SDC INFRASTRUCTURE PVT LTD, K RAHEJA CORP REAL ESTATE PRIVATE LIMITED, K RAHEJA CORP REAL ESTATE PRIVATE LIMITED, Twenty Five South Realty Limited, Rohan Developers Pvt Ltd, Twenty Five South Realty Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Diljay Realtors Private Limited, Parasmani Constructions Pvt .Ltd, GODREJ PROPERTIES LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, EKTA HOUSING PRIVATE LIMITED, EKTA HOUSING PRIVATE LIMITED, EKTA HOUSING PRIVATE LIMITED, EKTA HOUSING PRIVATE LIMITED, KEYORBIT REALTORS PRIVATE LIMITED, RADIUS PROJECT DEVELOPERS LLP, Godrej Macbricks Private Limited, Twenty Five South Realty Limited, Twenty Five South Realty Limited, EKTA WORLD PRIVATE LIMITED, EKTA SHELTERS PRIVATE LIMITED, TWENTY FIVE DOWNTOWN REALTY LIMITED, MACROTECH DEVELOPERS LIMITED, SUMER RADIUS REALTY PVT LTD, EKTA SHUBHAM VENTURE, EKTA SHUBHAM VENTURE, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, EPITOME RESIDENCY PRIVATE LIMITED, RADIUS SUMER DEVELOPERS PRIVATE LIMITED, MIG (Bandra) Realtors &amp; Builders Private Limited, RADIUS &amp; DESERVE BUILDERS LLP, RADIUS &amp; DESERVE BUILDERS LLP, COVENTRY PROPERTIES PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>FOREST GROVE AT GODREJ PARK GREENS, Palmspring Towers - A4, A5 and B2, Palmspring Towers - A1, A2 and A3, Palmspring Towers - A6, A7 and B3, LODHA BELMONDO ST. ANDREWS E, LODHA BELMONDO AUGUSTA B, LODHA BELMONDO Pebble Beach E, Estancia A, LODHA BELMONDO AUGUSTA C, LODHA BELMONDO ASHBRIDGE D, E, Lodha Belmondo - Pebble Beach D, Lodha Belmondo - Townhouses, Lodha Belmondo - Tower 29, LODHA BELMONDO SAWGRASS B, Lodha Belmondo - Tower 32, Lodha Belmondo - Tower 31, Lodha Belmondo St. Andrews A, Lodha Belmondo - Sawgrass A, LODHA BELMONDO - ESTANCIA B, Lodha Belmondo - Tower 30, Lodha Belmondo St. Andrews B,C,D  Villa 1 to 28, Priyadarshan - J, Peninsula - D, Kumar Pratham - F Mhada, Peninsula C, Kumar Pratham - A B C and Shops, Princeville - A2, C2 and Conv Shop 2, Kumar Pratham - D E G, Priyadarshan - I, Siddhachal - A1, Siddhachal - A4, Kumar Parc Residences - C Mhada, Kumar Parc residences - A1, Kumar Parc Residences - B2, Kumar Prospera - A6, Kumar Prospera - A7 and A8, Kumar Prospera - A1 and A2, Kumar Prospera - A3, A4 and A5, Megapolis Serenity A1 to A7, B1 and Conv shop A, Megapolis Mystic - F, Megapolis Shimmer - A1, Megapolis Saffron - Shops, Megapolis Serenity A8 to A12, B2 and Conv shop B, Megapolis Saffron - A3 to A9, Megapolis Saffron - A10 to A14, Megapolis Symphony Phase I, Megapolis Springs - A, Megapolis Springs - B and F, Megapolis Springs - C, Megapolis Springs - D and E, Kumar Prakruti, KUMAR PRAJWAL, Primavera - B6 and S1, Godrej Emerald Waters, Godrej Wood Park, GODREJ BOULEVARD, Paradise - B2 and B3, Godrej Parkridge, Princetown Tower - C2, Princetown Royal - B3 and B6, Princetown Royal - B5, Princetown Tower - C3, Princetown Royal - B2, Pinnacle - A4 and A5, Prithvi - H2, 47 East - B Wing A, 47 East - B Wing B, C and D, 47 East - A, Primus - A, Princeville - B4 and B5, Park Infinia - L2, L3, L4, K4, K5 and J4, PICASSO - O, Park Infinia - I1, I2, I3, J2, J3 and K1, Park Infinia Phase IV, Park Infinia - B1 and B2, Park Infinia - L1, K3 and I4, Lodha Patel Estate - Tower A, B, Lodha Patel Estate - Tower C, D, Lodha Patel Estate - Tower G, Lodha Patel Estate - Tower E, F, Lodha Supremus - Thane, Kolshet, Lodha Amara - Tower 6, 22, Lodha Amara - Tower 46, Lodha Amara Tower 44, Lodha Amara - Tower 45, LODHA AMARA - TOWER 26, 27, 28, 30, 34, 35, Lodha Kolshet Plot A - Tower J, LODHA AMARA - TOWER 38 and 39, LODHA AMARA - TOWER 23, Lodha Sterling - Tower H, Lodha Sterling - Tower G, Lodha Kolshet Plot A - Tower K, Lodha Amara - Wing 40 and 41, Lodha Amara Tower 49 and 50, Lodha Amara Tower 24 and 25, Lodha Amara Tower 47 and 48, Lodha Amara MLCP Retail, LODHA AMARA - TOWER 32,33, LODHA AMARA - TOWER 29,31, LODHA AMARA - TOWER 1 - 5, 7 - 19, Lodha Amara - Tower 36 37, Lodha Amara -Tower 42 and 43, Piramal Aranya - Wing B, Labdhi Seabreeze, 64 Greens, Lodha Parel Project, Lodha Majiwada - Tower 1, Lodha Majiwada - Tower 5, Rustomjee Paramount - Wing D, Rustomjee Paramount - Wing C, Rustomjee Paramount - Wing E, One Aquaria, LODHA PARK, CODENAME- MUST-HAVE, LODHA PARK - TOWN HOUSES, Lodha Adrina, PALAVA OLIVIA A, Elite 2 Shops, PALAVA URBANO D AND E, PALAVA URBANO G AND H, PALAVA EVIVA K to T, URBANO A, B, C and F, URBANO I to T, Palava Olivia C, Regalia Shops, Elite 1 Shop, Lakeside 1 Shops, North MLCP Shop, PALAVA CLUSTER 2-06 -  A - G, I - N, PALAVA SERENITY A, PALAVA SERENITY D, PALAVA SERENITY B, Lakeside 2 Shops, Clara Shops, PALAVA CLARA E - I, Palava Magnolia, Palava Clara J-M, Urbano 2 Shops, Foresta &amp; Fiora, Palava Serenity C, PALAVA CLARA A to D, D1, Palava Florea - A to D, LODHA ETERNIS NATURA A, LODHA ETERNIS SERENA A, Lodha Majiwada - Tower 4, NEW CUFFE PARADE - LODHA ESTRELLA, NEW CUFFE PARADE - LODHA ENCHANTE, NEW CUFFE PARADE - LODHA EVOQ 41st Floor, NEW CUFFE PARADE - LODHA DIORO AND ELISIUM, NEW CUFFE PARADE -LODHA ALTIA, LODHA SPLENDORA - PLATINO - B, Lodha Global Park, LODHA SPLENDORA - PLATINO - D, Lodha Quality Home Tower 2, Lodha Quality Home Tower - 5, LODHA SPLENDORA PLATINO E TO G , VIVANT A TO D, Lodha Panacea I, Lodha Quality Home Tower 4, Lodha Panacea II, Lodha Quality Home Tower 3, Lodha Quality Home Tower 1, Lodha Fiorenza, CASA UNIVIS - CIELO D, Jasmine T, Orchid M N O, Jasmine L and M, Jasmine A, B, C, G, H and I, Orchid A to L, Jasmine D, E and F, LODHA VENEZIA - 49TH TO 65TH FLOOR, LODHA AZZURO, THE WORLD TOWERS - WORLD ONE - TIER III AND TRINITY, One Lodha Place, THE WORLD TOWERS -  WORLD ONE - TIER II, Casa Royale - Grande, Piramal Revanta - Tower 4, Gingelia Residential, Alpinia, Herbelia, North Tower - Tower 3, South Tower, Central Tower - Tower 2, NIVAN, Elite Solitaire 15, Elite Solitaire 16, Elite Platina 19, Elite Platina 20, Birla Vanya Phase 2, Cassias, VALLETTA, MAESTRO, 25 South - Central Tower, 7 Hughes, Twenty Five South - North Tower, Upper Thane Treetops A - C, C1, C2, D - F, Upper Thane - Ecopolis A, Upper Thane - Tiara C, Upper Thane - Woodlands G,H,I, Upper Thane - Sereno A, B, B1, Upper Thane - Meadows A, UPPER THANE - TIARA A to B, Upper Thane - Tiara H, Upper Thane - Meadows E, F, G, Magnolia A B and C, UPPER THANE - WOODLANDS A, B AND J, UPPER THANE -SERENO A1, Upper Thane - Sereno A1, C &amp; C1, UPPER THANE - Woodlands E and F, UPPER THANE - WOODLANDS C AND D, Upper Thane - Sereno D and E, Upper Thane Ecopolis A - B, Upper Thane Greenville A - E, E1, F - I, Casa Selva A to C, UPPER THANE - TIARA D, Upper Thane - Tiara E, F, UPPER THANE - Tiara I, West Shore, Parasmani - B, GODREJ URBAN PARK, LODHA ETERNIS IDYLLIA B, SERENA B, NATURA B AND C, LODHA ETERNIS SERENA C, Lodha Supremus - Andheri, PALAVA MILANO E, F, PALAVA AURORA B, C, PALVA MILANO D, G, PALAVA MILANO A,B,C,H,I,J, PALAVA MARVELLA A, H, PALAVA MARVELLA B,C,D,E,F,G, LODHA SEAVIEW, PALAVA SAVANA AND SIENA, Lodha iThink B, LODHA FRESHIA WING D, E, LODHA FRESHIA WING A, B, C, PALAVA RIVER VIEW E AND F, FONTANA A ,B, I and J, PALAVA - AURELIA - D TO G, PALAVA ESTELA H, I, J, PALAVA FONTANA C - H, PALAVA AURELIA - C, H, I, PALAVA ESTELA A, B, C, PALAVA - ESTELA D to G, PALAVA AURELIA A, EKTA CREST, EKTA CREST, EKTA MAPLEWOOD, EKTA TRINITY, THE PANORAMA BY RUSTOMJEE, Radius Residency and Anand Bhuvan, Godrej Exquisite, 25 South Tower A 11th to 47th Floor, 25 South Tower A upto 10th Floor, EKTA VERVE, EKTA EROS, 25 Downtown-Wing 1-Emerald Palm, Lodha Mira Road Project 1, AVENUE 54, PANORAMA, LEGRANZ, PALAVA ELITE K TO T, PALAVA - ELITE - A to J, PALAVA LAGOONA A TO F, PALAVA LAKESIDE I TO O, PALAVA - PASEO - D to H, PALAVA - UNO H - O, PALAVA PRIMIA E to J, PALAVA REGALIA A to F, PALAVA CROWN, PALAVA VIENTO A to D, Palava - Retail Shop no 15 to 33 - Car Park Building C1, Palava Cielo A - F, PALAVA VISTA A to D, PALAVA LAKESIDE A to H, Palava - Trinity A to C, Imperial Heights Wing C and D, Harbour Heights, TEN BKC, ANANTYA 1B, ANANTYA 1A, THE CANVAS RESIDENCES - CANVAS 1, CANVAS 2, CANVAS 3</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100023129, P52100048329, P52100052923, P52100018532, P52100000182, P52100000406, P52100000350, P52100000174, P52100011522, P52100018308, P52100017082, P52100020142, P52100000221, P52100020190, P52100020172, P52100020156, P52100019434, P52100016840, P52100020188, P52100000283, P52100029119, P52100049664, P52100049685, P52100028012, P52100022486, P52100018603, P52100031354, P52100047781, P52100050272, P52100018775, P52100047940, P52100032022, P52100049839, P52100029906, P52100035207, P52100014951, P52100022619, P52100023051, P52100029121, P52100052912, P52100034988, P52100022957, P52100018779, P52100021609, P52100000887, P52100018284, P52100017386, P52100016848, P52100015188, P52100054001, P52100017868, P52100021093, P52100051200, P52100028133, P52100024616, P52100049914, P52100028310, P52100045982, P52100046228, P52100027928, P52100009077, P52100018309, P52100054619, P52100031366, P52100047702, P52100052955, P52100024598, P52100004518, P52100015685, P52100026185, P52100018205, P52100017239, P52100014939, P52100047895, P52100045667, P51800014891, P51800014860, P51800016528, P51800014869, P51700015598, P51700014760, P51700018579, P51700020123, P51700018593, P51700001031, P51700015243, P51700018393, P51700020093, P51700020189, P51700020158, P51700015040, P51700020088, P51700020157, P51700020128, P51700020151, P51700025892, P51700001030, P51700000981, P51700001065, P51700013961, P51700020164, P51900018039, P51900023708, P51800002079, P51900014910, P51700013263, P51700019519, P51800000619, P51800000481, P51800000862, P51800005647, P51900001339, P51900029416, P51900016526, P51900014937, P51700020214, P51700025470, P51700000577, P51700000696, P51700000419, P51700017590, P51700025474, P51700025471, P51700025522, P51700025674, P51700000802, P51700020155, P51700020124, P51700020253, P51700025535, P51700025495, P51700000540, P51700020131, P51700000420, P51700025475, P51700017506, P51700020159, P51700000448, P51700017487, P51800000345, P51800000294, P51700013789, P51900000521, P51900000367, P51900000567, P51900000314, P51900000629, P51700000258, P51700017924, P51700000659, P51700022251, P51700027449, P51700000199, P51700017078, P51700024777, P51700017060, P51700022533, P51700022250, P51800000195, P51700001153, P51700020373, P51700019809, P51700024141, P51700020381, P51700016747, P51700020354, P51900005378, P51900000828, P51900008962, P51900014984, P51900008345, P51700001517, P51800031310, P51700001033, P51700000778, P51700001038, P51900021057, P51900015854, P51900016482, P51800011423, P51700006610, P51700009882, P51700008189, P51700010204, P51700029755, P51800045589, P51800046901, P51800051079, P51900025184, P51900005191, P51900030600, P51700008449, P51700016666, P51700016437, P51700016245, P51700016243, P51700020266, P51700014814, P51700020154, P51700020170, P51700020197, P51700020104, P51700020191, P51700020217, P51700018107, P51700020225, P51700014770, P51700007192, P51700006147, P51700020268, P51700019121, P51700020141, P51700018035, P51800053995, P51900023727, P51800028364, P51800000293, P51800020147, P51800013696, P51700011629, P51700010960, P51700010109, P51700015016, P51700015660, P51700013462, P51900010326, P51700000546, P51700025627, P51700006149, P51700004667, P51700008764, P51700000506, P51700000511, P51700013145, P51700000596, P51700013073, P51700013158, P51700011068, P51700020161, P51800046149, P51800046149, P51800001523, P51800005021, P51800054920, P51800011593, P51700024496, P51900011418, P51900006860, P51800021089, P51800001826, P51900076617, P51700012991, P51800007149, P51800001112, P51800000141, P51700000389, P51700000125, P51700000124, P51700000410, P51700000269, P51700000142, P51700000391, P51700000390, P51700010935, P51700000342, P51700016941, P51700000378, P51700000395, P51700000384, P51700014396, P51800003270, P51900004243, P51800004889, P51800009827, P51800005533, P51900026182</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1077,47 +1072,47 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1244,32 +1239,32 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1406,32 +1401,32 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1568,47 +1563,47 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1730,47 +1725,42 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>PREET PROPERTIES</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>09920896647</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Shop No C/25,SHREE SAI SNEHA COMPLEX,RAMDEV PARK ROAD,MIRA ROAD, EAST THANE 401107</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>preetpropertiesmumbai@gmail.com</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Susneh Infrapark Private Limited, Susneh Infrapark Private Limited, Sanghvi Premises Pvt. Ltd., Sunteck Lifespace Private Limited, Sunteck Lifespace Private Limited, JP Infra (Mumbai) Pvt. Ltd., Runwal Residency Private Limited, JP Infra Residency Private Limited, JP Infra Residency Private Limited, JP Infra Realty Private Limited, JP Infra Realty Private Limited, JP Infra Realty Private Limited, JP Infra Realty Private Limited, JP Infra Realty Private Limited, JP Infra Realty Private Limited, JP Infra Realty Private Limited, JP Infra Realty Private Limited, JP Infra Realty Private Limited, JP Infra Realty Private Limited, JP Infra Realty Private Limited, JP Infra Realty Private Limited, ITMC Developers Pvt. Ltd., AKSHAR SHANTI REALTORS PRIVATE LIMITED, Sanghvi Premises Pvt Ltd, ARKADE REALTY</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Runwal Avenue Wing - L, Runwal Avenue Wing - L, Sanghvi S3 Ecocity Woods, Sunteck Sky Park 1, Sunteck Sky Park 2, JP Eminence, Runwal Gardens Phase 4 Bldg No. 33-34, North Barcelona, North Barcelona Wing D, JP North Euphoria, JP North Imperia - Tower 1, JP North Alexa, JP North Imperia - Tower 2, JP North Atria, The Palace Tower B, The Palace Tower B, The Palace Tower C, The Palace Tower C, JP North Aviva, JP North Elara, JP North Estella, SSG Springville, IMPERIAL HEIGHTS PHASE I - A AND B WING, Sanghvi S3 Ecocity Orchid, ARKADE ART PHASE 2</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P51800031895, P51800031895, P51900006575, P51700050167, P51700050166, P51800026524, P51700030533, P51700020082, P51700028384, P51700016290, P51700019613, P51700016736, P51700019783, P51700004117, P51700033430, P51700033430, P51700033431, P51700033431, P51700023940, P51700007001, P51700008916, P51900017166, P51700006296, P51900008323, P51700004092</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1887,47 +1877,47 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, RAVIE KHILUMAL OCHANNI, Prakruti Constructions Pvt Ltd, VMA PROPERTIES LLP, KEVIN PROPERTIES, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Kumar Properties Govind Shree Realtors LLP, Sukumar Township Development Private Limited, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Ramkrishna Cine Exhibitors, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Parasmani Constructions Pvt .Ltd, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Acme Housing India Private Limited, Acme Housing India Private Limited, Acme Housing India Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Macrotech Developers Limited, Macrotech Developers Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Lodha Buildcon Private Ltd (Lodha Develoopers Pvt Ltd)</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Siddhachal - A4, Siddhachal - A1, 47 East - C Mhada, 47 East - B Wing B, C and D, KUMAR PRAJWAL, Princetown Royal - B5, Princetown Royal - B3 and B6, Princetown Tower - C2, STAR VISTA, Pinnacle - A4 and A5, VMA RESERVE, Paradise - B2 and B3, Palmspring Towers - A4, A5 and B2, Palmspring Towers - A1, A2 and A3, Kumar Prospera - A7 and A8, Lodha Belmondo - Townhouses, Lodha Belmondo - Pebble Beach D, LODHA BELMONDO AUGUSTA B, LODHA BELMONDO SAWGRASS B, LODHA BELMONDO Pebble Beach E, Estancia A, Lodha Belmondo St. Andrews B,C,D  Villa 1 to 28, Lodha Belmondo - Tower 30, Lodha Belmondo - Sawgrass A, Lodha Belmondo - Tower 29, Lodha Belmondo - Tower 32, Lodha Belmondo St. Andrews A, Lodha Belmondo - Tower 31, LODHA BELMONDO AUGUSTA C, LODHA BELMONDO ST. ANDREWS E, LODHA BELMONDO ASHBRIDGE D, E, LODHA BELMONDO - ESTANCIA B, Kumar Prakruti, Prithvi - H2, Kumar Parc Residences - C Mhada, Kumar Parc Residences - B2, Kumar Parc residences - A1, Joyville Hinjawadi - I, Phase 3, Joyville Hinjawadi - I, Phase 4, Joyville Hinjawadi - I, Phase 1, Joyville Hinjawadi - I, Phase 2, Joyville Hinjawadi - I, Phase 5, Joyville Hinjawadi - I, Phase 6, Peninsula C, Kumar Pratham - F Mhada, Peninsula - D, Park Infinia - L1, K3 and I4, Park Infinia - B1 and B2, ELINA LIVING PHASE III, LODHA PARK, Lodha Adrina, LODHA PARK - TOWN HOUSES, CODENAME- MUST-HAVE, Palava Olivia C, PALAVA SERENITY B, Urbano 2 Shops, Palava Clara J-M, PALAVA CLUSTER 2-06 -  A - G, I - N, PALAVA OLIVIA A, Lakeside 2 Shops, PALAVA URBANO G AND H, PALAVA EVIVA K to T, URBANO A, B, C and F, URBANO I to T, PALAVA CLARA A to D, D1, Palava Florea - A to D, North MLCP Shop, Foresta &amp; Fiora, Palava Magnolia, Palava Serenity C, Regalia Shops, Elite 2 Shops, PALAVA CLARA E - I, PALAVA URBANO D AND E, PALAVA SERENITY A, PALAVA SERENITY D, Lakeside 1 Shops, Clara Shops, Elite 1 Shop, LODHA ETERNIS IDYLLIA B, SERENA B, NATURA B AND C, LODHA ETERNIS NATURA A, LODHA ETERNIS SERENA A, Lodha Supremus - Andheri, LODHA ETERNIS SERENA C, PALAVA - PASEO - D to H, PALAVA ELITE K TO T, PALAVA LAGOONA A TO F, PALAVA LAKESIDE A to H, PALAVA PRIMIA E to J, PALAVA LAKESIDE I TO O, PALAVA VISTA A to D, Palava Cielo A - F, Palava - Trinity A to C, PALAVA - UNO H - O, PALAVA REGALIA A to F, PALAVA CROWN, Palava - Retail Shop no 15 to 33 - Car Park Building C1, PALAVA - ELITE - A to J, PALAVA VIENTO A to D, Lodha Majiwada - Tower 1, Lodha Majiwada - Tower 5, Lodha Parel Project, Lodha Majiwada - Tower 4, NEW CUFFE PARADE - LODHA ENCHANTE, NEW CUFFE PARADE - LODHA DIORO AND ELISIUM, NEW CUFFE PARADE -LODHA ALTIA, NEW CUFFE PARADE - LODHA ESTRELLA, NEW CUFFE PARADE - LODHA EVOQ 41st Floor, Lodha Quality Home Tower 2, Lodha Quality Home Tower 3, Lodha Quality Home Tower 1, Lodha Quality Home Tower - 5, LODHA SPLENDORA - PLATINO - D, Lodha Fiorenza, LODHA SPLENDORA PLATINO E TO G , VIVANT A TO D, CASA UNIVIS - CIELO D, Lodha Patel Estate - Tower G, Lodha Patel Estate - Tower C, D, Lodha Patel Estate - Tower E, F, Lodha Patel Estate - Tower A, B, Lodha Mira Road Project 1, Joyville Virar Phase 3, Joyville Virar Phase 5, Joyville Virar Phase 4, Joyville Virar Phase 2, Joyville Virar Phase 1, Parasmani - B, Lodha Amara Tower 44, Lodha Amara MLCP Retail, Lodha Amara - Tower 6, 22, Lodha Amara - Tower 45, Lodha Kolshet Plot A - Tower J, LODHA AMARA - TOWER 23, Lodha Amara Tower 24 and 25, Lodha Amara - Tower 36 37, Lodha Kolshet Plot A - Tower K, Lodha Amara -Tower 42 and 43, Lodha Sterling - Tower G, Lodha Amara Tower 49 and 50, LODHA AMARA - TOWER 38 and 39, Lodha Amara Tower 47 and 48, Lodha Sterling - Tower H, LODHA AMARA - TOWER 32,33, Lodha Amara - Tower 46, LODHA AMARA - TOWER 26, 27, 28, 30, 34, 35, LODHA AMARA - TOWER 1 - 5, 7 - 19, LODHA AMARA - TOWER 29,31, Lodha Supremus - Thane, Kolshet, Lodha Amara - Wing 40 and 41, Alpinia, Gingelia Residential, Herbelia, PALVA MILANO D, G, PALAVA MILANO E, F, PALAVA MARVELLA A, H, PALAVA MILANO A,B,C,H,I,J, PALAVA MARVELLA B,C,D,E,F,G, PALAVA AURORA B, C, LODHA SEAVIEW, PALAVA SAVANA AND SIENA, LODHA FRESHIA WING D, E, LODHA FRESHIA WING A, B, C, PALAVA RIVER VIEW E AND F, Lodha iThink B, PALAVA - AURELIA - D TO G, PALAVA FONTANA C - H, FONTANA A ,B, I and J, PALAVA AURELIA - C, H, I, PALAVA AURELIA A, PALAVA - ESTELA D to G, PALAVA ESTELA A, B, C, PALAVA ESTELA H, I, J, UPPER THANE - WOODLANDS A, B AND J, UPPER THANE - TIARA A to B, Upper Thane - Sereno D and E, UPPER THANE - TIARA D, Upper Thane - Sereno A1, C &amp; C1, Upper Thane Treetops A - C, C1, C2, D - F, Upper Thane - Tiara C, Upper Thane - Sereno A, B, B1, UPPER THANE -SERENO A1, Upper Thane - Tiara E, F, Upper Thane - Tiara H, Upper Thane - Meadows E, F, G, Upper Thane - Woodlands G,H,I, UPPER THANE - Tiara I, Casa Selva A to C, Upper Thane - Ecopolis A, Upper Thane Greenville A - E, E1, F - I, Upper Thane Ecopolis A - B, UPPER THANE - WOODLANDS C AND D, Upper Thane - Meadows A, UPPER THANE - Woodlands E and F, Magnolia A B and C, Lodha Quality Home Tower 4, Lodha Panacea II, Lodha Panacea I, Lodha Global Park, LODHA SPLENDORA - PLATINO - B, Jasmine A, B, C, G, H and I, Jasmine D, E and F, Jasmine L and M, Jasmine T, Orchid A to L, Orchid M N O, LODHA AZZURO, LODHA VENEZIA - 49TH TO 65TH FLOOR, THE WORLD TOWERS - WORLD ONE - TIER III AND TRINITY, THE WORLD TOWERS -  WORLD ONE - TIER II, One Lodha Place, Casa Royale - Grande</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100018775, P52100050272, P52100053775, P52100052955, P52100017868, P52100027928, P52100046228, P52100045982, P52100026112, P52100054619, P52100033654, P52100049914, P52100048329, P52100052923, P52100035207, P52100017082, P52100018308, P52100000406, P52100000221, P52100000350, P52100000283, P52100020188, P52100019434, P52100020142, P52100020190, P52100020156, P52100020172, P52100000174, P52100000182, P52100011522, P52100016840, P52100054001, P52100031366, P52100047940, P52100049839, P52100032022, P52100016775, P52100016786, P52100016131, P52100016252, P52100018500, P52100018502, P52100028012, P52100049685, P52100049664, P52100045667, P52100047895, P52100023154, P51900001339, P51900014937, P51900016526, P51900029416, P51700017590, P51700020253, P51700025475, P51700000420, P51700000802, P51700020214, P51700025535, P51700000696, P51700000419, P51700000448, P51700017487, P51700025674, P51700017506, P51700020131, P51700020159, P51700025474, P51700025470, P51700000540, P51700000577, P51700020155, P51700020124, P51700025522, P51700025495, P51700025471, P51800000293, P51800000345, P51800000294, P51800013696, P51800020147, P51700000269, P51700000389, P51700000124, P51700000384, P51700000391, P51700000410, P51700000395, P51700000378, P51700014396, P51700000142, P51700000390, P51700010935, P51700016941, P51700000125, P51700000342, P51700013263, P51700019519, P51900014910, P51700013789, P51900000367, P51900000314, P51900000629, P51900000521, P51900000567, P51700022251, P51700022533, P51700022250, P51700027449, P51700000659, P51800000195, P51700000199, P51700001153, P51800016528, P51800014860, P51800014869, P51800014891, P51700012991, P99000018521, P99000019531, P99000019538, P99000013612, P51900000444, P51900023727, P51700020123, P51700025892, P51700014760, P51700018593, P51700015243, P51700020093, P51700020128, P51700013961, P51700015040, P51700020164, P51700020158, P51700020157, P51700018393, P51700020151, P51700020189, P51700001030, P51700018579, P51700001031, P51700001065, P51700000981, P51700015598, P51700020088, P51700000778, P51700001033, P51700001038, P51700010109, P51700011629, P51700015660, P51700015016, P51700013462, P51700010960, P51900010326, P51700000546, P51700006149, P51700004667, P51700008764, P51700025627, P51700000511, P51700000596, P51700000506, P51700013073, P51700020161, P51700011068, P51700013158, P51700013145, P51700020104, P51700014814, P51700014770, P51700019121, P51700020217, P51700008449, P51700016437, P51700016243, P51700020191, P51700020141, P51700020154, P51700020170, P51700016245, P51700018035, P51700020268, P51700016666, P51700006147, P51700007192, P51700020225, P51700020266, P51700018107, P51700020197, P51700024777, P51700017060, P51700017078, P51700017924, P51700000258, P51700020381, P51700020354, P51700024141, P51700020373, P51700016747, P51700019809, P51900000828, P51900005378, P51900008962, P51900008345, P51900014984, P51700001517</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -2049,32 +2039,32 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2211,47 +2201,47 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2373,47 +2363,42 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>AMRAVATI HEAD OFFICE</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>07212577138</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>RADHAKRISHNA APPARTMENT,BALAJI PLOT, RAJAPETH</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>MILIND_THAKKAR77@REDIFFMAIL.COM</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2535,47 +2520,47 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2692,47 +2677,47 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Amir Enterprises</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02065275550</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Shop No 1, A-8, Meera Nagar, North Main Road, Lane 7,Koregaon Park,Pune 411001</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>vanand212@gmail.com</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02065275550</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>ONE EARTH, VTP Mohite Associates, Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Godrej Skyline Developers Private Limited, MEENAMANI GANGA BUILDERS LLP, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, WESTERNCITY TOWNSHIPS LLP, WESTERNCITY TOWNSHIPS LLP, OXFORD REALTY LLP, Kakade Vtp Associates, Home Corp &amp; Associates, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, MARVEL ZETA DEVELOPERS PVT LTD, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL LANDMARKS PVT LTD, Mahalunge Township Developers LLP, ESTEEM CONSTRUCTIONS PRIVATE LIMITED (ADANI GROUP), SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Kalpataru Gardens Pvt. Ltd., VTP Mohite Associates, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Godrej Skyline Developers Private Limited, Godrej Skyline Developers Private Limited, Kalpataru Retail Ventures Private Limited, Kalpataru Retail Ventures Private Limited, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Rising welworth Enterprises LLP, Rising welworth Enterprises LLP, GODREJ SKYLINE DEVELOPERS PRIVATE LIMITED, VTP URBAN PROJECTS (PUNE) LLP, ONE EARTH, Sukumar Township Development Private Limited, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, VT Palresha &amp; Co. Private Limited, VTP Mohite Associates, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Bramhacorp Limited, HOME RISING CONSTRUCTION LLP, RIBERA PROJECTS LLP, Gera Realty Estates, VTP Corpartion LLP, VTP Corpartion LLP, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Manjari Housing Projects LLP, KEVIN PROPERTIES, VTP Corporation LLP, SHORE DWELLINGS PRIVATE LIMITED, SHORE DWELLINGS PRIVATE LIMITED, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Manjari Housing Projects LLP, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL OMEGA BUILDERS PVT LTD, MARVEL OMEGA BUILDERS PVT LTD, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, Kalpataru Gardens Pvt. Ltd., DOREA HOMES LLP, Peninsula Land Limited, Peninsula Land Limited, Peninsula Land Limited, Peninsula Land Limited, Cherry Contruction Pvt. Ltd., NYATI REALTORS LLP, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Ajanta Enterprises, SHREE BALAJI REALTY, Classic Promoters and Builders Private Limited, Prakruti Constructions Pvt Ltd, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Antariksha Developers, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, PAX HOMES LLP, Kumar Properties Govind Shree Realtors LLP, Parasmani Constructions Pvt .Ltd, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Florida Water Color II, Trade Park Phase1, PICASSO - O, Park Infinia - I1, I2, I3, J2, J3 and K1, Park Infinia Phase IV, Park Infinia Phase III, Park Infinia - L2, L3, L4, K4, K5 and J4, Park Infinia - B1 and B2, Picasso Phase II, Park Infinia - L1, K3 and I4, Godrej Wood Park, GANGA FERNHILL PHASE I, Marvel Basilo A AND B Building, Marvel Cascada C Building, Marvel Cascada D building, MARVEL SERA A,B,C BUILDING, Marvel Kyra A AND B Building, Marvel Bounty J Building, MARVEL BOUNTY BUILDING L, MARVEL ARCO B BUILDING, MARVEL ARCO E BUILDING, Marvel Cascada E Building, Marvel Castella A And B Building, Geras Affinia, Geras Imperium Gateway B, Geras Planet of Joy Project IV, Geras Imperium Gateway A and C, Geras Imperium Rise, Geras Planet of Joy Project I, Geras Imperium Alpha, VTP SOLITAIRE PHASE 1 AB, VTPSolitaire Building C AND D, Godrej Rejuve, Urban Life Phase 1, Celesta, KUMAR PRAJWAL, Primavera - B6 and S1, PLOT NO. B-01 TO B-21 VIVA,PIRANGUT,PUNE, PLOT NO.7, VIVA, PIRANGUT, PLOT NO 8, VIVA, PIRANGUT, PLOT NO. 10, VIVA,PIRANGUT,PUNE, Marvel Piazza phase -01, Kumar Parc Residences - C Mhada, Kumar Parc Residences - B2, Kumar Parc residences - A1, RAHEJA VISTAS BUILDING B2, T9 Chronos and T10 Supremus Phase 1 Of Raheja Reserve being Buildings T7 T8 T9 T10 in RV Premiere, T12 NAMED MAGNA BEING PHASE 2 OF THE PROJECT COMPRISING BUILDINGS T12 AND T13, T8 named LUXURIANT Phase 2 of Raheja Reserve being Buildings T7 T8 T9 T10 in RV Premiere, VISTAS CENTREPOINT, T13 - PHASE OF THE PROJECT COMPRISING BUILDING T12 AND T13, MARVEL CITRINE A BUILDING, MARVEL CERISE Bldg-A, MARVEL CERISE BLDG B, C, D, MARVEL AQUANAS, Marvel Aurum, Marvel Brisa, Marvel Fuego, Marvel Ganga Boulevard Phase 02, Godrej Green Cove, ATELIER GREENS, Belmac Residences A, Belmac Residences E, Belmac Residences C, Belmac Residences D, Belmac Residences B, Belmac Residences F, Princeville - A2, C2 and Conv Shop 2, Priyadarshan - J, Kumar Pratham - D E G, Kumar Pratham - D E G, Priyadarshan - I, Peninsula - D, Kumar Pratham - F Mhada, Peninsula C, Kumar Pratham - A B C and Shops, Megapolis Saffron - A3 to A9, Megapolis Symphony Phase I, Megapolis Mystic Phase 2, Megapolis Saffron - A10 to A14, Megapolis Mystic - C, Megapolis Springs - C, Megapolis Serenity A8 to A12, B2 and Conv shop B, Megapolis Serenity A1 to A7, B1 and Conv shop A, Megapolis Shimmer - A1, Megapolis Springs - D and E, Megapolis Mystic - F, Megapolis Saffron - Shops, Megapolis Springs - B and F, Megapolis Springs - A, Kalpataru Serenity - Bldg. 2, Market Place, Godrej 24, Godrej 24, Godrej Elements, Godrej Elements, Godrej Elements, Godrej Park Greens, Godrej Park Greens, Kalpataru Exquisite - Wing 2, Kalpataru Exquisite - Wing 1, Windermere Phase 1, Platinum Square Phase 1, Windermere Phase 2, Platinum Square Phase 2, Platinum Square Phase 1, Windermere Phase 1, Windermere Phase 2, Vascon Goodlife Phase A, Vascon Goodlife Phase C, Vascon Goodlife Phase B, Hi Life, Altitude, Godrej Nurture, URBAN BALANCE, Florida Water Color I, Prithvi - H2, 47 East - A, 47 East - B Wing B, C and D, 47 East - B Wing A, Princeville - B4 and B5, Princeville - B3 and C1, Primus - A, VTP ONE, Urban Nest Phase1, Princetown Tower - C3, Princetown Royal - B4, Princetown Royal - B5, Princetown Royal - B3 and B6, Princetown Royal - B2, Princetown Tower - C2, Boulevard part of Towers Phase 1, VTP Aethereus- Phase1, Marvel Ribera A Building, Geras Adara, Purvanchal Phase1 AB, Purvanchal Phase1 AB, Aldea Annexo -C1, Aldea Annexo - C2, Sayama Phase 3, Aldea Annexo - D, Sayama Phase 2, Sayama Phase 4, GODREJ BOULEVARD, Paradise - B2 and B3, Purvanchal Phase2 C D E, Mantri Vantage, Mantri Emporio, Puraniks Abitante Phase 1A, Puraniks Abitante Phase 1B, Aldea Espanola Phase V, Aldea Espanola Phase VI, Aldea Espanola Phase VII, Godrej Parkridge, MARVEL ZEPHYR BUILDING U, MARVEL ISOLA J BUILDING, Marvel Ganga Sangria D,E Building, Marvel Ganga Sangria G,H,J Building, Marvel Ganga Sangria K,L,M Building, Marvel Ganga Sangria A,B,C Building, Marvel Selva Ridge A,B Building, Marvel Selva Ridge Villa Phase 01, Kalpataru Jade Residences E, Kalpataru Jade Residences F, Kalpataru Jade Residences B, Kalpataru Jade Residences C, Kalpataru Serenity - Bldg. 5, Marvel Ideal Spacio Phase 01, addressOne - Phase 4, addressOne - Phase 2, addressOne - Phase 1, addressOne - Phase 3, Citron Phase 2, NYATI ESTEBAN I, Siddhachal - A4, Siddhachal - A1, Forest Edge Phase 1, GANGA FLORENTINA PH I, Solitaire Business Hub Viman Nagar Phase 1, Pinnacle - A4 and A5, Geras Imperium Oasis, Geras Misty Waters, Geras Planet of Joy Project III, Geras Imperium Oasis, Geras Planet of Joy Project II, Geras Misty Waters, B1 Song Of Joy Geras Greenville 2, Geras Isle Royale Tower 2 and 3, Geras Imperium Rise, Joyville Hinjawadi - I, Phase 2, Joyville Hinjawadi - I, Phase 1, Joyville Hinjawadi - I, Phase 4, Joyville Hinjawadi - I, Phase 3, Joyville Hinjawadi - I, Phase 6, Joyville Hinjawadi - I, Phase 5, SENSORIUM, PHASE II, SENSORIUM, PHASE I, SENSORIUM, PHASE III, Antariksha Signatures, Palmspring Towers - A4, A5 and B2, Palmspring Towers - A6, A7 and B3, Palmspring Towers - A1, A2 and A3, Palmspring Bungalows - E1 to E6, Geras World of Joy S, Geras World of Joy L, Geras World of Joy C, Geras World of Joy D, 343 CREST, Geras World of Joy M, Kumar Prospera - A7 and A8, Kumar Prospera - A3, A4 and A5, Kumar Prospera - A6, Kumar Prospera - A1 and A2, Marvel Fria P1, P2, P3 Building, Kumar Prakruti, Parasmani - B, Joyville Virar Phase 3, Joyville Virar Phase 2, Joyville Virar Phase 1, Joyville Virar Phase 4, Joyville Virar Phase 5</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100000946, P52100000518, P52100018205, P52100017239, P52100014939, P52100000084, P52100026185, P52100047895, P52100000104, P52100045667, P52100028133, P52100000838, P52100001711, P52100006134, P52100003507, P52100001878, P52100010211, P52100006797, P52100010835, P52100008708, P52100007022, P52100002242, P52100002438, P52100005399, P52100030167, P52100031876, P52100030184, P52100001786, P52100031802, P52100015242, P52100000727, P52100022428, P52100018720, P52100001269, P52100004798, P52100017868, P52100021093, P52100001800, P52100002681, P52100002113, P52100002702, P52100003653, P52100047940, P52100049839, P52100032022, P52100000919, P52100021356, P52100015996, P52100024187, P52100016359, P52100000707, P52100007908, P52100001091, P52100002648, P52100001521, P52100002240, P52100001627, P52100006192, P52100002574, P52100026875, P52100018596, P52100000899, P52100000131, P52100013991, P52100000407, P52100020497, P52100018437, P52100018603, P52100029119, P52100031354, P52100031354, P52100047781, P52100049664, P52100049685, P52100028012, P52100022486, P52100018779, P52100000887, P52100001391, P52100021609, P52100019959, P52100016848, P52100022957, P52100023051, P52100052912, P52100015188, P52100029121, P52100034988, P52100017386, P52100018284, P52100015855, P52100000587, P52100001005, P52100001005, P52100016626, P52100016626, P52100016626, P52100019639, P52100019639, P52100001266, P52100000298, P52100003865, P52100001434, P52100002368, P52100012916, P52100001434, P52100003865, P52100002368, P52100016242, P52100016293, P52100016237, P52100016413, P52100024885, P52100020686, P52100000329, P52100000870, P52100031366, P52100024598, P52100052955, P52100047702, P52100015685, P52100000755, P52100004518, P52100015407, P52100000581, P52100009077, P52100007776, P52100027928, P52100046228, P52100018309, P52100045982, P52100004150, P52100026772, P52100002377, P52100000889, P52100001109, P52100001109, P52100000979, P52100002665, P52100002137, P52100020092, P52100004782, P52100005004, P52100024616, P52100049914, P52100009865, P52100008390, P52100005228, P52100000437, P52100000569, P52100000572, P52100000537, P52100004340, P52100028310, P52100010976, P52100001843, P52100002064, P52100002371, P52100002514, P52100001815, P52100003648, P52100011640, P52100001392, P52100000869, P52100000926, P52100000676, P52100001267, P52100001583, P52100015803, P52100015747, P52100015756, P52100015779, P52100018850, P52100003767, P52100018775, P52100050272, P52100014725, P52100004357, P52100006995, P52100054619, P52100015514, P52100001176, P52100031875, P52100015514, P52100031809, P52100001176, P52100002048, P52100009870, P52100001786, P52100016252, P52100016131, P52100016786, P52100016775, P52100018502, P52100018500, P52100024964, P52100024963, P52100024965, P52100009963, P52100048329, P52100018532, P52100052923, P52100015961, P52100022499, P52100022530, P52100022522, P52100022598, P52100022737, P52100022744, P52100035207, P52100022619, P52100029906, P52100014951, P52100001522, P52100054001, P51900023727, P99000018521, P99000013612, P51900000444, P99000019538, P99000019531</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -2854,47 +2839,47 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>PRL Developers Private Limited, PRL Developers Private Limited</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Piramal Revanta - Tower 3, Piramal Revanta - Tower 4</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P51800018099, P51800031310</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3016,32 +3001,32 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -3183,47 +3168,47 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>JAI UMIYA INFRA, Godrej Properties Limited, GOLDBRICKS INFRASTRUCTURE PVT LTD, GOLDBRICKS INFRASTRUCTURE PVT LTD, GOLDBRICKS INFRASTRUCTURE PVT LTD, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, RAGHAV LIFESPACES, Landmarks Orchid Homes Infraventures, Landmarks Orchid Homes Infraventures, LANDMARK GLV INFRAVENTURES LLP, MAXX BUILDER AND DEVELOPERS, DREAM WORLD LANDMARKS LLP, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, OXFORD REALTY LLP, OXFORD REALTY LLP, OXFORD REALTY LLP, OXFORD REALTY LLP, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Kumar Properties Infratech Developers Pvt Ltd, Manjari Housing Projects LLP, Godrej Skyline Developers Private Limited, Mahalunge Township Developers LLP, Mahalunge Township Developers LLP, DREAM WORLD LANDMARKS LLP, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Godrej Skyline Developers Private Limited, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KUMAR KERING DEVELOPERS LLP, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>JAI UMIYA NAGARI, Godrej Anandam, RHS, ANANDAM WORLD CITY PART OF TOWER A B AND D, LHS, Mahindra Bloomdale 4C, Bloomdale Bloomdale 07, Bloomdale Building 09, Bloomdale Duplex Home 6, Bloomdale Row House 7, Bloomdale Row House 8 37 to 42, Bloomdale Row House 12 61 to 66, Bloomdale Duplex Home 4, Bloomdale Building 10 B, Bloomdale Building 06, Bloomdale Row House 11 55 to 60, Bloomdale Duplex 08 13 to 14, Mahindra Bloomdale 4B, Bloomdale Building 10 A, Bloomdale Building 04, Bloomdale Building 08, Bloomdale Row House 5, Bloomdale Row House 6, Bloomdale Duplex Home 3, LA REGALIA, Orchid Crown, ORCHID DIAMOND, ORCHID EMERALD, MAXX GLORY, Godrej Greens, Princeville - B4 and B5, Primus - A, Kumar Prospera - A7 and A8, Kumar Prospera - A1 and A2, Kumar Prospera - A3, A4 and A5, Princeville - A2, C2 and Conv Shop 2, Priyadarshan - J, Kumar Pratham - A B C and Shops, Godrej Infinity, Godrej Infinity, Godrej Rejuve, Godrej Rejuve, Siddhachal - A4, Kumar Parc residences - A1, GODREJ BOULEVARD, Godrej Park Greens, Godrej Hillside 1, Godrej Hillside 2, Godrej Prana, Godrej Elements, Godrej Elements, Godrej Elements, Godrej 24, Park Infinia Phase III, Park Infinia Phase IV, Park Infinia - I1, I2, I3, J2, J3 and K1, Park Infinia - L2, L3, L4, K4, K5 and J4, PICASSO - O, Park Infinia - L1, K3 and I4, Godrej Wood Park, Princetown Tower - C2, Princetown Royal - B3 and B6, Princetown Royal - B2, Princetown Tower - C3, Princetown Royal - B5, Megapolis Symphony Phase I, Megapolis Springs - D and E, Megapolis Springs - C, Megapolis Springs - B and F, Megapolis Springs - A, Megapolis Mystic - F, Megapolis Saffron - Shops, Megapolis Springs - A, Megapolis Mystic Phase 2, Megapolis Mystic - C, Megapolis Serenity A8 to A12, B2 and Conv shop B, Megapolis Serenity A1 to A7, B1 and Conv shop A, Megapolis Springs - B and F, Megapolis Springs - C, Megapolis Springs - D and E, Megapolis Symphony Phase I, Megapolis Saffron - A3 to A9, Megapolis Saffron - A10 to A14, Primavera - B6 and S1, KUMAR PRAJWAL, Palmspring Towers - A6, A7 and B3, Joyville Hinjawadi - I, Phase 1, Joyville Hinjawadi - I, Phase 2, Joyville Hinjawadi - I, Phase 6, Joyville Hinjawadi - I, Phase 5, Joyville Hinjawadi - I, Phase 2, Joyville Hinjawadi - I, Phase 1, Joyville Hinjawadi - I, Phase 4, Joyville Hinjawadi - I, Phase 3, Joyville Hinjawadi - I, Phase 3, Joyville Virar Phase 2, Joyville Virar Phase 1, Joyville Virar Phase 4, Joyville Virar Phase 5, Joyville Virar Phase 3</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P50500016139, P50500004427, P50500047576, P50500004568, P50500025598, P50500020205, P50500005448, P50500006483, P50500009336, P50500008161, P50500014681, P50500019115, P50500007215, P50500008833, P50500015285, P50500017215, P50500017236, P50500020254, P50500007997, P50500006445, P50500008536, P50500007925, P50500007914, P50500007843, P50500004826, P50500015614, P50500033236, P50500021175, P50500022443, P52100000985, P52100015685, P52100004518, P52100035207, P52100014951, P52100022619, P52100018603, P52100029119, P52100022486, P52100003129, P52100003129, P52100018720, P52100018720, P52100018775, P52100032022, P52100024616, P52100019639, P52100022099, P52100022153, P52100001372, P52100016626, P52100016626, P52100016626, P52100001005, P52100000084, P52100014939, P52100017239, P52100026185, P52100018205, P52100045667, P52100028133, P52100045982, P52100046228, P52100018309, P52100009077, P52100027928, P52100000887, P52100015188, P52100016848, P52100017386, P52100018284, P52100029121, P52100034988, P52100018284, P52100001391, P52100019959, P52100022957, P52100023051, P52100017386, P52100016848, P52100015188, P52100000887, P52100018779, P52100021609, P52100021093, P52100017868, P52100018532, P52100016131, P52100016252, P52100018502, P52100018500, P52100016252, P52100016131, P52100016786, P52100016775, P52100016775, P99000013612, P51900000444, P99000019538, P99000019531, P99000018521</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -3350,47 +3335,47 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3507,47 +3492,42 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Dhaval Seth</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02223567834</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>D/9, Self Help Co Op Housing Society, Sindhi Colony, St Francis Road, Vile Parle W, Mumbai 400056</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>seth.dhaval@gmail.com</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, SHREE NAMAN DEVELOPERS PVT LTD</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, NAMAN HABITAT</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P51800004108</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3664,32 +3644,27 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>REGAL REALTORS</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02226361919</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>A/103, SUNRISE APNA GHAR, UNIT NO 7, ABOVE BANK OF MAHARASHTRA, LOKHANDWALA COMPLEX, ANDHERI WEST, MUMBAI 400053</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>ajay.regalestate@gmail.com</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -3826,47 +3801,47 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Jaikul Associates, Jaikul Associates, Vilas Javdekar Eco Shelters Private Limited, Vilas Javdekar Eco Shelters Private Limited, Vilas Javdekar Eco Shelters Private Limited, Vilas Javdekar Eco Shelters Private Limited, Vilas Javdekar Eco Shelters Private Limited, Vilas Javdekar Eco Shelters Private Limited, Vilas Javdekar Eco Shelters Private Limited, Vilas Javdekar Eco Shelters Private Limited, Vilas Javdekar Eco Shelters Private Limited, SHIV CONSTRUCTIONS, VTP Mohite Associates, GANRAJ HOMES LLP, M/S. AVIOR MERLIN VENTURE LLP, Shivam Development Ventures LLP, Shivam Development Ventures LLP, Shivam Development Ventures LLP, VTP Coporation llp, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, AVIOR SHELTERS LLP, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, VTP Mohite Associates, Siddharth Value Homes Limited Liability partnership, Rajendra Suresh Jain, Rajendra Suresh Jain, Rajendra Suresh Jain, Rajendra Suresh Jain, Lohia Jain Housing Company LLP, Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., International Biotech Park Limited, Kakade Vtp Associates, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, VT Palresha &amp; Co. Private Limited, VINOD PREMCHAND CHANDWANI, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, LANDSCAPE REALITY, LANDSCAPE REALITY, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, Kalpataru Retail Ventures Private Limited, Kalpataru Retail Ventures Private Limited, WESTERNCITY TOWNSHIPS LLP, WESTERNCITY TOWNSHIPS LLP, VTP URBAN PROJECTS (PUNE) LLP, Sukumar Township Development Private Limited, CARNATION LANDMARKS LLP, Highpoint Landmark LLP, Highpoint Landmark LLP, B U BHANDARI VAASTU, Neev Sai Developers, Neev Sai Developers, Kunal Spaces Pvt Ltd, Shivam Development Ventures LLP, Shivam Development Ventures LLP, Shivam Development Ventures LLP, Tirth Home Developers, Vilas Javdekar Eco Homes, Vilas Javdekar Eco Homes, Vilas Javdekar Eco Homes, Vilas Javdekar Eco Homes, M/S SHIVDAN CONSTRUCTIONS, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, VARDAAN LIFESTYLE LIMITED, VTP CORPORATION LLP, KOLTE-PATIL DEVELOPERS LIMITED, KOLTE-PATIL DEVELOPERS LIMITED, KOLTE-PATIL DEVELOPERS LIMITED, KOLTE-PATIL DEVELOPERS LIMITED, KOLTE-PATIL DEVELOPERS LIMITED, KOLTE-PATIL DEVELOPERS LIMITED, KOLTE-PATIL DEVELOPERS LIMITED, KOLTE-PATIL DEVELOPERS LIMITED, KOLTE-PATIL DEVELOPERS LIMITED, Adi Siddhashila Associates, Green Olive Venture, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, R R LUNKAD BUILDERS AND PROMOTERS, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Shivam Development Ventures LLP, Shivam Development Ventures LLP, Shivam Development Ventures LLP, PRISTINE DEVELOPERS, PRISTINE DEVELOPERS, PRISTINE DEVELOPERS, New World Landmark LLP, New World Landmark LLP, New World Landmark LLP, SHREM TRADING LLP, OXFORD REALTY LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Keystone Lifespaces Private Limited, NITIN DWARKADAS NYATI, Home Corp &amp; Associates, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, VTP Mohite Associates, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Gera Realty Estates, VISION INFRASTRUCTURE, M/S. AVIOR MERLIN VENTURE LLP, Cherry Contruction Pvt. Ltd., SHRI SIDDHIVINAYAK DEVELOPERS, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Godrej Skyline Developers Private Limited, Godrej Skyline Developers Private Limited, VH Township Private Limited, NANDAN DEVELOPERS, VISION BUILDCON, ADI HOMES, YELLOWSTONE NIRMITI LLP, YELLOWSTONE NIRMITI LLP, YELLOWSTONE NIRMITI LLP, YELLOWSTONE NIRMITI LLP, YELLOWSTONE NIRMITI LLP, YELLOWSTONE NIRMITI LLP, PRISTINE PROPERTIES, PRISTINE PROPERTIES, PRISTINE PROPERTIES, Vilas Javdekar Eco Developers Pvt. Ltd., PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE BUILDERS LLP, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, Ajanta Enterprises, BENCHMARK TOWN PLANNING LLP, BENCHMARK TOWN PLANNING LLP, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Kalpataru Gardens Pvt. Ltd., Pride Purple Properties, Vilas Javdekar Infinitee Developers Pvt. Ltd., Vilas Javdekar Infinitee Developers Pvt. Ltd., Vilas Javdekar Infinitee Developers Pvt. Ltd., Yogita Shelters LLP, Kumar Properties Govind Shree Realtors LLP, Prakruti Constructions Pvt Ltd, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, VISION CREATIVE INFRA, Snowflower Properties Private Limited, GROW INDIA NIRMITI LLP, Sapphire Landmarks LLP, HOME RISING CONSTRUCTION LLP, Ved Mangalam Associates, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, VINOD PREMCHAND CHANDWANI, VINOD PREMCHAND CHANDWANI, Manjari Housing Projects LLP, R RETAIL VENTURES PRIVATE LIMITED, KEVIN PROPERTIES, VTP Corporation LLP, SHORE DWELLINGS PRIVATE LIMITED, SHORE DWELLINGS PRIVATE LIMITED, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, VISION CREATIVE PROMOTERS, Regency Aawishkar Sarsan Developers LLP, GROWISA ADVISORS, VILAS JAVDEKAR GREENSCAPE DEVELOPERS LLP, VILAS JAVDEKAR GREENSCAPE DEVELOPERS LLP, Mahalunge Township Developers LLP, Mahalunge Township Developers LLP, Siddharth Properties, Siddharth Properties, Antariksha Developers, Benchmarrk Realty LLP, Benchmarrk Realty LLP, Benchmarrk Realty LLP, Benchmarrk Realty LLP, P4 GROUP, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, M/S. AVIOR MAJESTIQUE PROPERTIES, Pune Projects LLP, Pune Projects LLP, Vilas Javdekar &amp; Sanjeevani Developers LLP, Vilas Javdekar &amp; Sanjeevani Developers LLP, ANANTVENKATESH CONSTRUCTION LLP, VISION CREATIVE DEVELOPERS, Kasturi Spaces Private Limited, Kasturi Spaces Private Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Rising welworth Enterprises LLP, Rising welworth Enterprises LLP, Rising welworth Enterprises LLP, Rising welworth Enterprises LLP, DAJIKAKA GADGIL DEVLOPERS .PVT.LTD ., GODREJ SKYLINE DEVELOPERS PRIVATE LIMITED, NOW Realty Promoters and Builders Private Limited, Rachana Lifespaces, Rachana Lifespaces, Gini Citicorp Realty LLP, Vilas Javdekar Lifestyle Developers Pvt. Ltd., Vilas Javdekar Lifestyle Developers Pvt. Ltd., VTP Corpartion LLP, ACEAUGUSTA, SUNGUARD BUILDERS LLP, PRISTINE DEVELOPERS, PRISTINE DEVELOPERS, PRISTINE DEVELOPERS, NANDAN ASSOCIATES, NANDAN ASSOCIATES, NANDAN ASSOCIATES, GODREJ SKYLINE DEVELOPERS PRIVATE LIMITED, AVIOR MERLIN VENTURE LLP, AVIOR MERLIN VENTURE LLP, Saarrthi Blue Ventures LLP, RAVIE KHILUMAL OCHANNI, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, KOLTE-PATIL INTEGRATED TOWNSHIPS LIMITED, KOLTE-PATIL INTEGRATED TOWNSHIPS LIMITED, KOLTE-PATIL INTEGRATED TOWNSHIPS LIMITED, KOLTE-PATIL INTEGRATED TOWNSHIPS LIMITED, KOLTE-PATIL INTEGRATED TOWNSHIPS LIMITED, VINOD PREMCHAND CHANDWANI, VINOD PREMCHAND CHANDWANI, Siddharth Properties, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Lodha Buildcon Private Ltd (Lodha Develoopers Pvt Ltd), Parasmani Constructions Pvt .Ltd, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Macrotech Developers Limited, Macrotech Developers Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>KINGSBURY PHASE III, KINGSBURY PHASE II, YashONE Wakad Central, VJ Grand Central, YASHWIN HINJAWADI, VJ One Avenue, YashONE Hinjawadi - Phase 1, YashONE Hinjawadi - Phase 1, Yashwin SuperNova, VJ Town Centre, YashONE Hinjawadi - Phase II, SAI PARADISE, Trade Park Phase1, GANGA ACROPOLIS, BUILDING D - WING D-2 - NAVYANGAN PHASE - II, 19 Grand West Wing B, 19 Grand West Wing B, 19 Grand West Wing B, KPSQUARE, Kumar Parc residences - A1, Kumar Parc Residences - B2, Kumar Parc Residences - C Mhada, UP-LIFE-PHASE-1-VERONICA, Belmac Residences A, Belmac Residences F, Belmac Residences E, Belmac Residences D, Belmac Residences B, Belmac Residences C, Belmac Residences C, Belmac Residences A, Market Place, Saarrthi Savvy Homes, Runal Gateway Phase 1, Runal Spacio, Runal Elanza, RUNAL GATEWAY PHASE - II, Odela, Park Infinia Phase III, Park Infinia - I1, I2, I3, J2, J3 and K1, Park Infinia Phase IV, Park Infinia - L2, L3, L4, K4, K5 and J4, Park Infinia - L1, K3 and I4, PICASSO - O, Picasso Phase II, Park Infinia - B1 and B2, The Crown Greens, Urban Life Phase 1, Primus - A, Princeville - B3 and C1, Princeville - B4 and B5, VTP ONE, SILVERLAND RESIDENCY PHASE III, Primavera - B6 and S1, KUMAR PRAJWAL, ANANTSRISHTI PHASE I, ANANTSRISHTI PHASE II, PLOT NO. 10, VIVA,PIRANGUT,PUNE, PLOT NO 8, VIVA, PIRANGUT, PLOT NO.7, VIVA, PIRANGUT, PLOT NO. B-01 TO B-21 VIVA,PIRANGUT,PUNE, Kalpataru Exquisite - Wing 2, Kalpataru Exquisite - Wing 1, VTP SOLITAIRE PHASE 1 AB, VTPSolitaire Building C AND D, URBAN BALANCE, Prithvi - H2, CITY AVENUE, ITREND HOMES PHASE-I, ITREND HOMES PHASE-I, VaastuvivaABCD, Itrend Life, Itrend Life, Kunal Aspiree Phase IV, 19 GRAND WEST - C WING and D WING, 19 GRAND WEST - C WING and D WING, 19 GRAND WEST - C WING and D WING, Neco SkyPark Phase III, Yashwin E,F,G, Yashwin A, YashONE Pirangut Phase II, YashONE Phase - I, M J OPERA, Geras World of Joy L, 343 CREST, Geras World of Joy M, Geras World of Joy S, Geras World of Joy S, Geras World of Joy L, Geras World of Joy D, Geras World of Joy D, Geras World of Joy C, Geras World of Joy C, Kumar Prospera - A3, A4 and A5, Kumar Prospera - A6, Kumar Prospera - A7 and A8, CLEVELAND PARK, Urban Rise, 24K ATRIA, 24K OPULA, Western Avenue, 24K Stargaze, STARGAZE, Ivy Estate - Ivy Apartments and Villas and Umang Premiere and Umang Primo, 24K Stargaze- G Building, Ivy Estate-Nia, Ivy Estate Umang Premier, W-57, Green Olive, T12 NAMED MAGNA BEING PHASE 2 OF THE PROJECT COMPRISING BUILDINGS T12 AND T13, VISTAS CENTREPOINT, T13 - PHASE OF THE PROJECT COMPRISING BUILDING T12 AND T13, T9 Chronos and T10 Supremus Phase 1 Of Raheja Reserve being Buildings T7 T8 T9 T10 in RV Premiere, T8 named LUXURIANT Phase 2 of Raheja Reserve being Buildings T7 T8 T9 T10 in RV Premiere, AKSHAY HEIGHTS, B1 Song Of Joy Geras Greenville 2, Geras Isle Royale Tower 2 and 3, Geras Imperium Gateway A and C, Geras Imperium Gateway B, Geras Imperium Oasis, Geras Planet of Joy Project III, Geras Misty Waters, Geras Planet of Joy Project II, A3, Song of Joy, Geras Greensville2, Geras Misty Waters, Geras Imperium Rise, 19 Grand West Wing A, 19 Grand West Wing A, 19 Grand West Wing A, PRISTINE PRONEXT, PRISTINE PRONEXT, PRISTINE PRONEXT, SkyHigh Towers - D1D2, Pebbles-HighMont Phase-1, SkyHigh Towers - D1D2, Kekarav Phase I, Godrej Rejuve, 47 East - B Wing A, 47 East - C Mhada, 47 East - B Wing B, C and D, 47 East - A, Keystone Altura, NYATI ELYSIA I, Celesta, Palmspring Towers - A6, A7 and B3, Palmspring Bungalows - E1 to E6, Palmspring Towers - A4, A5 and B2, Palmspring Towers - A1, A2 and A3, Urban Nest Phase1, Princetown Royal - B3 and B6, Princetown Tower - C3, Princetown Tower - C2, Princetown Royal - B2, Princetown Royal - B4, Princetown Royal - B5, LODHA BELMONDO AUGUSTA C, Lodha Belmondo St. Andrews A, Lodha Belmondo - Sawgrass A, Lodha Belmondo - Tower 32, LODHA BELMONDO AUGUSTA B, Geras Adara, VISION INDRABHUMI, Navyangan 2- Building C1, Citron Phase 2, GANGA AMBER PH I, Godrej 24, Godrej Elements, Godrej Park Greens, Godrej Wood Park, The Cliff Garden, VATSALYA PURAM BUILDING A, VISION INDRATEJ, ADI AVENTURA, EQUILIFE HOMES PHASE III, EQUILIFE HOMES PHASE II, EQUILIFE HOMES PHASE II, EQUILIFE HOMES PHASE III, EQUILIFE HOMES PHASE I, EQUILIFE HOMES PHASE II, PRISTINE GREENS PHASE III, Pristine Greens Phase 1, PRISTINE GREENS PHASE II, Palladio Phase 2, PARK CONNECT PHASE II, PARK TITAN PHASE II, PARK TITAN PHASE III, PARK ASTRA PHASE III, PARK TITAN PHASE IV, PARK CONNECT, PARK ASTRA, PARK TITAN, MANHATTAN, Kalpataru Jade Residences E, Kalpataru Jade Residences F, Kalpataru Jade Residences H, Belmac Residences E, Belmac Residences D, Forest Edge Phase 1, CYPRUS, SIROCCO GRANDE, Joyville Hinjawadi - I, Phase 2, Joyville Hinjawadi - I, Phase 3, Joyville Hinjawadi - I, Phase 1, Megapolis Saffron - Shops, Megapolis Saffron - A10 to A14, Megapolis Mystic - C, Megapolis Serenity A8 to A12, B2 and Conv shop B, Megapolis Serenity A1 to A7, B1 and Conv shop A, Megapolis Springs - B and F, Megapolis Symphony Phase I, Megapolis Springs - A, Megapolis Springs - C, Megapolis Mystic - G, Megapolis Mystic - F, Megapolis Saffron - A3 to A9, Megapolis Shimmer - A1, Megapolis Springs - D and E, Megapolis Mystic Phase 2, Kalpataru Serenity - Bldg. 5, PARK TITANIUM PHASE II, YashONE Infinitee - Phase II, YashONE Infinitee - Phase I, YashONE Infinitee - Phase III, Arvind Elan, Kumar Prakruti, Pinnacle - A4 and A5, Geras Planet of Joy Project IV, Geras Imperium Rise, Geras Isle Royale Tower 4 and 5, Geras Imperium Alpha, Geras Planet of Joy Project I, VISION STARWEST PHASE - 1, Three Jewels, The Canary Phase I, SHIMMER N SHINE II, VTP Aethereus- Phase1, Mangalam Melizma, Kalpataru Jade Residences B, Kalpataru Jade Residences C, Kalpataru Jade Skyline, ROSE MANSION, ROSE MANSION, GODREJ BOULEVARD, THE CENTRAL PARK PHASE -I, Paradise - B2 and B3, Purvanchal Phase2 C D E, Mantri Vantage, Mantri Emporio, Siddhachal - A1, Siddhachal - A4, VISION ARISTO, REGENCY ASTRA PHASE I, Yashwin SukhNiwas, Yashwin Orizzonte - Phase I, VJ IndiLife, Godrej Hillside 1, Godrej Hillside 2, Saarrthi Skybay, Saarrthi Skybay II, Antariksha Signatures, The Eminence, The Eminence, Puneville Phase I, Puneville Phase II Cluster A, VISION VANESSA, Kumar Prospera - A1 and A2, VANALIKA-PARADISE- III -3B, Purva Silversands Phase 2, Purva Silversand, Yashwin Anand, Yashwin Jeevan, anantvenktesh, VISION STARWEST PHASE - 2, The Balmoral Towers - Tower C, Phase II, The Balmoral Towers - Tower C, Phase II, LODHA BELMONDO Pebble Beach E, Estancia A, Lodha Belmondo - Townhouses, Lodha Belmondo - Tower 29, LODHA BELMONDO - ESTANCIA B, Lodha Belmondo - Tower 31, Lodha Belmondo - Pebble Beach D, Lodha Belmondo - Tower 30, LODHA BELMONDO SAWGRASS B, LODHA BELMONDO ASHBRIDGE D, E, LODHA BELMONDO ST. ANDREWS E, Platinum Square Phase 1, Windermere Phase 2, Vascon Goodlife Phase B, Vascon Goodlife Phase C, Platinum Square Phase 2, Hi Life phase 2, Altitude, Hi Life, hi life phase3, ANANTRUKMINI, Godrej Nurture, 24K Sereno Building A, BELLACASA ROYALE TOWER / TYPE 'A', BELLACASA ROYALE TOWER / TYPE 'A', GINI VIVANTE PHASE 02, Yashwin Encore, Yashwin NuovoCentro, Purvanchal Phase1 AB, ACE AUGUSTA, PARK IVORY PHASE II, Pristine Prolife III, Pristine Prolife III, Pristine Prolife III, NANDAN PROSPERA GOLD, NANDAN PROBIZ, NANDAN FORTURA, FOREST GROVE AT GODREJ PARK GREENS, BUILDING - M - NAVYANGAN PHASE - II, BUILDING - D- WING -D-1- NAVYANGAN PHASE - II, Stanza, STAR VISTA, Princeville - A2, C2 and Conv Shop 2, Kumar Pratham - F Mhada, Priyadarshan - J, Kumar Pratham - D E G, Peninsula - D, Kumar Pratham - A B C and Shops, Peninsula C, Priyadarshan - I, Life Republic Sector R1 - 1st Avenue, Life Republic Sector R2 - 2nd Avenue, Life Republic Sector R3 - 3rd Avenue, Life Republic Sector R16 - 16th Avenue, Life Republic- Sector R16- 16th Avenue- Arezo- F Building, SILVERLAND RESIDENCY PHASE-1, SILVERLAND RESIDENCY PHASE-1, Saarrthi Savvy Homes II, PALAVA VIENTO A to D, PALAVA VISTA A to D, PALAVA REGALIA A to F, PALAVA LAKESIDE I TO O, PALAVA - PASEO - D to H, PALAVA PRIMIA E to J, PALAVA - UNO H - O, Palava - Retail Shop no 15 to 33 - Car Park Building C1, PALAVA LAKESIDE A to H, PALAVA LAGOONA A TO F, Palava - Trinity A to C, PALAVA - ELITE - A to J, PALAVA ELITE K TO T, Palava Cielo A - F, Lodha Majiwada - Tower 5, Lodha Majiwada - Tower 4, Lodha Majiwada - Tower 1, Lodha Parel Project, NEW CUFFE PARADE - LODHA ENCHANTE, NEW CUFFE PARADE - LODHA EVOQ 41st Floor, New Cuffe Parade - Lodha Gardenia, NEW CUFFE PARADE - LODHA DIORO AND ELISIUM, NEW CUFFE PARADE -LODHA ALTIA, Lodha Fiorenza, LODHA SPLENDORA PLATINO E TO G , VIVANT A TO D, Lodha Quality Home Tower 2, Lodha Quality Home Tower 4, Lodha Quality Home Tower - 5, LODHA SPLENDORA - PLATINO - B, CASA UNIVIS - CIELO D, LODHA SPLENDORA - PLATINO - D, LODHA PARK, Lodha Adrina, CODENAME- MUST-HAVE, LODHA PARK - TOWN HOUSES, Palava Magnolia, Clara Shops, PALAVA CLARA E - I, PALAVA EVIVA K to T, URBANO A, B, C and F, URBANO I to T, PALAVA URBANO G AND H, Foresta &amp; Fiora, Lakeside 1 Shops, Urbano 2 Shops, Palava Florea - A to D, PALAVA SERENITY B, Elite 1 Shop, Regalia Shops, PALAVA SERENITY A, Palava Clara J-M, PALAVA CLUSTER 2-06 -  A - G, I - N, PALAVA URBANO D AND E, PALAVA CLARA A to D, D1, Palava Olivia C, Palava Serenity C, PALAVA SERENITY D, PALAVA OLIVIA A, Elite 2 Shops, Lakeside 2 Shops, North MLCP Shop, LODHA ETERNIS SERENA C, LODHA ETERNIS NATURA A, Lodha Supremus - Andheri, LODHA ETERNIS SERENA A, PALAVA AURORA B, C, PALAVA MILANO E, F, Lodha Patel Estate - Tower A, B, Lodha Patel Estate - Tower C, D, Lodha Patel Estate - Tower E, F, Casa Royale - Grande, Parasmani - B, Lodha Panacea II, Lodha Global Park, Lodha Quality Home Tower 3, Lodha Panacea I, Lodha Quality Home Tower 1, PALVA MILANO D, G, PALAVA MILANO A,B,C,H,I,J, PALAVA MARVELLA A, H, LODHA SEAVIEW, Lodha iThink B, LODHA FRESHIA WING D, E, LODHA FRESHIA WING A, B, C, PALAVA RIVER VIEW E AND F, PALAVA SAVANA AND SIENA, PALAVA AURELIA - C, H, I, PALAVA ESTELA H, I, J, PALAVA - AURELIA - D TO G, PALAVA FONTANA C - H, PALAVA ESTELA A, B, C, PALAVA AURELIA A, PALAVA - ESTELA D to G, FONTANA A ,B, I and J, Lodha Amara - Tower 45, LODHA AMARA - TOWER 26, 27, 28, 30, 34, 35, LODHA AMARA - TOWER 1 - 5, 7 - 19, LODHA AMARA - TOWER 29,31, Lodha Kolshet Plot A - Tower J, LODHA AMARA - TOWER 38 and 39, Lodha Amara Tower 44, Lodha Amara Tower 49 and 50, Lodha Supremus - Thane, Kolshet, Lodha Amara Tower 47 and 48, Lodha Sterling - Tower G, Lodha Amara MLCP Retail, LODHA AMARA - TOWER 32,33, Lodha Amara -Tower 42 and 43, Lodha Sterling - Tower H, Lodha Amara - Tower 36 37, Lodha Amara Tower 24 and 25, LODHA AMARA - TOWER 23, Lodha Amara - Tower 46, Lodha Amara - Wing 40 and 41, Lodha Amara - Tower 6, 22, Lodha Kolshet Plot A - Tower K, Lodha Mira Road Project 1, Upper Thane - Ecopolis A, Upper Thane - Tiara C, Upper Thane - Sereno A, B, B1, UPPER THANE - TIARA D, UPPER THANE - WOODLANDS C AND D, UPPER THANE -SERENO A1, Upper Thane - Meadows A, UPPER THANE - Woodlands E and F, Upper Thane - Sereno A1, C &amp; C1, Upper Thane Ecopolis A - B, Upper Thane Treetops A - C, C1, C2, D - F, UPPER THANE - Tiara I, Upper Thane - Tiara H, Upper Thane - Tiara E, F, UPPER THANE - WOODLANDS A, B AND J, Upper Thane - Sereno D and E, UPPER THANE - TIARA A to B, Casa Selva A to C, Upper Thane - Meadows E, F, G, Magnolia A B and C, Orchid M N O, Jasmine A, B, C, G, H and I, Jasmine L and M, Jasmine D, E and F, Orchid A to L, Jasmine T, LODHA AZZURO, LODHA VENEZIA - 49TH TO 65TH FLOOR, THE WORLD TOWERS - WORLD ONE - TIER III AND TRINITY, One Lodha Place, THE WORLD TOWERS -  WORLD ONE - TIER II</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100023913, P52100019148, P52100020910, P52100026304, P52100000037, P52100025592, P52100019468, P52100019468, P52100028652, P52100028755, P52100024108, P52100002193, P52100000518, P52100001396, P52100016163, P52100017919, P52100017919, P52100017919, P52100017452, P52100032022, P52100049839, P52100047940, P52100023652, P52100000899, P52100018437, P52100000131, P52100000407, P52100020497, P52100013991, P52100013991, P52100000899, P52100000587, P52100001288, P52100002021, P52100019467, P52100002255, P52100019500, P52100014706, P52100000084, P52100017239, P52100014939, P52100026185, P52100045667, P52100018205, P52100000104, P52100047895, P52100001864, P52100001269, P52100004518, P52100000755, P52100015685, P52100015407, P52100019540, P52100021093, P52100017868, P52100006401, P52100015968, P52100002702, P52100002113, P52100002681, P52100001800, P52100001266, P52100000298, P52100000727, P52100022428, P52100000329, P52100031366, P52100003760, P52100001119, P52100001119, P52100004635, P52100021202, P52100021202, P52100027175, P52100031024, P52100031024, P52100031024, P52100005314, P52100000775, P52100013149, P52100023378, P52100014585, P52100032413, P52100022530, P52100022737, P52100022744, P52100022499, P52100022499, P52100022530, P52100022598, P52100022598, P52100022522, P52100022522, P52100022619, P52100029906, P52100035207, P52100003050, P52100000278, P52100000428, P52100000398, P52100000917, P52100018473, P52100009722, P52100001066, P52100032303, P52100017955, P52100000655, P52100024520, P52100013526, P52100015996, P52100016359, P52100000707, P52100021356, P52100024187, P52100002094, P52100002048, P52100009870, P52100030184, P52100030167, P52100015514, P52100031875, P52100001176, P52100031809, P52100001789, P52100001176, P52100001786, P52100018030, P52100018030, P52100018030, P52100018913, P52100018913, P52100018913, P52100015918, P52100001895, P52100015918, P52100025894, P52100018720, P52100047702, P52100053775, P52100052955, P52100024598, P52100001524, P52100000860, P52100004798, P52100018532, P52100015961, P52100048329, P52100052923, P52100000581, P52100046228, P52100009077, P52100045982, P52100018309, P52100007776, P52100027928, P52100000174, P52100020156, P52100019434, P52100020190, P52100000406, P52100000889, P52100018032, P52100016149, P52100018850, P52100002620, P52100001005, P52100016626, P52100019639, P52100028133, P52100004906, P52100033502, P52100019399, P52100016461, P52100022543, P52100015466, P52100015466, P52100022543, P52100000767, P52100015466, P52100024045, P52100009406, P52100000901, P52100017306, P52100031776, P52100034961, P52100049631, P52100049640, P52100055911, P52100020766, P52100024449, P52100031768, P52100026529, P52100001392, P52100000869, P52100046423, P52100000131, P52100000407, P52100014725, P52100000561, P52100000326, P52100016252, P52100016775, P52100016131, P52100034988, P52100021609, P52100019959, P52100022957, P52100023051, P52100017386, P52100000887, P52100018284, P52100016848, P52100047674, P52100029121, P52100018779, P52100052912, P52100015188, P52100001391, P52100001267, P52100001274, P52100029042, P52100028229, P52100030825, P52100018613, P52100054001, P52100054619, P52100031876, P52100001786, P52100011031, P52100015242, P52100031802, P52100024346, P52100006160, P52100031557, P52100018785, P52100026772, P52100051095, P52100000926, P52100000676, P52100033791, P52100000173, P52100000173, P52100024616, P52100025260, P52100049914, P52100009865, P52100008390, P52100005228, P52100050272, P52100018775, P52100030708, P52100032177, P52100025982, P52100026213, P52100028030, P52100022099, P52100022153, P52100004803, P52100016176, P52100009963, P52100022805, P52100022805, P52100000441, P52100000440, P52100050912, P52100014951, P52100016963, P52100005377, P52100007566, P52100000012, P52100000011, P52100002109, P52100026625, P52100047008, P52100047008, P52100000350, P52100017082, P52100020142, P52100016840, P52100020172, P52100018308, P52100020188, P52100000221, P52100011522, P52100000182, P52100001434, P52100002368, P52100016237, P52100016293, P52100012916, P52100017433, P52100024885, P52100016413, P52100017456, P52100001340, P52100020686, P52100007129, P52100027124, P52100027124, P52100050601, P52100017756, P52100034523, P52100001109, P52100000080, P52100015699, P52100000897, P52100000897, P52100000897, P52100000563, P52100001376, P52100021481, P52100023129, P52100023388, P52100023277, P52100002571, P52100026112, P52100018603, P52100049685, P52100029119, P52100031354, P52100049664, P52100022486, P52100028012, P52100047781, P52100002646, P52100002682, P52100007511, P52100009640, P52100023317, P52100000190, P52100000190, P52100016105, P51700000342, P51700000395, P51700000390, P51700000410, P51700000269, P51700000391, P51700000142, P51700016941, P51700000384, P51700000124, P51700014396, P51700000125, P51700000389, P51700000378, P51700019519, P51700013789, P51700013263, P51900014910, P51900000367, P51900000567, P51900015715, P51900000314, P51900000629, P51800000195, P51700000199, P51700022251, P51700024777, P51700027449, P51700000258, P51700001153, P51700000659, P51900001339, P51900014937, P51900029416, P51900016526, P51700020131, P51700025495, P51700000540, P51700000419, P51700000696, P51700017506, P51700025522, P51700025475, P51700017487, P51700020253, P51700025471, P51700025474, P51700020155, P51700000420, P51700000802, P51700000577, P51700000448, P51700017590, P51700020159, P51700020124, P51700020214, P51700025470, P51700025535, P51700025674, P51800020147, P51800000345, P51800013696, P51800000294, P51700010960, P51700011629, P51800014891, P51800014860, P51800014869, P51700001517, P51900023727, P51700017060, P51700017924, P51700022533, P51700017078, P51700022250, P51700010109, P51700015016, P51700015660, P51900010326, P51700025627, P51700006149, P51700004667, P51700008764, P51700000546, P51700013073, P51700013145, P51700000511, P51700000596, P51700013158, P51700020161, P51700011068, P51700000506, P51700018593, P51700001031, P51700001065, P51700000981, P51700015243, P51700018393, P51700020123, P51700020157, P51700015598, P51700020151, P51700020158, P51700025892, P51700001030, P51700020164, P51700020189, P51700013961, P51700020128, P51700020093, P51700018579, P51700020088, P51700014760, P51700015040, P51700012991, P51700016666, P51700016437, P51700016243, P51700019121, P51700020225, P51700020191, P51700020266, P51700018107, P51700020217, P51700007192, P51700008449, P51700018035, P51700020154, P51700020141, P51700020104, P51700014770, P51700014814, P51700020268, P51700020170, P51700020197, P51700019809, P51700020381, P51700024141, P51700020354, P51700016747, P51700020373, P51900000828, P51900005378, P51900008962, P51900014984, P51900008345</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -3993,47 +3968,47 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>NANDAN BUILDCON PVT LTD, NANDAN BUILDCON PVT LTD, NANDAN BUILDCON PVT LTD, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Pearlite Real Properties Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Neptune Developers Limited, Neptune Developers Limited, Neptune Developers Limited, Neptune Developers Limited, Neptune Developers Limited, Neptune Developers Limited, Neptune Developers Limited, NEPTUNE VENTURES AND DEVELOPERS PRIVATE LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Neptune Developers Limited, Neptune Developers Limited, Neptune Developers Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Poddar Housing and Development Limited, Poddar Housing and Development Limited, Poddar Housing and Development Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Macrotech Developers Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Labdhi Siddhivinayak Realtors LLP, Labdhi Siddhivinayak Realtors LLP, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Neptune Developers Limited, Neptune Developers Limited, Neptune Developers Limited, Neptune Developers Limited</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>NANDAN CARNIVAL A BUILDING, NANDAN CARNIVAL B BUILDING, NANDAN CARNIVAL C BUILDING, Lodha Belmondo - Sawgrass A, Lodha Belmondo - Tower 29, LODHA BELMONDO AUGUSTA C, Lodha Belmondo - Tower 32, Lodha Belmondo - Pebble Beach D, Lodha Belmondo - Tower 30, LODHA BELMONDO ASHBRIDGE D, E, Lodha Belmondo St. Andrews B,C,D  Villa 1 to 28, Lodha Belmondo St. Andrews A, Lodha Belmondo - Tower 31, LODHA BELMONDO ST. ANDREWS E, LODHA BELMONDO SAWGRASS B, LODHA BELMONDO - ESTANCIA B, LODHA BELMONDO AUGUSTA B, LODHA BELMONDO Pebble Beach E, Estancia A, Lodha Belmondo - Townhouses, Godrej Elements, Lodha Amara Tower 24 and 25, Lodha Amara - Tower 6, 22, Lodha Amara - Tower 36 37, LODHA AMARA - TOWER 23, LODHA AMARA - TOWER 26, 27, 28, 30, 34, 35, Lodha Amara - Tower 20, 21, Lodha Amara Tower 49 and 50, LODHA AMARA - TOWER 32,33, LODHA AMARA - TOWER 29,31, Lodha Amara - Tower 45, Lodha Amara MLCP Retail, Lodha Amara -Tower 42 and 43, Lodha Sterling - Tower G, LODHA AMARA - TOWER 38 and 39, Lodha Amara - Tower 46, Lodha Amara - Wing 40 and 41, Lodha Amara Tower 44, Lodha Amara Tower 47 and 48, Lodha Sterling - Tower H, LODHA AMARA - TOWER 1 - 5, 7 - 19, Lodha Kolshet Plot A - Tower K, Lodha Supremus - Thane, Kolshet, Lodha Kolshet Plot A - Tower J, PALAVA PRIMIA E to J, PALAVA LAKESIDE A to H, PALAVA LAGOONA A TO F, PALAVA VISTA A to D, PALAVA VIENTO A to D, PALAVA ELITE K TO T, Palava - Trinity A to C, Palava - Retail Shop no 15 to 33 - Car Park Building C1, PALAVA CROWN, Lodha Mira Road Project 1, CODENAME- MUST-HAVE, LODHA PARK - TOWN HOUSES, Lodha Adrina, PALAVA CLARA E - I, PALAVA CLUSTER 2-06 -  A - G, I - N, Foresta &amp; Fiora, Palava Serenity C, Elite 1 Shop, Lakeside 1 Shops, Clara Shops, Palava Olivia C, PALAVA SERENITY B, Palava Clara J-M, PALAVA URBANO G AND H, Elite 2 Shops, Urbano 2 Shops, PALAVA CLARA A to D, D1, PALAVA OLIVIA A, Regalia Shops, Palava Florea - A to D, Palava Magnolia, North MLCP Shop, PALAVA EVIVA K to T, URBANO A, B, C and F, URBANO I to T, PALAVA URBANO D AND E, PALAVA SERENITY A, PALAVA SERENITY D, Lakeside 2 Shops, LODHA ETERNIS IDYLLIA B, SERENA B, NATURA B AND C, LODHA ETERNIS NATURA A, LODHA ETERNIS SERENA C, PALVA MILANO D, G, PALAVA MARVELLA B,C,D,E,F,G, PALAVA REGALIA A to F, PALAVA - PASEO - D to H, Palava Cielo A - F, PALAVA - UNO H - O, PALAVA LAKESIDE I TO O, Ramrajya - Neptune Anant, Ramrajya - Neptune EKansh A, Ramrajya - Neptune Ekansh B, Ramrajya - Neptune Ekansh C, Ramrajya - Neptune Ekansh F, Ramrajya - Neptune Ekansh D, Ramrajya - Neptune Ekansh E, Eastern Business District - Neptunes The Pavilion, PALAVA AURORA B, C, PALAVA MILANO A,B,C,H,I,J, PALAVA MARVELLA A, H, PALAVA AURORA A,D, PALAVA MILANO E, F, LODHA SEAVIEW, PALAVA SAVANA AND SIENA, PALAVA RIVER VIEW E AND F, Lodha iThink B, PALAVA AURELIA A, PALAVA - ESTELA D to G, PALAVA - AURELIA - D TO G, FONTANA A ,B, I and J, PALAVA FONTANA C - H, PALAVA ESTELA H, I, J, PALAVA ESTELA A, B, C, PALAVA AURELIA - C, H, I, Ramrajya - Neptune Jal Tarang C, Ramrajya - Neptune Jal Tarang D, Ramrajya - Neptune Jal Tarang E, Lodha Parel Project, Lodha Majiwada - Tower 4, Lodha Majiwada - Tower 5, Lodha Majiwada - Tower 1, NEW CUFFE PARADE - LODHA ENCHANTE, NEW CUFFE PARADE - LODHA DIORO AND ELISIUM, NEW CUFFE PARADE - LODHA EVOQ 41st Floor, NEW CUFFE PARADE -LODHA ALTIA, New Cuffe Parade - Lodha Gardenia, NEW CUFFE PARADE - LODHA ESTRELLA, Lodha Panacea II, Lodha Quality Home Tower - 5, Lodha Quality Home Tower 2, CASA UNIVIS - CIELO D, Lodha Splendora - River View, LODHA SPLENDORA PLATINO E TO G , VIVANT A TO D, Lodha Global Park, Lodha Quality Home Tower 4, Lodha Quality Home Tower 3, LODHA SPLENDORA - PLATINO - B, LODHA SPLENDORA - PLATINO - D, Lodha Panacea I, Lodha Quality Home Tower 1, Lodha Fiorenza, PODDAR RIVIERA PHASE - III, PODDAR RIVIERA PHASE - II, PODDAR RIVIERA PHASE - I, Lodha Patel Estate - Tower G, Lodha Patel Estate - Tower E, F, Lodha Patel Estate - Tower A, B, Lodha Patel Estate - Tower C, D, Jasmine T, Jasmine D, E and F, Orchid A to L, Jasmine L and M, Jasmine A, B, C, G, H and I, LODHA VENEZIA - 49TH TO 65TH FLOOR, THE WORLD TOWERS - WORLD ONE - TIER III AND TRINITY, One Lodha Place, THE WORLD TOWERS -  WORLD ONE - TIER II, Labdhi Seabreeze, Labdhi Seabreeze, Upper Thane - Meadows E, F, G, Upper Thane Ecopolis A - B, UPPER THANE - Tiara I, Magnolia A B and C, Upper Thane - Ecopolis A, UPPER THANE - TIARA A to B, Upper Thane - Sereno D and E, UPPER THANE - WOODLANDS A, B AND J, Upper Thane Treetops A - C, C1, C2, D - F, UPPER THANE - Woodlands E and F, UPPER THANE -SERENO A1, Upper Thane - Sereno A1, C &amp; C1, Upper Thane - Tiara E, F, Upper Thane - Woodlands G,H,I, Upper Thane Greenville A - E, E1, F - I, UPPER THANE - WOODLANDS C AND D, Upper Thane - Meadows A, Casa Selva A to C, Upper Thane - Sereno A, B, B1, UPPER THANE - TIARA D, Upper Thane - Tiara H, Ramrajya - Neptune Udaan B, Ramrajya - Neptune Udaan C, Ramrajya - Neptune Udaan D, Ramrajya - Neptune Udaan E</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P51600012372, P51600012244, P51600005356, P52100019434, P52100020142, P52100000174, P52100020190, P52100018308, P52100020188, P52100011522, P52100000283, P52100020156, P52100020172, P52100000182, P52100000221, P52100016840, P52100000406, P52100000350, P52100017082, P52100016626, P51700020128, P51700014760, P51700013961, P51700020093, P51700001031, P51700016961, P51700020157, P51700001030, P51700000981, P51700018593, P51700025892, P51700020164, P51700020158, P51700018393, P51700018579, P51700020088, P51700020123, P51700020151, P51700020189, P51700001065, P51700015040, P51700015598, P51700015243, P51700000391, P51700000384, P51700000124, P51700000395, P51700000342, P51700000389, P51700014396, P51700016941, P51700010935, P51700012991, P51900029416, P51900016526, P51900014937, P51700000540, P51700000802, P51700017506, P51700020159, P51700025471, P51700025522, P51700025495, P51700017590, P51700020253, P51700000420, P51700000696, P51700025470, P51700025475, P51700000448, P51700020214, P51700025474, P51700017487, P51700020131, P51700025674, P51700000419, P51700000577, P51700020155, P51700020124, P51700025535, P51800000293, P51800000345, P51800020147, P51700010109, P51700013462, P51700000390, P51700000269, P51700000378, P51700000142, P51700000410, P51700016918, P51700016156, P51700016556, P51700016351, P51700016352, P51700016350, P51700016516, P51800018899, P51700010960, P51700015016, P51700015660, P51700015090, P51700011629, P51900010326, P51700000546, P51700008764, P51700025627, P51700020161, P51700011068, P51700000511, P51700000506, P51700000596, P51700013145, P51700013158, P51700013073, P51700016875, P51700016920, P51700016823, P51900014910, P51700013789, P51700019519, P51700013263, P51900000367, P51900000314, P51900000567, P51900000629, P51900015715, P51900000521, P51700017060, P51700027449, P51700022251, P51700001153, P51700016375, P51700000199, P51700017924, P51700024777, P51700022533, P51700000258, P51700000659, P51700017078, P51700022250, P51800000195, P51700023296, P51700023181, P51700023508, P51800016528, P51800014869, P51800014891, P51800014860, P51700020373, P51700020354, P51700016747, P51700024141, P51700020381, P51900005378, P51900008962, P51900014984, P51900008345, P51900023708, P51900023708, P51700020170, P51700007192, P51700018035, P51700020197, P51700016666, P51700014814, P51700014770, P51700020104, P51700008449, P51700018107, P51700020191, P51700020217, P51700020141, P51700016245, P51700006147, P51700020225, P51700020266, P51700020268, P51700016243, P51700019121, P51700020154, P51700016878, P51700016825, P51700016882, P51700016818</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -4155,47 +4130,47 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>SANDESH PROJECTS, SADESH REALTY BUILDERS LLP, SADESH REALTY BUILDERS LLP, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>SANDESH NAGARI-II, DIVINE CITY, DIVINE CITY II, Sandesh City Apartments 2, Sandesh City Apartment 1, Sandesh City Apartment 5, Sandesh City Apartments 3, SANDESH CITY APARTMENTS- 4, Godrej Elements</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P50500021007, P50500019810, P50500020052, P50500010049, P50500006822, P50500013102, P50500012459, P50500010124, P52100016626</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -4322,47 +4297,47 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>SHARDUL ASSOCIATES, SHARDUL ASSOCIATES, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Rajendra Suresh Jain, Rajendra Suresh Jain, Rajendra Suresh Jain, Rajendra Suresh Jain, Rajendra Suresh Jain, Supreme High Spaces LLP, Pearlite Real Properties Private Limited, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>SHREE SHARDUL NEST, SHREE APPARTMENT, Joyville Hinjawadi - I, Phase 3, Joyville Hinjawadi - I, Phase 4, Joyville Hinjawadi - I, Phase 1, Joyville Hinjawadi - I, Phase 2, Joyville Hinjawadi - I, Phase 5, Joyville Hinjawadi - I, Phase 6, Runal Gateway Phase III, Runal Spacio, Runal Gateway Phase 1, RUNAL GATEWAY PHASE - II, Runal Spacio, Supreme Amadore, Godrej Elements, PARK TITAN, PARK TITAN PHASE II, PARK TITAN PHASE IV, PARK ASTRA PHASE III, PARK CONNECT PHASE II, PARK CONNECT, PARK ASTRA, PARK TITAN PHASE III</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P50300007973, P50300015867, P52100016775, P52100016786, P52100016131, P52100016252, P52100018500, P52100018502, P52100024155, P52100019467, P52100002021, P52100019500, P52100019467, P52100001750, P52100016626, P52100031768, P52100034961, P52100055911, P52100049640, P52100031776, P52100020766, P52100024449, P52100049631</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -4479,47 +4454,47 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -4646,32 +4621,27 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>AMIT SERVICES</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02162280529</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>35 abc abaysing rajebhosale complex opp RAJWADA BUSSTOP SATARA</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>amitloans@outlook.com</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -4803,47 +4773,47 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>PRL Developers Private Limited, PRL Developers Private Limited</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Piramal Revanta - Tower 4, Piramal Revanta - Tower 3</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P51800031310, P51800018099</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -4965,32 +4935,32 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
@@ -5122,32 +5092,32 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
@@ -5284,47 +5254,47 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -5446,47 +5416,47 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>GLOBAL ASSOCIATES</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02224128290</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>21 SHOPPE LINK, DOSTI ACRES, ANTOP HILL, WADALA EAST, MUMBAI-400037</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>bansalmumbai@gmail.com</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02224128275</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>SPENTA ENCLAVE PRIVATE LIMITED, SPENTA ENCLAVE PRIVATE LIMITED, SPENTA ENCLAVE PRIVATE LIMITED, SPENTA ENCLAVE PRIVATE LIMITED, Labdhi Siddhivinayak Realtors LLP</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Altavista - Phase 1, Altavista - Phase 2, Altavista - Phase 1, Altavista - Phase 2, Labdhi Seabreeze</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P51800001050, P51800000956, P51800001050, P51800000956, P51900023708</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -5613,47 +5583,47 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, OLYMPIA, Poloroche Business Avenue LLP, IMAGE REALTY LLP, IMAGE REALTY LLP, IMAGE REALTY LLP, IMAGE REALTY LLP, IMAGE REALTY LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Gera Developments Private Limited, NAHAR HOMES LLP, Rajendra Suresh Jain, Rajendra Suresh Jain, Rajendra Suresh Jain, PRISTINE DEVELOPERS, NAIKNAVAREPROFILECONSTRUCTIONSPVTLTD, NAIKNAVAREPROFILECONSTRUCTIONSPVTLTD, OXFORD REALTY LLP, SHAMKANT KESHAV KOTKAR, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, SHRI SIDDHIVINAYAK DEVELOPERS, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Godrej Skyline Developers Private Limited, Kunal Sulakshan Associates, Kunal Sulakshan Associates, Kunal Sulakshan Associates, MARVEL ZETA DEVELOPERS PVT LTD, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Macrotech Developers Limited, Mahalunge Township Developers LLP, SHIVPRIYA REALTORS LLP, Manjari Housing Projects LLP, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, KEVIN PROPERTIES, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, Gera Realty Estates, Gera Realty Estates, M/S. AVIOR MERLIN VENTURE LLP, Cherry Contruction Pvt. Ltd., Kunal Spaces Pvt Ltd, Kunal Spaces Pvt Ltd, NAIKNAVARE BUILDCON PVT LTD, Avinash Bhosale Group, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Manjari Housing Projects LLP, NAIKNAVAREPROFILECONSTRUCTIONSPVTLTD, NAIKNAVAREPROFILECONSTRUCTIONSPVTLTD, YELLOWSTONE NIRMITI LLP, YELLOWSTONE NIRMITI LLP, YELLOWSTONE NIRMITI LLP, YELLOWSTONE NIRMITI LLP, PRISTINE PROPERTIES, PRISTINE PROPERTIES, PRISTINE PROPERTIES, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, Jaikul Associates, Jaikul Associates, M/S. AVIOR MERLIN VENTURE LLP, NAIKNAVARE BUILDCON PVT LTD, MERIDIAN, ABIL PROPCON LLP, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, Ajanta Enterprises, Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., GODREJ SKYLINE DEVELOPERS PRIVATE LIMITED, Kasturi Shelters, Classic Promoters and Builders Private Limited, Malnad Project (I) Pvt Ltd, Malnad Project (I) Pvt Ltd, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, MARVEL LANDMARKS PVT LTD, MARVEL OMEGA BUILDERS PVT LTD, MARVEL OMEGA BUILDERS PVT LTD, MANIKCHAND VASUDHA DEVELOPERS, Mountview Properties LLP, SUNGUARD BUILDERS LLP, STRATFORD REALTY LLP, Kasturi Builders, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Kalpataru Retail Ventures Private Limited, Kalpataru Retail Ventures Private Limited, Kalpataru Retail Ventures Private Limited, Kalpataru Retail Ventures Private Limited, NAIKNAVARE BUILDCON PVT LTD, MERIDIAN, M/S. AVIOR MAJESTIQUE PROPERTIES, M/S. AVIOR MAJESTIQUE PROPERTIES, PAX HOMES LLP, PRIDE BUILDERS LLP, Sukumar Township Development Private Limited, Sukumar Township Development Private Limited, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Home Corp &amp; Associates, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, Kalpataru Construction (Pune), Godrej Skyline Developers Private Limited, NAIKNAVARE PROFILE CONSTRUCTIONS PVT LTD, NAIKNAVARE PROFILE CONSTRUCTIONS PVT LTD, VH Township Private Limited, Kasturi Developers, Apex Builders, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, AVINASH BHOSALE GROUP, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Mahalunge Township Developers LLP, Mahalunge Township Developers LLP, Antariksha Developers, NAIKNAVARE BUILDCON PVT LTD, Benchmarrk Realty LLP, Benchmarrk Realty LLP, Benchmarrk Realty LLP, Benchmarrk Realty LLP, Benchmarrk Realty LLP, Benchmarrk Realty LLP, Pegasus Properties Pvt. Ltd., Kalpataru Gardens Pvt. Ltd., Pride Purple Properties, RIBERA PROJECTS LLP, Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., International Biotech Park Limited, NYATI REALTORS LLP, PRISTINE DEVELOPERS, NANDAN ASSOCIATES, NANDAN ASSOCIATES, NANDAN ASSOCIATES, NANDAN ASSOCIATES, NAIKNAVARE BUILDCON PVT LTD, NAIKNAVARE BUILDCON PVT LTD, NAIKNAVARE BUILDCON PVT LTD, NAIKNAVARE PROFILE CONSTRUCTIONS PVT LTD, NAIKNAVARE PROFILE CONSTRUCTIONS PVT LTD, NANDAN DEVELOPERS, Legacy Lifespaces LLP, DOREA HOMES LLP, Kumar Properties Govind Shree Realtors LLP, Prakruti Constructions Pvt Ltd, RADIUS PROJECT DEVELOPERS LLP, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Atmosphere Realty Pvt Ltd, Messrs Neuzen Realtors LLP, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Rohan Developers Pvt Ltd, Messrs SRC And Associates, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Lodha Buildcon Private Ltd (Lodha Develoopers Pvt Ltd), MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Acme Housing India Private Limited, Acme Housing India Private Limited, Acme Housing India Private Limited, Parasmani Constructions Pvt .Ltd, Wadhwa Residency Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Macrotech Developers Limited, Macrotech Developers Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, EPITOME RESIDENCY PRIVATE LIMITED, RADIUS SUMER DEVELOPERS PRIVATE LIMITED, MIG (Bandra) Realtors &amp; Builders Private Limited, RADIUS &amp; DESERVE BUILDERS LLP, RADIUS &amp; DESERVE BUILDERS LLP, SUMER RADIUS REALTY PVT LTD</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Aldea Annexo -C1, Aldea Annexo - C2, Sayama Phase 3, Aldea Annexo - D, Sayama Phase 2, Sayama Phase 4, Building D2 Eon homes, Building A3 Eon homes, Building A2 Eon Homes, Building A2 Eon Homes, Building D3 Eon Homes, Building D3 Eon Homes, Building A3 Eon homes, Building A3 Eon homes, Building D3 Eon Homes, Building D3 Eon Homes, AVAANTI RESIDENCES AND PREMIUM COMMERCIAL SPACES, POLOROCHE BUSINESS AVENUE, YAHAVI-TOWER-1-OAK, YAHAVI-TOWER-2-PINE, YAHAVI-TOWER-3-TEAK, YAHAVI RETAIL, YAHAVI RETAIL, Palmspring Bungalows - E1 to E6, Palmspring Towers - A6, A7 and B3, Palmspring Towers - A4, A5 and B2, Palmspring Towers - A1, A2 and A3, Princetown Royal - B4, Princetown Royal - B2, Princetown Tower - C3, Princetown Royal - B5, Princetown Tower - C2, Princetown Royal - B3 and B6, A3, Song of Joy, Geras Greensville2, F Residences, Runal Gateway Phase 1, Runal Spacio, Runal Gateway Phase III, PRISTINE PRONEXT, AVON VISTA PROJECT 2, AVON VISTA PROJECT 2, Godrej Rejuve, NANDAN ASPIRA, Princeville - B3 and C1, Princeville - B4 and B5, Primus - A, GANGA AMBER PH I, Godrej 24, Godrej Elements, Godrej Park Greens, ICONIA Phase III, ICONIA PHASE IV, ICONIA Phase II, Marvel Piazza phase -01, Geras World of Joy L, Geras World of Joy L, Geras World of Joy C, Geras World of Joy D, Geras World of Joy S, Kumar Prospera - A7 and A8, Kumar Prospera - A1 and A2, Kumar Prospera - A6, Kumar Prospera - A3, A4 and A5, LODHA BELMONDO Pebble Beach E, Estancia A, Godrej Green Cove, V18, GODREJ BOULEVARD, Centralis Tower 1, Centralis Tower 2, Antheia C1, Antheia A4, Antheia B4, Antheia D4, Antheia C3, Antheia C2, Antheia A3, MSPACE, Centralis Tower 3, Centralis Tower 4, Antheia B3, Paradise - B2 and B3, Kumar Parc Residences - B2, Kumar Parc residences - A1, Kumar Parc Residences - C Mhada, MARVEL CERISE Bldg-A, MARVEL CERISE BLDG B, C, D, MARVEL AQUANAS, Marvel Aurum, Marvel Brisa, Marvel Fuego, MARVEL CITRINE A BUILDING, Marvel Ganga Sangria A,B,C Building, Marvel Ganga Boulevard Phase 02, MARVEL ZEPHYR BUILDING U, MARVEL ISOLA J BUILDING, Marvel Ganga Sangria D,E Building, Marvel Ganga Sangria G,H,J Building, Geras Adara, Geras Adara, Navyangan 2- Building C1, Citron Phase 2, Kunal Aspiree  Phase II, Kunal Aspiree Phase III, NEELAYA, Castel Royale Excellente (T7), Siddhachal - A1, Siddhachal - A4, Godrej Parkridge, AVONVISTAPROJECT4, AVONVISTAPROJECT4, EQUILIFE HOMES PHASE II, EQUILIFE HOMES PHASE III, EQUILIFE HOMES PHASE II, EQUILIFE HOMES PHASE I, PRISTINE GREENS PHASE III, Pristine Greens Phase 1, PRISTINE GREENS PHASE II, Platinum Square Phase 1, Windermere Phase 2, Vascon Goodlife Phase A, Vascon Goodlife Phase B, Vascon Goodlife Phase C, Platinum Square Phase 2, PARK CONNECT, PARK ASTRA, PARK TITAN, PARK ASTRA PHASE III, PARK TITAN PHASE III, PARK TITAN PHASE IV, PARK TITAN PHASE II, PARK CONNECT PHASE II, KINGSBURY PHASE II, KINGSBURY PHASE III, BUILDING D - WING D-2 - NAVYANGAN PHASE - II, NEELAYA PROJECT 2, IMPERIAL ATRIA TOWER 2, ABIL BOULEVARD, MARVEL SERA A,B,C BUILDING, Marvel Kyra A AND B Building, Marvel Basilo A AND B Building, Marvel Cascada C Building, Marvel Cascada D building, Marvel Bounty J Building, Marvel Bounty K Building, MARVEL BOUNTY BUILDING L, MARVEL ARCO B BUILDING, MARVEL ARCO E BUILDING, Marvel Cascada E Building, Marvel Castella A And B Building, Forest Edge Phase 1, Megapolis Springs - A, Megapolis Springs - C, Megapolis Mystic - F, Megapolis Springs - B and F, Megapolis Shimmer - A1, Megapolis Saffron - A10 to A14, Megapolis Saffron - A3 to A9, Megapolis Saffron - Shops, Megapolis Mystic - C, Megapolis Springs - D and E, Megapolis Mystic Phase 2, Megapolis Symphony Phase I, Megapolis Serenity A8 to A12, B2 and Conv shop B, Godrej Nurture, Building D Voyage, Solitaire Business Hub Viman Nagar Phase 1, MAGNACITY - Tower A3, MAGNACITY - Tower A2, Geras Misty Waters, B1 Song Of Joy Geras Greenville 2, Geras Imperium Alpha, Geras Isle Royale Tower 2 and 3, Geras Imperium Oasis, Geras Imperium Rise, Geras Imperium Rise, Geras Misty Waters, Geras Isle Royale Tower 4 and 5, Priyadarshan - I, Princeville - A2, C2 and Conv Shop 2, Peninsula C, Kumar Pratham - A B C and Shops, Kumar Pratham - D E G, Kumar Pratham - D E G, Priyadarshan - I, Kumar Pratham - F Mhada, Priyadarshan - J, Peninsula - D, Kalpataru Jade Residences B, Kalpataru Jade Residences C, Kalpataru Jade Residences G, Kalpataru Jade Residences E, Kalpataru Jade Residences F, Marvel Ganga Sangria K,L,M Building, Marvel Selva Ridge A,B Building, Marvel Selva Ridge Villa Phase 01, SAI ESHANYA, Lords Estate, PARK IVORY PHASE II, VERDE RESIDENCE COLLECTION, Apostrophe Next, Puraniks Abitante Phase 1A, Puraniks Abitante Phase 1B, Aldea Espanola Phase V, Aldea Espanola Phase VI, Aldea Espanola Phase VII, Kalpataru Exquisite - Wing D, Kalpataru Exquisite - Wing 3, Kalpataru Exquisite - Wing 2, Kalpataru Exquisite - Wing 1, NAIKNAVARE KUTUMB PRIME, IMPERIAL COMMERCIAL SPACES, VANALIKA-PARADISE- III -3B, VANALIKA - PARADISE - PHASE - III-3A, Marvel Fria P1, P2, P3 Building, MANHATTAN, Prithvi - H2, Prithvi - H2, 47 East - A, 47 East - B Wing B, C and D, 47 East - B Wing A, Celesta, KUMAR PRAJWAL, Primavera - B6 and S1, Kalpataru Estate Building 8, Godrej Wood Park, AVON VISTA PROJECT -1, AVON VISTA PROJECT -1, The Cliff Garden, EPITOME PHASE I, Apostrophe, Moshi, Belmac Residences F, Belmac Residences E, Belmac Residences D, Belmac Residences B, Belmac Residences A, Belmac Residences C, CASTEL ROYALE TOWER NINE, LODHA BELMONDO SAWGRASS B, Lodha Belmondo St. Andrews B,C,D  Villa 1 to 28, Lodha Belmondo - Pebble Beach D, Lodha Belmondo - Tower 29, Lodha Belmondo - Tower 32, Lodha Belmondo - Townhouses, Lodha Belmondo St. Andrews A, LODHA BELMONDO ST. ANDREWS E, LODHA BELMONDO AUGUSTA B, LODHA BELMONDO ASHBRIDGE D, E, Lodha Belmondo - Tower 31, LODHA BELMONDO - ESTANCIA B, Lodha Belmondo - Tower 30, LODHA BELMONDO AUGUSTA C, Lodha Belmondo - Sawgrass A, Godrej Hillside 1, Godrej Hillside 2, Antariksha Signatures, 7 BUSINESS SQUARE, The Eminence II, The Emporium, Kairosa Cluster B, Puneville Phase III Cluster B, Puneville Phase III Cluster C, Puneville Phase III Cluster A, Megapolis Serenity A1 to A7, B1 and Conv shop A, Kalpataru Serenity - Bldg. 5, PARK TITANIUM PHASE II, Marvel Ribera A Building, Park Infinia - B1 and B2, Park Infinia - B1 and B2, Park Infinia - I1, I2, I3, J2, J3 and K1, Park Infinia Phase IV, Park Infinia - L2, L3, L4, K4, K5 and J4, Park Infinia - L1, K3 and I4, Picasso Phase II, PICASSO - O, The Crown Greens, NYATI ESTEBAN I, Pristine Prolife III, NANDAN AMAIRA, NANDAN PROBIZ, NANDAN PROSPERA GOLD, NANDAN FORTURA, KUTUMB PRIME, KUTUMB PRIME, KUTUMB PRIME, AVON VISTA PROJECT 3, AVON VISTA PROJECT 3, VATSALYA PURAM BUILDING A, Legacy Aura, Marvel Ideal Spacio Phase 01, Kumar Prakruti, Pinnacle - A4 and A5, Radius Residency and Anand Bhuvan, LODHA AMARA - TOWER 32,33, LODHA AMARA - TOWER 29,31, LODHA AMARA - TOWER 1 - 5, 7 - 19, LODHA AMARA - TOWER 38 and 39, Lodha Kolshet Plot A - Tower K, LODHA AMARA - TOWER 26, 27, 28, 30, 34, 35, Lodha Amara Tower 49 and 50, Lodha Amara - Tower 36 37, Lodha Sterling - Tower G, Lodha Amara - Wing 40 and 41, Lodha Amara Tower 44, Lodha Sterling - Tower H, Lodha Kolshet Plot A - Tower J, Lodha Amara -Tower 42 and 43, Lodha Supremus - Thane, Kolshet, Lodha Amara - Tower 46, Lodha Amara Tower 24 and 25, Lodha Amara MLCP Retail, Lodha Amara - Tower 6, 22, Lodha Amara - Tower 45, LODHA AMARA - TOWER 23, Lodha Amara Tower 47 and 48, Atmosphere Phase 1, 64 Greens, Lodha Parel Project, Lodha Majiwada - Tower 1, Lodha Majiwada - Tower 4, Lodha Majiwada - Tower 5, NEW CUFFE PARADE - LODHA ESTRELLA, NEW CUFFE PARADE - LODHA ENCHANTE, NEW CUFFE PARADE - LODHA EVOQ 41st Floor, 7 Hughes, One Aquaria, Lodha Adrina, CODENAME- MUST-HAVE, LODHA PARK, LODHA PARK - TOWN HOUSES, Palava Magnolia, Palava Serenity C, Elite 1 Shop, PALAVA URBANO D AND E, PALAVA URBANO G AND H, PALAVA EVIVA K to T, URBANO A, B, C and F, URBANO I to T, Clara Shops, Lakeside 2 Shops, Urbano 2 Shops, PALAVA CLUSTER 2-06 -  A - G, I - N, PALAVA SERENITY A, PALAVA SERENITY D, Elite 2 Shops, Foresta &amp; Fiora, Lakeside 1 Shops, Regalia Shops, PALAVA CLARA E - I, Palava Olivia C, PALAVA SERENITY B, Palava Florea - A to D, PALAVA CLARA A to D, D1, PALAVA OLIVIA A, North MLCP Shop, Palava Clara J-M, LODHA ETERNIS NATURA A, LODHA ETERNIS SERENA A, LODHA ETERNIS IDYLLIA B, SERENA B, NATURA B AND C, Lodha Supremus - Andheri, Upper Thane - Woodlands G,H,I, Upper Thane - Tiara H, Upper Thane - Meadows E, F, G, Upper Thane - Sereno D and E, UPPER THANE - TIARA A to B, Upper Thane - Tiara C, UPPER THANE - Woodlands E and F, UPPER THANE - WOODLANDS C AND D, Upper Thane - Meadows A, UPPER THANE - Tiara I, UPPER THANE -SERENO A1, Upper Thane - Sereno A1, C &amp; C1, Upper Thane - Tiara E, F, Upper Thane - Sereno A, B, B1, UPPER THANE - WOODLANDS A, B AND J, Upper Thane Treetops A - C, C1, C2, D - F, Upper Thane - Ecopolis A, Magnolia A B and C, Upper Thane Ecopolis A - B, Upper Thane Greenville A - E, E1, F - I, Casa Selva A to C, UPPER THANE - TIARA D, Casa Royale - Grande, NEW CUFFE PARADE - LODHA DIORO AND ELISIUM, NEW CUFFE PARADE -LODHA ALTIA, Lodha Quality Home Tower 1, LODHA SPLENDORA PLATINO E TO G , VIVANT A TO D, Lodha Quality Home Tower 4, Lodha Quality Home Tower 2, Lodha Quality Home Tower - 5, Lodha Panacea I, CASA UNIVIS - CIELO D, LODHA SPLENDORA - PLATINO - B, LODHA SPLENDORA - PLATINO - D, Lodha Global Park, Lodha Fiorenza, Lodha Panacea II, Lodha Quality Home Tower 3, Alpinia, Herbelia, Gingelia Residential, Parasmani - B, Promenade - The Address, Jasmine L and M, Jasmine T, Jasmine D, E and F, Orchid A to L, Orchid M N O, Jasmine A, B, C, G, H and I, LODHA VENEZIA - 49TH TO 65TH FLOOR, LODHA AZZURO, One Lodha Place, THE WORLD TOWERS - WORLD ONE - TIER III AND TRINITY, THE WORLD TOWERS -  WORLD ONE - TIER II, Lodha Patel Estate - Tower C, D, Lodha Patel Estate - Tower E, F, Lodha Patel Estate - Tower A, B, Lodha Patel Estate - Tower G, Lodha Mira Road Project 1, LODHA ETERNIS SERENA C, PALAVA MARVELLA B,C,D,E,F,G, PALVA MILANO D, G, PALAVA MILANO E, F, PALAVA AURORA B, C, PALAVA MILANO A,B,C,H,I,J, PALAVA MARVELLA A, H, LODHA SEAVIEW, PALAVA SAVANA AND SIENA, LODHA FRESHIA WING D, E, LODHA FRESHIA WING A, B, C, PALAVA RIVER VIEW E AND F, Lodha iThink B, PALAVA - AURELIA - D TO G, PALAVA AURELIA - C, H, I, PALAVA ESTELA A, B, C, PALAVA AURELIA A, FONTANA A ,B, I and J, PALAVA FONTANA C - H, PALAVA ESTELA H, I, J, PALAVA - ESTELA D to G, Palava - Retail Shop no 15 to 33 - Car Park Building C1, PALAVA - PASEO - D to H, PALAVA - UNO H - O, PALAVA VIENTO A to D, PALAVA PRIMIA E to J, PALAVA REGALIA A to F, PALAVA LAKESIDE I TO O, PALAVA LAGOONA A TO F, Palava Cielo A - F, Palava - Trinity A to C, PALAVA VISTA A to D, PALAVA LAKESIDE A to H, PALAVA CROWN, PALAVA ELITE K TO T, PALAVA - ELITE - A to J, Imperial Heights Wing C and D, Harbour Heights, TEN BKC, ANANTYA 1B, ANANTYA 1A, AVENUE 54</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100000979, P52100002665, P52100002137, P52100020092, P52100004782, P52100005004, P52100016395, P52100013714, P52100006888, P52100006888, P52100001860, P52100001860, P52100013714, P52100013714, P52100001860, P52100001860, P52100009000, P52100024844, P52100028031, P52100028082, P52100028033, P52100031784, P52100031784, P52100015961, P52100018532, P52100048329, P52100052923, P52100007776, P52100018309, P52100009077, P52100027928, P52100045982, P52100046228, P52100001789, P52100001179, P52100002021, P52100019467, P52100024155, P52100018913, P52100017914, P52100017914, P52100018720, P52100000971, P52100000755, P52100015685, P52100004518, P52100002620, P52100001005, P52100016626, P52100019639, P52100014286, P52100014950, P52100002850, P52100003653, P52100022530, P52100022530, P52100022522, P52100022598, P52100022499, P52100035207, P52100014951, P52100029906, P52100022619, P52100000350, P52100026875, P52100004640, P52100024616, P52100019406, P52100019393, P52100000217, P52100000210, P52100000281, P52100000416, P52100016619, P52100000249, P52100000171, P52100015480, P52100019407, P52100019375, P52100016677, P52100049914, P52100049839, P52100032022, P52100047940, P52100001091, P52100002648, P52100001521, P52100002240, P52100001627, P52100006192, P52100007908, P52100001815, P52100002574, P52100010976, P52100001843, P52100002064, P52100002371, P52100000889, P52100000889, P52100016149, P52100018850, P52100001814, P52100002540, P52100000013, P52100009114, P52100050272, P52100018775, P52100028310, P52100029724, P52100029724, P52100015466, P52100022543, P52100015466, P52100000767, P52100024045, P52100009406, P52100000901, P52100001434, P52100002368, P52100016242, P52100016237, P52100016293, P52100012916, P52100020766, P52100024449, P52100031768, P52100049640, P52100049631, P52100055911, P52100034961, P52100031776, P52100019148, P52100023913, P52100016163, P52100021179, P52100016407, P52100031530, P52100001878, P52100010211, P52100001711, P52100006134, P52100003507, P52100006797, P52100007453, P52100010835, P52100008708, P52100007022, P52100002242, P52100002438, P52100014725, P52100018284, P52100016848, P52100029121, P52100017386, P52100052912, P52100021609, P52100018779, P52100034988, P52100019959, P52100015188, P52100001391, P52100000887, P52100022957, P52100020686, P52100006188, P52100006995, P52100052096, P52100054476, P52100001176, P52100002048, P52100015242, P52100009870, P52100015514, P52100001786, P52100001786, P52100001176, P52100011031, P52100047781, P52100018603, P52100028012, P52100022486, P52100031354, P52100031354, P52100047781, P52100049685, P52100029119, P52100049664, P52100000926, P52100000676, P52100018194, P52100001392, P52100000869, P52100002514, P52100003648, P52100011640, P52100002815, P52100012004, P52100015699, P52100004841, P52100001275, P52100000437, P52100000569, P52100000572, P52100000537, P52100004340, P52100016932, P52100018100, P52100001266, P52100000298, P52100002518, P52100007362, P52100016963, P52100019038, P52100001522, P52100026529, P52100031366, P52100031366, P52100024598, P52100052955, P52100047702, P52100004798, P52100017868, P52100021093, P52100017535, P52100028133, P52100000371, P52100000371, P52100004906, P52100000703, P52100000905, P52100018437, P52100000131, P52100000407, P52100020497, P52100000899, P52100013991, P52100052260, P52100000221, P52100000283, P52100018308, P52100020142, P52100020190, P52100017082, P52100020156, P52100000182, P52100000406, P52100011522, P52100020172, P52100016840, P52100020188, P52100000174, P52100019434, P52100022099, P52100022153, P52100009963, P52100022523, P52100024443, P52100031027, P52100055222, P52100047694, P52100051020, P52100029522, P52100023051, P52100001267, P52100001274, P52100002377, P52100047895, P52100047895, P52100017239, P52100014939, P52100026185, P52100045667, P52100000104, P52100018205, P52100001864, P52100003767, P52100000897, P52100000883, P52100001376, P52100000563, P52100021481, P52100003209, P52100002090, P52100002348, P52100023133, P52100023133, P52100033502, P52100000710, P52100001583, P52100054001, P52100054619, P51800011593, P51700001030, P51700000981, P51700001065, P51700018393, P51700015040, P51700001031, P51700020157, P51700013961, P51700020158, P51700020088, P51700020123, P51700020189, P51700015243, P51700020164, P51700015598, P51700018579, P51700020128, P51700025892, P51700014760, P51700018593, P51700020093, P51700020151, P51800001243, P51800002079, P51900014910, P51700013263, P51700013789, P51700019519, P51900000521, P51900000367, P51900000567, P51900005191, P51800005647, P51900014937, P51900029416, P51900001339, P51900016526, P51700020131, P51700020159, P51700025471, P51700000577, P51700000696, P51700000419, P51700025495, P51700025535, P51700025475, P51700000802, P51700020155, P51700020124, P51700025470, P51700017506, P51700025522, P51700025474, P51700000540, P51700017590, P51700020253, P51700017487, P51700000448, P51700020214, P51700025674, P51700000420, P51800000345, P51800000294, P51800000293, P51800013696, P51700016245, P51700020154, P51700020170, P51700014770, P51700014814, P51700016437, P51700018107, P51700020225, P51700020266, P51700018035, P51700020191, P51700020217, P51700020141, P51700016243, P51700020104, P51700008449, P51700016666, P51700020197, P51700007192, P51700006147, P51700020268, P51700019121, P51700001517, P51900000314, P51900000629, P51700022250, P51700000199, P51700024777, P51700022251, P51700027449, P51700017078, P51700001153, P51700000258, P51700000659, P51700017924, P51800000195, P51700017060, P51700022533, P51700000778, P51700001038, P51700001033, P51900023727, P51800000201, P51700024141, P51700020373, P51700020354, P51700016747, P51700019809, P51700020381, P51900005378, P51900000828, P51900014984, P51900008962, P51900008345, P51800014860, P51800014869, P51800014891, P51800016528, P51700012991, P51800020147, P51700013462, P51700010109, P51700011629, P51700010960, P51700015016, P51700015660, P51900010326, P51700000546, P51700006149, P51700004667, P51700008764, P51700025627, P51700000511, P51700013073, P51700013158, P51700020161, P51700000506, P51700000596, P51700013145, P51700011068, P51700016941, P51700000269, P51700000142, P51700000342, P51700000391, P51700000390, P51700000410, P51700000124, P51700000378, P51700014396, P51700000395, P51700000384, P51700010935, P51700000389, P51700000125, P51800003270, P51900004243, P51800004889, P51800009827, P51800005533, P51800007149</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
@@ -5770,47 +5740,47 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Savleshwar Developers and Constructions, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Savleshwar Heights, Godrej Elements</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52200028128, P52100016626</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
@@ -5937,47 +5907,47 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Rightfeat Consulting Private Limited</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>09168078866</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>E2-65, Ganga Orchard, Ghorpadi Road, Opposite Passport Office, Koregaon Park Annexe-411001</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>info@rightfeat.com</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>09899957347</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>NAIKNAVARE BUILDCON PVT LTD, NAIKNAVARE BUILDCON PVT LTD, NAIKNAVARE BUILDCON PVT LTD, NAIKNAVAREPROFILECONSTRUCTIONSPVTLTD, Mahalunge Township Developers LLP, Mahalunge Township Developers LLP, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Manjari Housing Projects LLP, KEVIN PROPERTIES, NAIKNAVARE PROFILE CONSTRUCTIONS PVT LTD, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, GODREJ SKYLINE DEVELOPERS PRIVATE LIMITED, Prakruti Constructions Pvt Ltd, Cherry Contruction Pvt. Ltd., KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, ONE EARTH, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Duville Estates Private Limited, Duville Estates Private Limited, Duville Estates Private Limited, Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Antariksha Developers, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, NAIKNAVARE BUILDCON PVT LTD, Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., NAIKNAVAREPROFILECONSTRUCTIONSPVTLTD, OXFORD REALTY LLP, OXFORD REALTY LLP, OXFORD REALTY LLP, NITIN DWARKADAS NYATI, NITIN DWARKADAS NYATI, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Godrej Skyline Developers Private Limited, NNP BUILDCON PRIVATE LIMITED, One Earth, Sukumar Township Development Private Limited, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Godrej Skyline Developers Private Limited, NAIKNAVARE PROFILE CONSTRUCTIONS PVT LTD, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, GOEL EISHA CAPITAL, GOEL EISHA CAPITAL, GOEL EISHA CAPITAL, Kumar Properties Govind Shree Realtors LLP, Parasmani Constructions Pvt .Ltd</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>KUTUMB PRIME, KUTUMB PRIME, KUTUMB PRIME, AVONVISTAPROJECT4, Godrej Hillside 1, Godrej Hillside 2, Kumar Parc Residences - B2, Kumar Parc residences - A1, Kumar Parc Residences - C Mhada, GODREJ BOULEVARD, Paradise - B2 and B3, AVON VISTA PROJECT 3, Princetown Royal - B5, Princetown Royal - B3 and B6, Princetown Tower - C3, Princetown Royal - B2, Princetown Royal - B4, Princetown Tower - C2, Godrej Nurture, Pinnacle - A4 and A5, Citron Phase 2, KUMAR PRAJWAL, Primavera - B6 and S1, Palmspring Towers - A4, A5 and B2, Palmspring Towers - A6, A7 and B3, Palmspring Towers - A1, A2 and A3, Palmspring Bungalows - E1 to E6, FLORIDA RIVER WALK PHASE I, Kumar Prospera - A1 and A2, Kumar Prospera - A3, A4 and A5, Kumar Prospera - A6, Kumar Prospera - A7 and A8, Joyville Hinjawadi - I, Phase 1, Joyville Hinjawadi - I, Phase 2, Joyville Hinjawadi - I, Phase 3, Riverdale Heights, Riverdale Residences-I, Riverdale Suites, Park Infinia - L2, L3, L4, K4, K5 and J4, PICASSO - O, Park Infinia - I1, I2, I3, J2, J3 and K1, Park Infinia Phase IV, Park Infinia Phase III, Park Infinia - B1 and B2, Picasso Phase II, Park Infinia - L1, K3 and I4, Siddhachal - A4, Siddhachal - A1, Antariksha Signatures, Princeville - B3 and C1, Princeville - B4 and B5, Primus - A, NAIKNAVARE KUTUMB PRIME, Megapolis Shimmer - A1, Megapolis Springs - D and E, Megapolis Serenity A8 to A12, B2 and Conv shop B, Megapolis Serenity A1 to A7, B1 and Conv shop A, Megapolis Springs - B and F, Megapolis Springs - A, Megapolis Symphony Phase I, Megapolis Mystic Phase 2, Megapolis Saffron - A10 to A14, Megapolis Mystic - C, Megapolis Mystic - F, Megapolis Saffron - A3 to A9, Megapolis Saffron - Shops, Megapolis Springs - C, AVON VISTA PROJECT 2, Godrej Infinity, Godrej Rejuve, Godrej Rejuve, NYATI ELYSIA I, NYATI ELYSIA I, Godrej Elements, Godrej 24, Godrej Elements, Godrej Park Greens, VTP Leonara building C and F, FLORIDA RIVER WALK- II, Prithvi - H2, 47 East - B Wing B, C and D, 47 East - A, 47 East - B Wing A, Godrej Wood Park, AVON VISTA PROJECT -1, Platinum Square Phase 2, Windermere Phase 1, Platinum Square Phase 1, Windermere Phase 2, Vascon Goodlife Phase B, Vascon Goodlife Phase C, Peninsula C, Priyadarshan - J, Princeville - A2, C2 and Conv Shop 2, Peninsula - D, Kumar Pratham - D E G, Kumar Pratham - F Mhada, Kumar Pratham - A B C and Shops, Priyadarshan - I, Ganga Platino Building PQR, GANGA PLATINO BUILDING STUV, Ganga Platino Building V commercial, Kumar Prakruti, Parasmani - B</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100003209, P52100002090, P52100002348, P52100029724, P52100022099, P52100022153, P52100049839, P52100032022, P52100047940, P52100024616, P52100049914, P52100023133, P52100027928, P52100046228, P52100009077, P52100018309, P52100007776, P52100045982, P52100020686, P52100054619, P52100018850, P52100017868, P52100021093, P52100048329, P52100018532, P52100052923, P52100015961, P52100015819, P52100014951, P52100022619, P52100029906, P52100035207, P52100016131, P52100016252, P52100016775, P52100008035, P52100004692, P52100014163, P52100026185, P52100018205, P52100017239, P52100014939, P52100000084, P52100047895, P52100000104, P52100045667, P52100018775, P52100050272, P52100009963, P52100000755, P52100015685, P52100004518, P52100002518, P52100052912, P52100015188, P52100022957, P52100023051, P52100017386, P52100018284, P52100000887, P52100001391, P52100021609, P52100019959, P52100029121, P52100018779, P52100034988, P52100016848, P52100017914, P52100003129, P52100018720, P52100018720, P52100000860, P52100000860, P52100016626, P52100001005, P52100016626, P52100019639, P52100019994, P52100022780, P52100031366, P52100052955, P52100024598, P52100047702, P52100028133, P52100000371, P52100012916, P52100003865, P52100001434, P52100002368, P52100016237, P52100016293, P52100028012, P52100029119, P52100018603, P52100049664, P52100031354, P52100049685, P52100022486, P52100047781, P52100003874, P52100015428, P52100004784, P52100054001, P51900023727</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -6094,47 +6064,47 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>LAXMIKANT PRABHAKAR JOSHI, SHREE GOVINDA CONSTRUCTIONS, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>green vally, Shri Govinda Imperial, Godrej Elements</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P50300014652, P50300002973, P52100016626</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -6256,47 +6226,47 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>ANB INFRA DEVELOPERS EDU AND AGRO PRIVATE LIMITED, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>MANALI RESIDENCY, Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P51500016737, P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
@@ -6418,47 +6388,47 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>R N Enterprises</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02227719889</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Shop No 6 Plot No    91 Guru Kripa Angan Sector 44 Seawoods  Nerul W Navi Mumbai 400706</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>realestatenavimumbai30@gmail.com</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02227719889</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>G N GROUP BUILDERS AND DEVELOPERS, Shivalay Developers, ITMC Developers Pvt. Ltd., NAVEEN OMPRAKASH JAISWAL, YJNJ CONSTRUCTION PVT LTD, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Surmanj Realty Pvt Ltd, Shiv Krishana Developers, Surmanj Construction, METRO DEVELOPMENT</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>JAY GANESH, SHIVALAY APARTMENT, SSG Springville, SHREE GANESH, SHREE GANESH KRUPA, Adhiraj Samyama Tower 1B, Adhiraj Samyama Tower 1A, Adhiraj Samyama Tower 2B, Adhiraj Samyama Tower 3B, Adhiraj Samyama Tower 1C, Adhiraj Capital City Tower Meraki, Adhiraj Capital City Tower Oreka, Adhiraj Samyama Tower 2A, Adhiraj Samyama Tower 1D, SURMANJ RESIDENCY, SHIVKRISHNA ARCADE, MAHALAXMI KRUPA, THE PALMS</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52000012834, P52000009972, P51900017166, P52000009973, P52000018800, P52000004493, P52000004449, P52000003039, P52000004189, P52000014859, P52000022975, P52000022907, P52000007539, P52000014856, P52000026967, P52000011590, P52000017551, P51700000006</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
@@ -6580,47 +6550,42 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>PRIDE FINANCE AND REAL ESTATE</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02032409669</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>FLAT NO 07,MATHURA NIVAS, SHILAVIHAR COLONY, OPP YATRI HOTEL, ERANDWANA PUNE 411004</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>prideestate18@gmail.com</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Tirupati Developers, NDG Projects LLP, ketandevelopers, Mokate Constructions, M/S Majestique Heights, M/S Majestique Heights, M/S Majestique Heights, M/S Majestique Heights</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Shree Ganesha Residency, Ananta, Ketan Heights Wing / Building No A, Mokate Heritage, Aqua Phase IV, Aqua Phase III, Aqua Phase II, Aqua Phase I</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100005164, P52100031934, P52100005520, P52100035155, P52100025526, P52100020371, P52100014408, P52100000232</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
@@ -6747,47 +6712,47 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>GOLDBRICKS INFRASTRUCTURE PVT LTD, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Mahindra Bebanco Developers Limited, Ayodhya Realtor, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>ANANDAM WORLD CITY-TOWER G AND N, Mahindra Bloomdale 4B, Mahindra Bloomdale 4C, Bloomdale Row House 12 61 to 66, Bloomdale Row House 8 37 to 42, Bloomdale Building 10 A, Bloomdale Building 04, Bloomdale Duplex 08 13 to 14, Bloomdale Duplex Home 4, Bloomdale Duplex Home 6, Bloomdale Building 10 B, Bloomdale Row House 7, Bloomdale Building 06, Bloomdale Row House 11 55 to 60, Bloomdale Bloomdale 07, Bloomdale Building 08, Bloomdale Building 09, Bloomdale Row House 5, Bloomdale Row House 6, Bloomdale Duplex Home 3, AYODHYA EXOTICA, Geras Planet of Joy Project III, Geras Planet of Joy Project II, Geras Imperium Gateway A and C, Geras Planet of Joy Project I, Geras Imperium Gateway B, Geras Planet of Joy Project IV, Geras World of Joy C, Geras World of Joy D, Geras World of Joy S, Geras World of Joy L, Godrej Elements</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P50500045835, P50500020254, P50500020205, P50500019115, P50500014681, P50500007997, P50500006445, P50500017236, P50500007215, P50500009336, P50500008833, P50500008161, P50500015285, P50500017215, P50500005448, P50500008536, P50500006483, P50500007925, P50500007914, P50500007843, P50500029404, P52100031875, P52100031809, P52100030184, P52100031802, P52100030167, P52100031876, P52100022522, P52100022598, P52100022499, P52100022530, P52100016626</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
@@ -6909,32 +6874,27 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Heera Properties Nashik</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02532660838</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Indira Nagar ,Nashik</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>heera.properties@gmail.com</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
@@ -7076,47 +7036,47 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>BASERA BUILDCON, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>LUXURIA, Godrej Elements</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P50100001467, P52100016626</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -7238,47 +7198,47 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
@@ -7400,47 +7360,47 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, SAI UMA CONSTRUCTION PRIVATE LIMITED, SAI UMA CONSTRUCTION PRIVATE LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Puranik Tokyo Bay Private Limited, Puranik Tokyo Bay Private Limited, Puranik Tokyo Bay Private Limited, M/s. Annapurna Lifespaces LLP, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, VIJAY CITISPACE PVT. LTD., Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Messrs Neuzen Realtors LLP, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Twenty Five South Realty Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Macrotech Developers Limited, Macrotech Developers Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, COURTYARD REAL ESTATE PRIVATE LIMITED, COURTYARD REAL ESTATE PRIVATE LIMITED, COURTYARD REAL ESTATE PRIVATE LIMITED, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Fortune Infracreators Private Limited, Fortune Infracreators Private Limited, Fortune Infracreators Private Limited, MACROTECH DEVELOPERS LIMITED, VIJAY SURAKSHA REALTY LLP, VIJAY SURAKSHA REALTY LLP, VIJAY SURAKSHA REALTY LLP, Messrs SRC And Associates, Acme Housing India Private Limited, Acme Housing India Private Limited, Acme Housing India Private Limited, Aniline Construction Company Private Limited, Gajra Home Makers Pvt. Ltd., Ekdant Constructions and Developers Private Limited, MACROTECH DEVELOPERS LIMITED, COURTYARD REAL ESTATE PRIVATE LIMITED, Lodha Buildcon Private Ltd (Lodha Develoopers Pvt Ltd), COURTYARD REAL ESTATE PRIVATE LIMITED, Narang Propco Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, VIJAYGROUP HOUSING PRIVATE LIMITED, COURTYARD REAL ESTATE PRIVATE LIMITED, PRL Developers Private Limited, PRL Developers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Rohan Developers Pvt Ltd, VIJAY ASSOCIATES (WADHWA), VIJAY ASSOCIATES (WADHWA), VIJAY ASSOCIATES (WADHWA), VIJAY ASSOCIATES (WADHWA), EPITOME RESIDENCY PRIVATE LIMITED, RADIUS SUMER DEVELOPERS PRIVATE LIMITED, MIG (Bandra) Realtors &amp; Builders Private Limited, RADIUS &amp; DESERVE BUILDERS LLP, RADIUS &amp; DESERVE BUILDERS LLP, DEDHIA BUILDERS AND DEVELOPERS (INDIA) LLP, COURTYARD REAL ESTATE PRIVATE LIMITED, COURTYARD REAL ESTATE PRIVATE LIMITED, RADIUS PROJECT DEVELOPERS LLP, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Twenty Five South Realty Limited, Twenty Five South Realty Limited, NARANG REALTY PRIVATE LIMITED, NARANG REALTY PRIVATE LIMITED, Piramal Estate Private Limited, Piramal Estate Private Limited, Piramal Estate Private Limited, Piramal Estate Private Limited, Piramal Estate Private Limited, Piramal Estate Private Limited, SUMER RADIUS REALTY PVT LTD, TWENTY FIVE DOWNTOWN REALTY LIMITED</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>LODHA BELMONDO ST. ANDREWS E, LODHA BELMONDO AUGUSTA B, LODHA BELMONDO Pebble Beach E, Estancia A, Lodha Belmondo - Townhouses, Lodha Belmondo St. Andrews A, Lodha Belmondo - Tower 31, LODHA BELMONDO - ESTANCIA B, Lodha Belmondo - Tower 29, LODHA BELMONDO ASHBRIDGE D, E, Lodha Belmondo - Pebble Beach D, Lodha Belmondo - Tower 30, LODHA BELMONDO AUGUSTA C, LODHA BELMONDO SAWGRASS B, Lodha Belmondo St. Andrews B,C,D  Villa 1 to 28, Lodha Belmondo - Tower 32, Lodha Belmondo - Sawgrass A, Manhattan Phase 2, Manhattan Phase 1, Lodha Amara - Tower 36 37, Lodha Sterling - Tower G, Lodha Amara - Tower 6, 22, Lodha Amara - Tower 45, Lodha Amara - Wing 40 and 41, Lodha Amara Tower 44, Lodha Sterling - Tower H, Lodha Amara Tower 47 and 48, Lodha Amara Tower 49 and 50, Lodha Supremus - Thane, Kolshet, Lodha Amara Tower 24 and 25, Lodha Amara - Tower 46, Lodha Amara MLCP Retail, LODHA AMARA - TOWER 26, 27, 28, 30, 34, 35, LODHA AMARA - TOWER 29,31, LODHA AMARA - TOWER 32,33, LODHA AMARA - TOWER 1 - 5, 7 - 19, Lodha Kolshet Plot A - Tower K, LODHA AMARA - TOWER 38 and 39, LODHA AMARA - TOWER 23, Lodha Amara -Tower 42 and 43, Lodha Kolshet Plot A - Tower J, Tokyo Bay Phase - 2A, IKIGAI - Phase 1, Tokyo Bay Phase - 1, Aarambh - C, UPPER THANE - Tiara I, Upper Thane - Woodlands G,H,I, Upper Thane Treetops A - C, C1, C2, D - F, Upper Thane - Sereno A, B, B1, VIJAY ENCLAVE, PALAVA - ELITE - A to J, PALAVA LAKESIDE I TO O, PALAVA LAGOONA A TO F, Palava Cielo A - F, PALAVA - PASEO - D to H, PALAVA VIENTO A to D, PALAVA - UNO H - O, PALAVA CROWN, Palava - Trinity A to C, PALAVA ELITE K TO T, PALAVA PRIMIA E to J, PALAVA REGALIA A to F, Palava - Retail Shop no 15 to 33 - Car Park Building C1, PALAVA VISTA A to D, PALAVA LAKESIDE A to H, 64 Greens, CODENAME- MUST-HAVE, Lodha Adrina, LODHA PARK, LODHA PARK - TOWN HOUSES, PALAVA URBANO D AND E, PALAVA URBANO G AND H, Palava Olivia C, Palava Magnolia, Lakeside 1 Shops, North MLCP Shop, PALAVA SERENITY B, Lakeside 2 Shops, Clara Shops, PALAVA CLARA E - I, PALAVA OLIVIA A, Elite 1 Shop, Palava Serenity C, Urbano 2 Shops, PALAVA SERENITY A, PALAVA SERENITY D, PALAVA EVIVA K to T, URBANO A, B, C and F, URBANO I to T, PALAVA CLARA A to D, D1, Foresta &amp; Fiora, Palava Clara J-M, Palava Florea - A to D, Regalia Shops, PALAVA CLUSTER 2-06 -  A - G, I - N, Elite 2 Shops, LODHA ETERNIS NATURA A, LODHA ETERNIS SERENA C, LODHA ETERNIS SERENA A, Lodha Supremus - Andheri, LODHA ETERNIS IDYLLIA B, SERENA B, NATURA B AND C, PALAVA MARVELLA A, H, PALAVA MILANO A,B,C,H,I,J, PALVA MILANO D, G, PALAVA MILANO E, F, PALAVA AURORA B, C, PALAVA MARVELLA B,C,D,E,F,G, LODHA SEAVIEW, LODHA FRESHIA WING D, E, LODHA FRESHIA WING A, B, C, PALAVA RIVER VIEW E AND F, PALAVA SAVANA AND SIENA, Lodha iThink B, PALAVA FONTANA C - H, PALAVA ESTELA H, I, J, FONTANA A ,B, I and J, PALAVA - ESTELA D to G, Twenty Five South - North Tower, Lodha Parel Project, Lodha Majiwada - Tower 1, Lodha Majiwada - Tower 4, Lodha Majiwada - Tower 5, NEW CUFFE PARADE - LODHA EVOQ 41st Floor, NEW CUFFE PARADE -LODHA ALTIA, NEW CUFFE PARADE - LODHA DIORO AND ELISIUM, NEW CUFFE PARADE - LODHA ESTRELLA, NEW CUFFE PARADE - LODHA ENCHANTE, Lodha Quality Home Tower 1, Lodha Quality Home Tower - 5, LODHA SPLENDORA - PLATINO - B, LODHA SPLENDORA - PLATINO - D, Lodha Global Park, Lodha Quality Home Tower 2, Lodha Panacea I, Lodha Quality Home Tower 4, LODHA SPLENDORA PLATINO E TO G , VIVANT A TO D, CASA UNIVIS - CIELO D, Lodha Quality Home Tower 3, Lodha Fiorenza, Lodha Panacea II, Orchid A to L, Jasmine D, E and F, Jasmine L and M, Jasmine T, Jasmine A, B, C, G, H and I, Orchid M N O, LODHA AZZURO, LODHA VENEZIA - 49TH TO 65TH FLOOR, One Lodha Place, THE WORLD TOWERS -  WORLD ONE - TIER II, Courtyard - Ornella, Courtyard - Ivy, Courtyard - Onyx, Rumah Bali Phase 3, PURANIK CITY SECTOR 1, PURANIK CITY SECTOR 2, Puranik City Reserva Phase 1, Rumahbali Phase 2, Puranik Home Town - E, PURANIK CITY SECTOR 3, PURANIK CITY SECTOR 4A, Tresora Grand Central, Elito Grand Central, Stella Grand Central, Lodha Mira Road Project 1, OROVIA PHASE 1, Vijay Vatika -5, Orion -3, One Aquaria, Herbelia, Gingelia Residential, Alpinia, PARKWOODS D5, Bhoomi Lawns , Phase II, Glorio Grand Central, THE WORLD TOWERS - WORLD ONE - TIER III AND TRINITY, Courtyard - Florence, Casa Royale - Grande, Courtyard - Asteria C, Narang Vivenda, UPPER THANE - TIARA D, Upper Thane - Meadows A, Upper Thane - Tiara E, F, Upper Thane - Tiara C, Upper Thane - Ecopolis A, Upper Thane - Tiara H, Upper Thane Greenville A - E, E1, F - I, UPPER THANE - TIARA A to B, Upper Thane - Sereno D and E, UPPER THANE - WOODLANDS C AND D, UPPER THANE -SERENO A1, Upper Thane - Sereno A1, C &amp; C1, Casa Selva A to C, UPPER THANE - Woodlands E and F, UPPER THANE - WOODLANDS A, B AND J, Upper Thane - Meadows E, F, G, Magnolia A B and C, Upper Thane Ecopolis A - B, VIJAY ESTATE VAKAS PHASE - 1, Courtyard - Rozanne, Piramal Revanta - Tower 3, Piramal Revanta - Tower 4, PALAVA - AURELIA - D TO G, PALAVA AURELIA A, PALAVA AURELIA - C, H, I, PALAVA ESTELA A, B, C, 7 Hughes, Elite Solitaire 15, Elite Solitaire 16, Elite Platina 19, Elite Platina 20, Imperial Heights Wing C and D, Harbour Heights, TEN BKC, ANANTYA 1B, ANANTYA 1A, ELCANTO, Courtyard - Asteria A, Courtyard - Asteria B, Radius Residency and Anand Bhuvan, Lodha Patel Estate - Tower C, D, Lodha Patel Estate - Tower A, B, Lodha Patel Estate - Tower G, Lodha Patel Estate - Tower E, F, 25 South Tower A 11th to 47th Floor, 25 South Tower A upto 10th Floor, Narang Privado - B, Narang Privado - C, Vaikunth Cluster 1, Vaikunth Cluster 2, Vaikunth Cluster 4, Vaikunth Cluster 4A, Vaikunth Cluster 3 Tower 2, Vaikunth Cluster 3 T1, AVENUE 54, 25 Downtown-Wing 1-Emerald Palm</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100000182, P52100000406, P52100000350, P52100017082, P52100020156, P52100020172, P52100016840, P52100020142, P52100011522, P52100018308, P52100020188, P52100000174, P52100000221, P52100000283, P52100020190, P52100019434, P51700013323, P51700001707, P51700013961, P51700020158, P51700014760, P51700018593, P51700020088, P51700020123, P51700020189, P51700020151, P51700020157, P51700015598, P51700020128, P51700018579, P51700025892, P51700001031, P51700000981, P51700001030, P51700001065, P51700015040, P51700018393, P51700020093, P51700020164, P51700015243, P51700000520, P51700006605, P51700000618, P51700000940, P51700018035, P51700016245, P51700008449, P51700016243, P51700008755, P51700000125, P51700000410, P51700000124, P51700000378, P51700000269, P51700000342, P51700000142, P51700010935, P51700014396, P51700000389, P51700000391, P51700000390, P51700016941, P51700000395, P51700000384, P51800002079, P51900029416, P51900014937, P51900001339, P51900016526, P51700000577, P51700000696, P51700017590, P51700020131, P51700025522, P51700025674, P51700020253, P51700025535, P51700025495, P51700000540, P51700020214, P51700025471, P51700020159, P51700025475, P51700020155, P51700020124, P51700000419, P51700000448, P51700017506, P51700000420, P51700017487, P51700025474, P51700000802, P51700025470, P51800000345, P51800020147, P51800000294, P51800013696, P51800000293, P51700015660, P51700015016, P51700010109, P51700011629, P51700010960, P51700013462, P51900010326, P51700006149, P51700004667, P51700008764, P51700000546, P51700025627, P51700000596, P51700013145, P51700000506, P51700011068, P51900030600, P51900014910, P51700013263, P51700013789, P51700019519, P51900000567, P51900000629, P51900000314, P51900000521, P51900000367, P51700022250, P51700027449, P51700000258, P51700000659, P51700017924, P51700022251, P51700017078, P51700024777, P51700000199, P51700001153, P51700022533, P51800000195, P51700017060, P51700016747, P51700020354, P51700024141, P51700020373, P51700020381, P51700019809, P51900000828, P51900005378, P51900014984, P51900008345, P51700000681, P51700000611, P51700000714, P51700015955, P52000017996, P52000017954, P51700000912, P51700000689, P51700002158, P52000017953, P52000017994, P51700001221, P51700002741, P51700001150, P51700012991, P51700005653, P51700005805, P51700006838, P51800005647, P51700001038, P51700001033, P51700000778, P51700007024, P51700004303, P51700003017, P51900008962, P51700000831, P51700001517, P51700048420, P51800055504, P51700019121, P51700020266, P51700020141, P51700016437, P51700016666, P51700020154, P51700006147, P51700014814, P51700014770, P51700020225, P51700020191, P51700020217, P51700020268, P51700018107, P51700020104, P51700020170, P51700020197, P51700007192, P52000000959, P51700006312, P51800018099, P51800031310, P51700000511, P51700020161, P51700013073, P51700013158, P51900005191, P51700006610, P51700009882, P51700008189, P51700010204, P51800003270, P51900004243, P51800004889, P51800009827, P51800005533, P51700001985, P51700047633, P51700047655, P51800011593, P51800014860, P51800014891, P51800016528, P51800014869, P51900011418, P51900006860, P51700050065, P51700054336, P51700003535, P51700003793, P51700003283, P51700005256, P51700024580, P51700024023, P51800007149, P51900076617</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
@@ -7562,47 +7522,47 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Regency Aawishkar Sarsan Developers LLP, REGENCY HOUSING, Prakruti Constructions Pvt Ltd, Sukumar Township Development Private Limited, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, Sai Property Wanowari LLP, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Kumar Properties Govind Shree Realtors LLP, Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, KEVIN PROPERTIES, Parasmani Constructions Pvt .Ltd</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>REGENCY ASTRA PHASE I, Regency Orion, Pinnacle - A4 and A5, Prithvi - H2, PLOT NO. B-01 TO B-21 VIVA,PIRANGUT,PUNE, PLOT NO. 10, VIVA,PIRANGUT,PUNE, PLOT NO 8, VIVA, PIRANGUT, PLOT NO.7, VIVA, PIRANGUT, Sai Royale Wing B, Kumar Prospera - A7 and A8, KUMAR PRAJWAL, Palmspring Towers - A1, A2 and A3, Palmspring Towers - A4, A5 and B2, Kumar Parc residences - A1, Kumar Parc Residences - C Mhada, Kumar Parc Residences - B2, Peninsula - D, Peninsula C, Kumar Pratham - F Mhada, T12 NAMED MAGNA BEING PHASE 2 OF THE PROJECT COMPRISING BUILDINGS T12 AND T13, VISTAS CENTREPOINT, T13 - PHASE OF THE PROJECT COMPRISING BUILDING T12 AND T13, T8 named LUXURIANT Phase 2 of Raheja Reserve being Buildings T7 T8 T9 T10 in RV Premiere, T9 Chronos and T10 Supremus Phase 1 Of Raheja Reserve being Buildings T7 T8 T9 T10 in RV Premiere, Siddhachal - A4, Siddhachal - A1, Princetown Royal - B3 and B6, Princetown Tower - C2, Princetown Royal - B5, Kumar Prakruti, Park Infinia - B1 and B2, Park Infinia - L1, K3 and I4, 47 East - C Mhada, 47 East - B Wing B, C and D, 47 East - A, 47 East - B Wing A, Paradise - B2 and B3, Parasmani - B</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100032177, P52100020102, P52100054619, P52100031366, P52100001800, P52100002702, P52100002113, P52100002681, P52100005052, P52100035207, P52100017868, P52100052923, P52100048329, P52100032022, P52100047940, P52100049839, P52100049664, P52100028012, P52100049685, P52100015996, P52100016359, P52100000707, P52100024187, P52100021356, P52100018775, P52100050272, P52100046228, P52100045982, P52100027928, P52100054001, P52100047895, P52100045667, P52100053775, P52100052955, P52100024598, P52100047702, P52100049914, P51900023727</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
@@ -7724,32 +7684,32 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
@@ -7891,47 +7851,47 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited</t>
         </is>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Joyville Hinjawadi - I, Phase 3, Joyville Hinjawadi - I, Phase 4, Joyville Hinjawadi - I, Phase 5, Joyville Hinjawadi - I, Phase 6, Joyville Hinjawadi - I, Phase 1, Joyville Hinjawadi - I, Phase 2</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016775, P52100016786, P52100018500, P52100018502, P52100016131, P52100016252</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
@@ -8053,32 +8013,32 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD47" t="inlineStr">
@@ -8215,47 +8175,47 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
@@ -8382,47 +8342,47 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Lodha Buildcon Private Ltd (Lodha Develoopers Pvt Ltd), MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Macrotech Developers Limited, Macrotech Developers Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Macrotech Developers Limited, Macrotech Developers Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Twenty Five South Realty Limited</t>
         </is>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>LODHA BELMONDO ST. ANDREWS E, LODHA BELMONDO ASHBRIDGE D, E, LODHA BELMONDO - ESTANCIA B, Lodha Belmondo - Tower 32, LODHA BELMONDO AUGUSTA B, LODHA BELMONDO SAWGRASS B, Lodha Belmondo - Sawgrass A, Lodha Belmondo St. Andrews A, LODHA BELMONDO AUGUSTA C, Lodha Belmondo - Tower 29, LODHA BELMONDO Pebble Beach E, Estancia A, Lodha Belmondo - Pebble Beach D, Lodha Belmondo - Tower 31, Lodha Belmondo St. Andrews B,C,D  Villa 1 to 28, Lodha Belmondo - Townhouses, Lodha Belmondo - Tower 30, PALAVA - UNO H - O, PALAVA PRIMIA E to J, PALAVA CROWN, PALAVA LAKESIDE I TO O, PALAVA REGALIA A to F, PALAVA - ELITE - A to J, PALAVA ELITE K TO T, PALAVA LAGOONA A TO F, PALAVA LAKESIDE A to H, PALAVA VIENTO A to D, PALAVA VISTA A to D, Palava Cielo A - F, Palava - Trinity A to C, Palava - Retail Shop no 15 to 33 - Car Park Building C1, PALAVA - PASEO - D to H, Upper Thane - Ecopolis A, Upper Thane - Tiara C, UPPER THANE - Tiara I, Upper Thane - Meadows A, Upper Thane - Tiara E, F, Upper Thane Treetops A - C, C1, C2, D - F, Upper Thane - Tiara H, Upper Thane - Meadows E, F, G, Casa Selva A to C, Magnolia A B and C, UPPER THANE - WOODLANDS C AND D, UPPER THANE - TIARA A to B, Upper Thane - Sereno D and E, UPPER THANE - Woodlands E and F, Upper Thane - Sereno A1, C &amp; C1, Upper Thane Greenville A - E, E1, F - I, Upper Thane Ecopolis A - B, Lodha Amara - Tower 46, Lodha Amara Tower 24 and 25, Lodha Amara - Tower 36 37, Lodha Amara -Tower 42 and 43, Lodha Sterling - Tower G, Lodha Amara - Tower 6, 22, Lodha Supremus - Thane, Kolshet, Lodha Amara - Tower 45, Lodha Kolshet Plot A - Tower J, Lodha Amara Tower 44, LODHA AMARA - TOWER 23, Lodha Amara - Wing 40 and 41, Lodha Amara MLCP Retail, LODHA AMARA - TOWER 38 and 39, Lodha Sterling - Tower H, LODHA AMARA - TOWER 32,33, Lodha Amara Tower 47 and 48, Lodha Amara Tower 49 and 50, LODHA AMARA - TOWER 26, 27, 28, 30, 34, 35, LODHA AMARA - TOWER 1 - 5, 7 - 19, LODHA AMARA - TOWER 29,31, Lodha Kolshet Plot A - Tower K, LODHA PARK, LODHA PARK - TOWN HOUSES, CODENAME- MUST-HAVE, Lodha Adrina, Foresta &amp; Fiora, Palava Serenity C, Regalia Shops, PALAVA CLARA A to D, D1, Palava Clara J-M, PALAVA CLUSTER 2-06 -  A - G, I - N, PALAVA SERENITY A, PALAVA OLIVIA A, PALAVA CLARA E - I, PALAVA URBANO D AND E, PALAVA URBANO G AND H, PALAVA EVIVA K to T, URBANO A, B, C and F, URBANO I to T, Palava Magnolia, Urbano 2 Shops, Palava Florea - A to D, North MLCP Shop, Elite 2 Shops, PALAVA SERENITY D, Clara Shops, Palava Olivia C, PALAVA SERENITY B, Elite 1 Shop, Lakeside 1 Shops, Lakeside 2 Shops, LODHA ETERNIS IDYLLIA B, SERENA B, NATURA B AND C, LODHA ETERNIS NATURA A, LODHA ETERNIS SERENA A, LODHA ETERNIS SERENA C, Lodha Supremus - Andheri, PALAVA MARVELLA B,C,D,E,F,G, PALVA MILANO D, G, PALAVA MILANO E, F, PALAVA AURORA B, C, PALAVA MARVELLA A, H, PALAVA MILANO A,B,C,H,I,J, LODHA SEAVIEW, PALAVA RIVER VIEW E AND F, Lodha iThink B, PALAVA SAVANA AND SIENA, Lodha Parel Project, Lodha Majiwada - Tower 4, Lodha Majiwada - Tower 5, Lodha Majiwada - Tower 1, NEW CUFFE PARADE -LODHA ALTIA, NEW CUFFE PARADE - LODHA ESTRELLA, NEW CUFFE PARADE - LODHA ENCHANTE, NEW CUFFE PARADE - LODHA DIORO AND ELISIUM, NEW CUFFE PARADE - LODHA EVOQ 41st Floor, New Cuffe Parade - Lodha Gardenia, Lodha Global Park, Lodha Quality Home Tower 1, Lodha Quality Home Tower 2, Lodha Panacea I, Lodha Panacea II, Lodha Quality Home Tower 4, Lodha Quality Home Tower - 5, Lodha Quality Home Tower 3, LODHA SPLENDORA - PLATINO - B, LODHA SPLENDORA - PLATINO - D, Lodha Fiorenza, LODHA SPLENDORA PLATINO E TO G , VIVANT A TO D, CASA UNIVIS - CIELO D, Casa Royale - Grande, UPPER THANE - TIARA D, Upper Thane - Sereno A, B, B1, UPPER THANE - WOODLANDS A, B AND J, UPPER THANE -SERENO A1, Jasmine D, E and F, Jasmine L and M, Orchid M N O, Jasmine A, B, C, G, H and I, Jasmine T, Orchid A to L, LODHA AZZURO, LODHA VENEZIA - 49TH TO 65TH FLOOR, One Lodha Place, THE WORLD TOWERS - WORLD ONE - TIER III AND TRINITY, THE WORLD TOWERS -  WORLD ONE - TIER II, LODHA FRESHIA WING D, E, LODHA FRESHIA WING A, B, C, FONTANA A ,B, I and J, PALAVA AURELIA - C, H, I, PALAVA ESTELA A, B, C, PALAVA ESTELA H, I, J, PALAVA - ESTELA D to G, PALAVA - AURELIA - D TO G, PALAVA FONTANA C - H, PALAVA AURELIA A, Lodha Patel Estate - Tower C, D, Lodha Patel Estate - Tower E, F, Lodha Patel Estate - Tower A, B, Lodha Mira Road Project 1, 25 South - Central Tower</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100000182, P52100011522, P52100016840, P52100020190, P52100000406, P52100000221, P52100019434, P52100020156, P52100000174, P52100020142, P52100000350, P52100018308, P52100020172, P52100000283, P52100017082, P52100020188, P51700000142, P51700000391, P51700010935, P51700000410, P51700000390, P51700000125, P51700000389, P51700000124, P51700000384, P51700000342, P51700000395, P51700000378, P51700014396, P51700016941, P51700000269, P51700016666, P51700016437, P51700018035, P51700020266, P51700020141, P51700008449, P51700020154, P51700020170, P51700020268, P51700020197, P51700020225, P51700014814, P51700014770, P51700018107, P51700020217, P51700006147, P51700007192, P51700018579, P51700020128, P51700013961, P51700020164, P51700020158, P51700014760, P51700015598, P51700018593, P51700015243, P51700020123, P51700020093, P51700020088, P51700025892, P51700018393, P51700020189, P51700001030, P51700020151, P51700020157, P51700001031, P51700001065, P51700000981, P51700015040, P51900001339, P51900016526, P51900029416, P51900014937, P51700017506, P51700020159, P51700025474, P51700000448, P51700000420, P51700000802, P51700020155, P51700020214, P51700000540, P51700000577, P51700000696, P51700000419, P51700020131, P51700025475, P51700017487, P51700025674, P51700025470, P51700020124, P51700025495, P51700017590, P51700020253, P51700025471, P51700025522, P51700025535, P51800000293, P51800000345, P51800000294, P51800020147, P51800013696, P51700013462, P51700010109, P51700011629, P51700010960, P51700015660, P51700015016, P51900010326, P51700008764, P51700025627, P51700000546, P51900014910, P51700013789, P51700019519, P51700013263, P51900000629, P51900000521, P51900000367, P51900000314, P51900000567, P51900015715, P51700017924, P51700022250, P51700022251, P51700017078, P51700017060, P51700024777, P51700027449, P51700022533, P51700000258, P51700000659, P51800000195, P51700000199, P51700001153, P51700001517, P51700019121, P51700016243, P51700020104, P51700020191, P51700020354, P51700024141, P51700019809, P51700020381, P51700020373, P51700016747, P51900000828, P51900005378, P51900014984, P51900008962, P51900008345, P51700006149, P51700004667, P51700000506, P51700013073, P51700013158, P51700013145, P51700011068, P51700000511, P51700000596, P51700020161, P51800014860, P51800014869, P51800014891, P51700012991, P51900025184</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
@@ -8544,47 +8504,47 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Mountview Properties LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Agro Products Pvt Ltd, Gera Realty Estates, VISION INFRASTRUCTURE, Sukumar Township Development Private Limited, Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kasturi Builders, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Kasturi Developers, Apex Builders, VISION INFRA, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., KEVIN PROPERTIES, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Antariksha Developers, Kasturi Shelters, Kumar Properties Govind Shree Realtors LLP, Prakruti Constructions Pvt Ltd, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Parasmani Constructions Pvt .Ltd</t>
         </is>
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Sayama Phase 3, Aldea Annexo - D, Sayama Phase 2, Sayama Phase 4, Aldea Annexo -C1, Building A2 Eon Homes, Building D3 Eon Homes, Building A3 Eon homes, Primus - A, Princeville - B3 and C1, Princeville - B4 and B5, Kumar Parc Residences - C Mhada, Kumar Parc residences - A1, Kumar Parc Residences - B2, Palmspring Towers - A6, A7 and B3, Palmspring Bungalows - E1 to E6, Palmspring Towers - A4, A5 and B2, Palmspring Towers - A1, A2 and A3, Joyville Hinjawadi - I, Phase 6, Joyville Hinjawadi - I, Phase 5, Joyville Hinjawadi - I, Phase 2, Joyville Hinjawadi - I, Phase 1, Joyville Hinjawadi - I, Phase 4, Joyville Hinjawadi - I, Phase 3, Princeville - A2, C2 and Conv Shop 2, Peninsula - D, Kumar Pratham - F Mhada, Kumar Pratham - A B C and Shops, Kumar Pratham - D E G, Priyadarshan - I, Peninsula C, Lords Estate, 47 East - B Wing A, 47 East - B Wing B, C and D, 47 East - A, Priyadarshan - J, Geras Adara, VISION INDRABHUMI, Prithvi - H2, PICASSO - O, Picasso Phase II, Park Infinia - I1, I2, I3, J2, J3 and K1, Park Infinia Phase IV, Park Infinia - L2, L3, L4, K4, K5 and J4, Park Infinia - L1, K3 and I4, Park Infinia - B1 and B2, Apostrophe Next, Puraniks Abitante Phase 1A, Puraniks Abitante Phase 1B, Aldea Espanola Phase V, Aldea Espanola Phase VI, Aldea Espanola Phase VII, EPITOME PHASE I, Apostrophe, Moshi, VISION INDRAMEGH, Siddhachal - A4, Siddhachal - A1, Geras World of Joy L, Geras World of Joy C, Geras World of Joy D, Geras World of Joy S, Kumar Prospera - A3, A4 and A5, Kumar Prospera - A7 and A8, Kumar Prospera - A6, Kumar Prospera - A1 and A2, Megapolis Springs - C, Megapolis Shimmer - A1, Megapolis Serenity A8 to A12, B2 and Conv shop B, Megapolis Serenity A1 to A7, B1 and Conv shop A, Megapolis Mystic Phase 2, Megapolis Saffron - A3 to A9, Megapolis Mystic - F, Megapolis Saffron - Shops, Megapolis Saffron - A10 to A14, Megapolis Mystic - C, Megapolis Springs - B and F, Megapolis Springs - A, Megapolis Symphony Phase I, Megapolis Springs - D and E, Paradise - B2 and B3, Princetown Tower - C3, Princetown Royal - B3 and B6, Princetown Tower - C2, Princetown Royal - B2, Princetown Royal - B5, Princetown Royal - B4, Primavera - B6 and S1, KUMAR PRAJWAL, Geras Isle Royale Tower 4 and 5, Geras Imperium Alpha, Geras Imperium Oasis, Geras Misty Waters, Geras Misty Waters, B1 Song Of Joy Geras Greenville 2, Geras Isle Royale Tower 2 and 3, Geras Imperium Rise, Geras Imperium Rise, A3, Song of Joy, Geras Greensville2, Antariksha Signatures, Building D Voyage, Kumar Prakruti, Pinnacle - A4 and A5, Joyville Virar Phase 1, Joyville Virar Phase 2, Joyville Virar Phase 4, Joyville Virar Phase 5, Joyville Virar Phase 3, Parasmani - B</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100002137, P52100020092, P52100004782, P52100005004, P52100000979, P52100006888, P52100001860, P52100013714, P52100004518, P52100000755, P52100015685, P52100047940, P52100032022, P52100049839, P52100018532, P52100015961, P52100048329, P52100052923, P52100018502, P52100018500, P52100016252, P52100016131, P52100016786, P52100016775, P52100018603, P52100049664, P52100049685, P52100022486, P52100031354, P52100047781, P52100028012, P52100012004, P52100047702, P52100052955, P52100024598, P52100029119, P52100000889, P52100018032, P52100031366, P52100018205, P52100000104, P52100017239, P52100014939, P52100026185, P52100045667, P52100047895, P52100001275, P52100000437, P52100000569, P52100000572, P52100000537, P52100004340, P52100000703, P52100000905, P52100005558, P52100018775, P52100050272, P52100022530, P52100022522, P52100022598, P52100022499, P52100022619, P52100035207, P52100029906, P52100014951, P52100016848, P52100052912, P52100022957, P52100023051, P52100001391, P52100018779, P52100029121, P52100034988, P52100021609, P52100019959, P52100017386, P52100018284, P52100000887, P52100015188, P52100049914, P52100009077, P52100046228, P52100045982, P52100018309, P52100027928, P52100007776, P52100021093, P52100017868, P52100011031, P52100015242, P52100015514, P52100001176, P52100001176, P52100002048, P52100009870, P52100001786, P52100001786, P52100001789, P52100009963, P52100006188, P52100054001, P52100054619, P51900000444, P99000013612, P99000019538, P99000019531, P99000018521, P51900023727</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
@@ -8706,47 +8666,47 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>ARUN SHAMLAL JAISWAL, MAULI ASSOCIATES, SANDESH DEVELOPERS, MAHALAXMI INFRATECH, ASHISH KALODE &amp; OTHERS, SURENDRAM CHADDHA AND 3 OTHERSOHA, MAHALAXMI ESTATE, MAHALAXMI BUILDCON, GOVIND DAULATRAO ZALKE, MAHALAXMI INFRA, MAHALAXMI INFRA, MAHALAXMI INFRA, MAHALAXMI INFRA, MAHALAXMI INFRA, MAHALAXMI INFRA, PADMALAXMI DEVELOPERS, AADITYA INFRASTRUCTURES, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>MAHALAXMI NAGAR 3, MAULI NAGAR 2, MATOSHRI, SONARI, SHIVTHIRTH NAGAR 3, SONARI 2, MAHALAXMI NAGAR 6, MAHALAXMI NAGAR 7, DWARKA NAGARI, SHIVTHIRTH NAGAR 2, NAKSHTRA 3, MAHALAXMI NAGAR 2, MAHALAXMI NAGAR 2 - 293, MAHALAXMI NAGAR 5 - SURVEY NO 9, MAHALAXMI NAGAR - 9, MAHALAXMI NAGAR 4, AADITYA PREMIUM III PHASE 2, Godrej Elements</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P50500011579, P50500024214, P50500019916, P50500002458, P50500017018, P50500009899, P50500019499, P50500017689, P50500013614, P50500001948, P50500003529, P50500003449, P50500002993, P50500016892, P50500020050, P50500016897, P50500015877, P52100016626</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
@@ -8873,47 +8833,47 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>NANDAN BUILDCON PVT LTD, NANDAN BUILDCON PVT LTD, NANDAN BUILDCON PVT LTD, Minaxi Chaitanya Sompura, SHRINATH REALTY, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, Sukumar Township Development Private Limited, OXFORD REALTY LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Manjari Housing Projects LLP, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., KEVIN PROPERTIES, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, GODREJ SKYLINE DEVELOPERS PRIVATE LIMITED, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Antariksha Developers, Mahalunge Township Developers LLP, Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Manjari Housing Projects LLP, Godrej Skyline Developers Private Limited, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Kumar Properties Govind Shree Realtors LLP, Prakruti Constructions Pvt Ltd, Godrej Skyline Developers Private Limited, Mahalunge Township Developers LLP, Mahalunge Township Developers LLP, Parasmani Constructions Pvt .Ltd</t>
         </is>
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>NANDAN CARNIVAL A BUILDING, NANDAN CARNIVAL B BUILDING, NANDAN CARNIVAL C BUILDING, Aditi Apartment, SUKHAYUSH APARTMENT, Primus - A, Princeville - B4 and B5, Princeville - B3 and C1, Prithvi - H2, Godrej Rejuve, 47 East - A, 47 East - B Wing B, C and D, 47 East - B Wing A, Godrej Parkridge, Kumar Parc Residences - C Mhada, Kumar Parc residences - A1, Kumar Parc Residences - B2, Megapolis Springs - C, Megapolis Saffron - Shops, Megapolis Mystic Phase 2, Megapolis Springs - D and E, Megapolis Springs - B and F, Megapolis Springs - A, Megapolis Saffron - A10 to A14, Megapolis Mystic - C, Megapolis Shimmer - A1, Megapolis Symphony Phase I, Megapolis Mystic - F, Megapolis Saffron - A3 to A9, Megapolis Serenity A8 to A12, B2 and Conv shop B, Megapolis Serenity A1 to A7, B1 and Conv shop A, Paradise - B2 and B3, Kumar Prospera - A6, Kumar Prospera - A7 and A8, Kumar Prospera - A1 and A2, Kumar Prospera - A3, A4 and A5, Godrej Nurture, KUMAR PRAJWAL, Primavera - B6 and S1, Princetown Royal - B3 and B6, Princetown Royal - B4, Princetown Tower - C2, Princetown Royal - B2, Princetown Tower - C3, Princetown Royal - B5, Antariksha Signatures, Godrej Green Cove, Park Infinia - B1 and B2, PICASSO - O, Park Infinia - I1, I2, I3, J2, J3 and K1, Park Infinia Phase IV, Picasso Phase II, Park Infinia - L2, L3, L4, K4, K5 and J4, Park Infinia - L1, K3 and I4, Siddhachal - A1, Siddhachal - A4, Palmspring Towers - A6, A7 and B3, Palmspring Towers - A1, A2 and A3, Palmspring Bungalows - E1 to E6, Palmspring Towers - A4, A5 and B2, Princeville - A2, C2 and Conv Shop 2, Kumar Pratham - A B C and Shops, Priyadarshan - I, Priyadarshan - J, Peninsula - D, Kumar Pratham - F Mhada, Kumar Pratham - D E G, Peninsula C, GODREJ BOULEVARD, Godrej Wood Park, Godrej 24, Godrej Elements, Godrej Elements, Kumar Prakruti, Pinnacle - A4 and A5, Godrej Park Greens, Godrej Hillside 1, Godrej Hillside 2, Parasmani - B</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P51600012372, P51600012244, P51600005356, P51600034046, P51600033727, P52100004518, P52100015685, P52100000755, P52100031366, P52100018720, P52100024598, P52100052955, P52100047702, P52100028310, P52100047940, P52100032022, P52100049839, P52100016848, P52100034988, P52100001391, P52100015188, P52100017386, P52100018284, P52100021609, P52100019959, P52100052912, P52100000887, P52100029121, P52100018779, P52100022957, P52100023051, P52100049914, P52100029906, P52100035207, P52100014951, P52100022619, P52100020686, P52100017868, P52100021093, P52100046228, P52100007776, P52100045982, P52100018309, P52100009077, P52100027928, P52100009963, P52100026875, P52100047895, P52100018205, P52100017239, P52100014939, P52100000104, P52100026185, P52100045667, P52100050272, P52100018775, P52100018532, P52100052923, P52100015961, P52100048329, P52100018603, P52100022486, P52100047781, P52100029119, P52100049664, P52100049685, P52100031354, P52100028012, P52100024616, P52100028133, P52100001005, P52100016626, P52100016626, P52100054001, P52100054619, P52100019639, P52100022099, P52100022153, P51900023727</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
@@ -9030,32 +8990,32 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD53" t="inlineStr">
@@ -9192,32 +9152,27 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>TOTAL PROPERTY SOLUTIONS</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02402356564</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>PLOT NO 8 SHIVNERI NAGAR NEAR MANIK HOSPITAL GARKHEDA AURANGABAD</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>jay_daina@rediffmail.com</t>
         </is>
       </c>
       <c r="AD54" t="inlineStr">
@@ -9354,47 +9309,47 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Oyster Living LLP, Rohan Developers Pvt Ltd, Messrs SRC And Associates, Messrs Neuzen Realtors LLP, RADIUS PROJECT DEVELOPERS LLP, PLATINUM AASHIANA LLP, SevenFolds Constructions LLP, TIRUPATI GRUHPRAVESH LLP, EPITOME RESIDENCY PRIVATE LIMITED, RADIUS SUMER DEVELOPERS PRIVATE LIMITED, MIG (Bandra) Realtors &amp; Builders Private Limited, RADIUS &amp; DESERVE BUILDERS LLP, RADIUS &amp; DESERVE BUILDERS LLP, Shamik Enterprises Pvt Ltd., Labdhi Siddhivinayak Realtors LLP, Labdhi Siddhivinayak Realtors LLP, SUMER RADIUS REALTY PVT LTD, Shree Siddhivinayak Infrastructure &amp; Realty</t>
         </is>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>CELESTIAL LIVING, 7 Hughes, One Aquaria, 64 Greens, Radius Residency and Anand Bhuvan, PLATINUM CASA MILLENNIA, MINAL AND MADHAVKUNJ, PLATINUM TOWER - 7, Imperial Heights Wing C and D, Harbour Heights, TEN BKC, ANANTYA 1B, ANANTYA 1A, Akash Kiran CHS Ltd, Labdhi Seabreeze, Labdhi Seabreeze, AVENUE 54, Ruparel Skygreens I</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P51800028969, P51900005191, P51800005647, P51800002079, P51800011593, P51800028304, P51800053472, P51800000654, P51800003270, P51900004243, P51800004889, P51800009827, P51800005533, P51800005909, P51900023708, P51900023708, P51800007149, P51800012513</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
@@ -9511,47 +9466,47 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Jaikul Associates, Jaikul Associates, Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., MARVEL ZETA DEVELOPERS PVT LTD, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, Kumar Properties Infratech Developers Pvt Ltd, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Cherry Contruction Pvt. Ltd., Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, KEVIN PROPERTIES, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL OMEGA BUILDERS PVT LTD, MARVEL OMEGA BUILDERS PVT LTD, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, Gera Realty Estates, Sukumar Township Development Private Limited, AXIS LIFESPACES LLP, Majestique Promoters AOP, Majestique Promoters AOP, Majestique Promoters AOP, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, ADI HOMES, SPACE BUILDERS &amp; DEVELOPERS, Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Kalpataru Gardens Pvt. Ltd., Pride Purple Properties, DOREA HOMES LLP, Astrum Developments Private Limited, Astrum Developments Private Limited, KOLTE-PATIL DEVELOPERS LIMITED, KOLTE-PATIL DEVELOPERS LIMITED, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Kumar Properties and Developers LLP, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, RIVER RESIDENCY DEVELOPERS, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, SUPREME HOLDINGS &amp; HOSPITALITY (INDIA) LIMITED, Kalpataru Retail Ventures Private Limited, Kalpataru Retail Ventures Private Limited, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Kumar Properties Govind Shree Realtors LLP, Prakruti Constructions Pvt Ltd, RIBERA PROJECTS LLP, NAHAR HOMES LLP, Rajendra Suresh Jain, Rajendra Suresh Jain, Rajendra Suresh Jain, Rajendra Suresh Jain, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, KUMAR KERING DEVELOPERS LLP, Ajanta Enterprises, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, PRIDE BUILDERS LLP, PRIDE BUILDERS LLP, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, NNP BUILDCON PRIVATE LIMITED, Benchmarrk Realty LLP, Benchmarrk Realty LLP, Benchmarrk Realty LLP, Benchmarrk Realty LLP, Benchmarrk Realty LLP, Benchmarrk Realty LLP, Benchmarrk Realty LLP, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, RIVER RESIDENCY DEVELOPERS, Supreme Palatial Developers LLP, NYATI REALTORS LLP, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, PAX HOMES LLP, Axis Landmarks, Classic Promoters and Builders Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, SHORE DWELLINGS PRIVATE LIMITED, SHORE DWELLINGS PRIVATE LIMITED, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, NNP BUILDCON PVT. LTD., NNP BUILDCON PVT. LTD., Peninsula Land Limited, Peninsula Land Limited, Peninsula Land Limited, Peninsula Land Limited, SUNGUARD BUILDERS LLP, Kunal Spaces Pvt Ltd, Kunal Spaces Pvt Ltd, NNP BUILDCON PVT. LTD, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, RIVER RESIDENCY DEVELOPERS, Antariksha Developers, Parasmani Constructions Pvt .Ltd</t>
         </is>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>KINGSBURY PHASE II, KINGSBURY PHASE III, Park Infinia - I1, I2, I3, J2, J3 and K1, Park Infinia Phase IV, Picasso Phase II, Park Infinia - L2, L3, L4, K4, K5 and J4, Park Infinia - B1 and B2, Park Infinia - B1 and B2, PICASSO - O, Park Infinia - L1, K3 and I4, Marvel Piazza phase -01, Kumar Parc residences - A1, Kumar Parc Residences - C Mhada, Kumar Parc Residences - B2, Marvel Cascada E Building, Marvel Castella A And B Building, Marvel Bounty J Building, Marvel Bounty K Building, MARVEL BOUNTY BUILDING L, MARVEL ARCO B BUILDING, MARVEL ARCO E BUILDING, MARVEL SERA A,B,C BUILDING, Marvel Kyra A AND B Building, Marvel Basilo A AND B Building, Marvel Cascada C Building, Marvel Cascada D building, A3, Song of Joy, Geras Greensville2, Geras Misty Waters, B1 Song Of Joy Geras Greenville 2, Geras Imperium Alpha, Citron Phase 2, Happinest Tathawade Phase-1, Antheia B3, Antheia C3, MSPACE, Antheia C1, Antheia A4, Antheia B4, Antheia D4, Antheia C2, Antheia A3, Paradise - B2 and B3, MARVEL CERISE Bldg-A, MARVEL CERISE BLDG B, C, D, MARVEL AQUANAS, Marvel Aurum, Marvel Brisa, Marvel Fuego, MARVEL CITRINE A BUILDING, MARVEL ISOLA J BUILDING, Marvel Ganga Sangria D,E Building, Marvel Ganga Sangria G,H,J Building, Marvel Ganga Sangria K,L,M Building, Marvel Ganga Sangria A,B,C Building, Marvel Ganga Boulevard Phase 02, MARVEL ZEPHYR BUILDING U, Marvel Selva Ridge A,B Building, Marvel Selva Ridge Villa Phase 01, PARK TITAN PHASE IV, PARK ASTRA, PARK CONNECT, PARK TITAN PHASE II, PARK TITAN PHASE III, Geras Adara, Prithvi - H2, AXIS VERTIGA, 38-Park Majestique, 38 Park Majestique Phase III, 38 Park Majestique Phase IV, Princeville - B3 and C1, Princeville - B4 and B5, Primus - A, KUMAR PRAJWAL, Primavera - B6 and S1, ADI AVENTURA, SHIVOM REGENCY, Megapolis Symphony Phase I, Megapolis Saffron - A3 to A9, Megapolis Springs - B and F, Megapolis Serenity A8 to A12, B2 and Conv shop B, Megapolis Serenity A1 to A7, B1 and Conv shop A, Megapolis Springs - A, Megapolis Springs - D and E, Megapolis Shimmer - A1, Megapolis Mystic - F, Megapolis Springs - C, Megapolis Saffron - A10 to A14, Megapolis Mystic - C, Megapolis Saffron - Shops, Megapolis Mystic Phase 2, Kalpataru Serenity - Bldg. 5, PARK TITANIUM PHASE II, Marvel Ideal Spacio Phase 01, Kalpataru Jade Residences B, Kalpataru Jade Residences C, 24K ATRIA, 24K OPULA, 47 East - A, 47 East - B Wing B, C and D, 47 East - B Wing A, Aldea Espanola Phase VII, Puraniks Abitante Phase 1A, Puraniks Abitante Phase 1B, Aldea Espanola Phase V, Aldea Espanola Phase VI, RR Business Centre, Belmac Residences A, Belmac Residences B, Belmac Residences D, Belmac Residences E, Belmac Residences F, Belmac Residences C, Kalpataru Exquisite - Wing 1, Kalpataru Exquisite - Wing 2, Vascon Goodlife Phase C, Vascon Goodlife Phase B, Windermere Phase 1, Windermere Phase 1, Platinum Square Phase 1, Windermere Phase 2, Platinum Square Phase 2, Kumar Prakruti, Pinnacle - A4 and A5, Marvel Ribera A Building, F Residences, Runal Elanza, RUNAL GATEWAY PHASE - II, Runal Spacio, Runal Gateway Phase 1, Aldea Annexo -C1, Aldea Annexo - C2, Sayama Phase 3, Aldea Annexo - D, Sayama Phase 2, Sayama Phase 4, Building A2 Eon Homes, Building D3 Eon Homes, Building A3 Eon homes, Palmspring Towers - A6, A7 and B3, Palmspring Towers - A4, A5 and B2, Palmspring Towers - A1, A2 and A3, Palmspring Bungalows - E1 to E6, Forest Edge Phase 1, Kumar Pratham - D E G, Peninsula - D, Princeville - A2, C2 and Conv Shop 2, Kumar Pratham - F Mhada, Priyadarshan - I, Kumar Pratham - A B C and Shops, Priyadarshan - J, Priyadarshan - I, Peninsula C, MANHATTAN, WELLINGTON- A-B, Geras Imperium Rise, Geras Isle Royale Tower 4 and 5, Geras Isle Royale Tower 2 and 3, Geras Imperium Rise, Geras Imperium Oasis, Geras Misty Waters, VTP Leonara building C and F, The Eminence II, Puneville Phase III Cluster A, The Eminence, Kairosa Cluster B, Puneville Phase III Cluster C, Puneville Phase III Cluster B, The Emporium, PARK ASTRA PHASE III, PARK CONNECT PHASE II, PARK TITAN, RIVER RESIDENCY PHASE IV BUILDING N4, Supreme Estia Phase I, NYATI ESTEBAN I, Siddhachal - A1, Siddhachal - A4, Marvel Fria P1, P2, P3 Building, AXIS CENTRA, Solitaire Business Hub Viman Nagar Phase 1, Kalpataru Jade Residences E, Kalpataru Jade Residences F, Mantri Vantage, Mantri Emporio, Geras World of Joy S, Geras World of Joy C, Geras World of Joy D, Geras World of Joy L, Kumar Prospera - A3, A4 and A5, Kumar Prospera - A1 and A2, Kumar Prospera - A7 and A8, Kumar Prospera - A6, VTPBelair A Building, VTP Belair B And D Building, addressOne - Phase 2, addressOne - Phase 3, addressOne - Phase 4, addressOne - Phase 1, PARK IVORY PHASE II, Kunal Aspiree  Phase II, Kunal Aspiree Phase III, VTP Alpine, Princetown Tower - C3, Princetown Royal - B5, Princetown Royal - B3 and B6, Princetown Royal - B2, Princetown Royal - B4, Princetown Tower - C2, RIVER RESIDENCY PHASE IV BUILDING S, Antariksha Signatures, Parasmani - B</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100019148, P52100023913, P52100017239, P52100014939, P52100000104, P52100026185, P52100047895, P52100047895, P52100018205, P52100045667, P52100003653, P52100032022, P52100047940, P52100049839, P52100002242, P52100002438, P52100006797, P52100007453, P52100010835, P52100008708, P52100007022, P52100001878, P52100010211, P52100001711, P52100006134, P52100003507, P52100001789, P52100001176, P52100002048, P52100015242, P52100018850, P52100028049, P52100016677, P52100016619, P52100015480, P52100000217, P52100000210, P52100000281, P52100000416, P52100000249, P52100000171, P52100049914, P52100001091, P52100002648, P52100001521, P52100002240, P52100001627, P52100006192, P52100007908, P52100001843, P52100002064, P52100002371, P52100002514, P52100001815, P52100002574, P52100010976, P52100003648, P52100011640, P52100055911, P52100024449, P52100020766, P52100034961, P52100049631, P52100000889, P52100031366, P52100003159, P52100000332, P52100017109, P52100027407, P52100000755, P52100015685, P52100004518, P52100017868, P52100021093, P52100016461, P52100014878, P52100000887, P52100018779, P52100017386, P52100022957, P52100023051, P52100018284, P52100015188, P52100052912, P52100029121, P52100016848, P52100021609, P52100019959, P52100034988, P52100001391, P52100001267, P52100001274, P52100001583, P52100000926, P52100000676, P52100000428, P52100000398, P52100024598, P52100052955, P52100047702, P52100004340, P52100000437, P52100000569, P52100000572, P52100000537, P52100024063, P52100000899, P52100020497, P52100000407, P52100000131, P52100018437, P52100013991, P52100000298, P52100001266, P52100016293, P52100016237, P52100003865, P52100003865, P52100001434, P52100002368, P52100012916, P52100054001, P52100054619, P52100002377, P52100001179, P52100002255, P52100019500, P52100019467, P52100002021, P52100000979, P52100002665, P52100002137, P52100020092, P52100004782, P52100005004, P52100006888, P52100001860, P52100013714, P52100018532, P52100048329, P52100052923, P52100015961, P52100014725, P52100031354, P52100049664, P52100018603, P52100049685, P52100047781, P52100022486, P52100029119, P52100047781, P52100028012, P52100026529, P52100031008, P52100001786, P52100011031, P52100009870, P52100001786, P52100015514, P52100001176, P52100019994, P52100024443, P52100029522, P52100022805, P52100055222, P52100051020, P52100047694, P52100031027, P52100049640, P52100031776, P52100031768, P52100012745, P52100024783, P52100003767, P52100050272, P52100018775, P52100001522, P52100002121, P52100006995, P52100001392, P52100000869, P52100008390, P52100005228, P52100022499, P52100022522, P52100022598, P52100022530, P52100022619, P52100014951, P52100035207, P52100029906, P52100020331, P52100019986, P52100015747, P52100015779, P52100015803, P52100015756, P52100015699, P52100001814, P52100002540, P52100007943, P52100009077, P52100027928, P52100046228, P52100018309, P52100007776, P52100045982, P52100015059, P52100009963, P51900023727</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
@@ -9678,47 +9633,47 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Jaikumar Constructions LLP, JAIKUMAR CONSTRUCTIONS LTD, JAIKUMAR CONSTRUCTIONS LTD, Jaikumar Constructions LLP, Jaikumar Constructions LLP, Jaikumar Constructions LLP, Jaikumar real estates pvt. ltd., JAIKUMAR CONSTRUCTIONS LTD, JAIKUMAR CONSTRUCTIONS LTD, JAIKUMAR CONSTRUCTIONS LTD, JAIKUMAR CONSTRUCTIONS LTD, Jaikumar Constructions LLP, JAIKUMAR CONSTRUCTIONS LLP, Jaikumar Constructions LLP, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Parksyde Homes Phase 1, THE GRAND BY PARKSYDE PHASE - 1, THE GRAND BY PARKSYDE PHASE - 2, Parksyde Homes Phase 3, Parksyde Homes Phase4A, Parksyde Homes Phase 4B, Parksyde Business Avenue, PARKSYDE NEST PHASE - 1, PARKSYDE NEST PHASE - 3, PARKSYDE NEST PHASE-3A, PARKSYDE NEST PHASE - 2, Parksyde Homes Phase 5A, Parksyde Homes Phase 2A, Parksyde Homes Phase 2B, Godrej Elements</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P51600002640, P51600034070, P51600034104, P51600003548, P51600003077, P51600004804, P51600010594, P51600025620, P51600025687, P51600033065, P51600025619, P51600004799, P51600009429, P51600002975, P52100016626</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
@@ -9845,47 +9800,47 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1, 2</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>DHL INFRABULLS INTERNATIONAL PRIVATE LIMITED, DHL INFRABULLS INTERNATIONAL PRIVATE LIJMITED</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>07313026017, 07554252017</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>301, Third Floor, 579, Megapolis Square, M G Road, Indore Mandhya Pradesh 452001, FF-10, FIRST FLOOR, BLOCK-B, MANSAROVAR COMPLEX, BHOPAL 462011</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>hoaccounts@dhlinfrabulls.com, adminbhopal@dhlinfrabulls.com</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>07313026017, 07554252017</t>
         </is>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>SANJEEV ASHOK JAISWAL, DHL INFRABULLS, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>A SINGAPORE LIFE CITY THE MILLENNIUM, SINGAPORE LIFE CITY, Godrej Elements</t>
         </is>
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P50500016203, P50500002626, P52100016626</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
@@ -10002,32 +9957,32 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD59" t="inlineStr">
@@ -10164,47 +10119,47 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr">
@@ -10331,47 +10286,47 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>BENCHMARK TOWN PLANNING LLP, BENCHMARK TOWN PLANNING LLP, Renaissance Construction ( Janta Sevak nagar ), Vaswani 108 Lifespaces LLP, Messrs Neuzen Realtors LLP, EKTA HOUSING PRIVATE LIMITED, EKTA HOUSING PRIVATE LIMITED, SUMER RADIUS REALTY PVT LTD, PRL Developers Private Limited, KANAKIA SPACES REALTY PRIVATE LIMITED, KANAKIA SPACES REALTY PRIVATE LIMITED, KANAKIA SPACES REALTY PRIVATE LIMITED, KANAKIA SPACES REALTY PRIVATE LIMITED, KANAKIA SPACES REALTY PRIVATE LIMITED, KANAKIA SPACES REALTY PRIVATE LIMITED, KANAKIA SPACES REALTY PRIVATE LIMITED, KANAKIA SPACES REALTY PRIVATE LIMITED, KANAKIA SPACES REALTY PRIVATE LIMITED, Rohan Developers Pvt Ltd, KANAKIA FUTURE REALTY PRIVATE LIMITED, KANAKIA FUTURE REALTY PRIVATE LIMITED, Acme Housing India Private Limited, KEYSTONE REALTORS LIMITED, KEYSTONE REALTORS LIMITED, KEYSTONE REALTORS LIMITED, KEYSTONE REALTORS LIMITED, Glomore constructions, Glomore constructions, Messrs SRC And Associates, EPITOME RESIDENCY PRIVATE LIMITED, RADIUS SUMER DEVELOPERS PRIVATE LIMITED, MIG (Bandra) Realtors &amp; Builders Private Limited, RADIUS &amp; DESERVE BUILDERS LLP, RADIUS &amp; DESERVE BUILDERS LLP, RADIUS &amp; DESERVE BUILDERS LLP, Ekta Supreme Corporation, Rustomjee Realty Private Limited, Dharmesh Constructions Private Limited, Dharmesh Constructions Private Limited, Glider Buildcon Realtors Private Limited, RADIUS PROJECT DEVELOPERS LLP, KEYSTONE REALTORS LIMITED, KEYSTONE REALTORS LIMITED, KEYSTONE REALTORS LIMITED, KEYSTONE REALTORS LIMITED, COVENTRY PROPERTIES PRIVATE LIMITED, ADANI ESTATES PRIVATE LIMITED, KANAKIA SPACES REALTY PRIVATE LIMITED, EKTA WORLD PRIVATE LIMITED, EKTA SHELTERS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="AE61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>CYPRUS, SIROCCO GRANDE, The Baya Victoria, 36 AB - Anand Bhavan, 64 Greens, EKTA MAPLEWOOD, EKTA TRINITY, AVENUE 54, Piramal Revanta - Tower 4, KANAKIA ZENWORLD PHASE I, Kanakia Future City B, KANAKIA FUTURE CITY D, KANAKIA RAINFOREST, KANAKIA SEVENS, KANAKIA PARIS, KANAKIA HOLLYWOOD, KANAKIA MIAMI, KANAKIA WALLSTREET WING A, 7 Hughes, KANAKIA FUTURE CITY A, KANAKIA FUTURE CITY C, Oasis - Tower 2, Rustomjee Paramount - Wing C, Rustomjee Paramount - Wing D, Rustomjee Paramount - Wing E, Rustomjee Paramount - Wing F, Oasis - Tower 1, Oasis - Tower 1, One Aquaria, Imperial Heights Wing C and D, Harbour Heights, TEN BKC, ANANTYA 1A, ANANTYA 1B, ANANTYA 1B, Corner View, Rustomjee Elements - Wing SG, AVENUE WING A, AVENUE WING B, Piramal Aranya - Wing B, Radius Residency and Anand Bhuvan, Rustomjee Seasons - Wing D, Rustomjee Seasons - Wing A, Rustomjee Seasons - Wing B, Rustomjee Seasons - Wing C, THE CANVAS RESIDENCES - CANVAS 1, CANVAS 2, CANVAS 3, WESTERN HEIGHTS - PHASE 1 RESIDENTIAL, KANAKIA LEVELS, EKTA VERVE, EKTA EROS</t>
         </is>
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100000561, P52100000326, P51900013240, P51800001726, P51800002079, P51800001523, P51800005021, P51800007149, P51800031310, P51800008343, P51800018113, P51800017413, P51800000224, P51800000388, P51800000122, P51800000123, P51900000206, P51800000121, P51900005191, P51800018007, P51800018008, P51800001238, P51800000481, P51800000619, P51800000862, P51800020843, P51800006404, P51800006404, P51800005647, P51800003270, P51900004243, P51800004889, P51800005533, P51800009827, P51800009827, P51800000908, P51800001382, P51800002030, P51800004402, P51900018039, P51800011593, P51800021028, P51800001433, P51800000605, P51800000309, P51900026182, P51800001290, P51800000223, P51800021089, P51800001826</t>
         </is>
       </c>
       <c r="AG61" t="inlineStr">
@@ -10493,47 +10448,42 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Head office</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02048604736</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>S No 127/2 Flat No 12 Ground Floor Daulat Park Co Hsg  Society Near sarjaa Hotel  aundh pune 411007</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>ent24k@gmail.com</t>
         </is>
       </c>
       <c r="AD62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Jaikul Associates, Jaikul Associates, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Kalpataru Gardens Pvt. Ltd., PRIDE BUILDERS LLP, Kalpataru Retail Ventures Private Limited, Kalpataru Retail Ventures Private Limited, RAVIE KHILUMAL OCHANNI, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, GOEL GANGA LANDMARKS LLP, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited</t>
         </is>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>KINGSBURY PHASE II, KINGSBURY PHASE III, SENSORIUM, PHASE II, SENSORIUM, PHASE I, SENSORIUM, PHASE III, Joyville Hinjawadi - I, Phase 5, Joyville Hinjawadi - I, Phase 6, Joyville Hinjawadi - I, Phase 3, Joyville Hinjawadi - I, Phase 4, Joyville Hinjawadi - I, Phase 1, Joyville Hinjawadi - I, Phase 2, Megapolis Saffron - Shops, Megapolis Saffron - A3 to A9, Megapolis Mystic - F, Megapolis Shimmer - A1, Megapolis Mystic - G, Megapolis Saffron - A10 to A14, Megapolis Serenity A1 to A7, B1 and Conv shop A, Megapolis Serenity A8 to A12, B2 and Conv shop B, Kalpataru Serenity - Bldg. 5, MANHATTAN, Kalpataru Exquisite - Wing 2, Kalpataru Exquisite - Wing 1, STAR VISTA, Geras Planet of Joy Project III, Geras Planet of Joy Project IV, Geras Planet of Joy Project II, Geras Planet of Joy Project I, Kalpataru Jade Residences B, Kalpataru Jade Residences C, Kalpataru Jade Residences E, Kalpataru Jade Residences F, GANGA SERIO E F BUILDING, PARK CONNECT, PARK ASTRA, PARK TITAN PHASE IV, PARK CONNECT PHASE II, PARK TITAN, PARK TITAN PHASE II, PARK TITAN PHASE III, PARK ASTRA PHASE III, Joyville Virar Phase 3, Joyville Virar Phase 5, Joyville Virar Phase 4, Joyville Virar Phase 2, Joyville Virar Phase 1</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100019148, P52100023913, P52100024964, P52100024963, P52100024965, P52100018500, P52100018502, P52100016775, P52100016786, P52100016131, P52100016252, P52100034988, P52100018779, P52100029121, P52100052912, P52100047674, P52100021609, P52100023051, P52100022957, P52100001267, P52100026529, P52100001266, P52100000298, P52100026112, P52100031875, P52100031876, P52100031809, P52100031802, P52100000926, P52100000676, P52100001392, P52100000869, P52100023713, P52100020766, P52100024449, P52100055911, P52100031776, P52100031768, P52100034961, P52100049631, P52100049640, P99000018521, P99000019531, P99000019538, P99000013612, P51900000444</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
@@ -10655,47 +10605,47 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>SANDESH PROJECTS, SADESH REALTY BUILDERS LLP, SADESH REALTY BUILDERS LLP, SADESH REALTY BUILDERS LLP, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, R SANDESH DEVELOPERS, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>SANDESH NAGARI-II, BRAMHA NAGARI, DIVINE CITY, DIVINE CITY II, SANDESH CITY - AELLYSIA - I, HIGHWAY RADIANCE, HIGHWAY RADIANCE 2, Sandesh City Apartment 1, Sandesh City Apartments 2, Sandesh City Apartments 3, SANDESH CITY APARTMENTS- 4, Sandesh City Apartment 5, OFFICERS ENCLAVE, SANDESH MEDICLAVE, Godrej Elements</t>
         </is>
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P50500021007, P50500035199, P50500019810, P50500020052, P50500032569, P50500032207, P50500033342, P50500006822, P50500010049, P50500012459, P50500010124, P50500013102, P50500047527, P50500031388, P52100016626</t>
         </is>
       </c>
       <c r="AG63" t="inlineStr">
@@ -10822,47 +10772,42 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>COMMANDER ESTATE DEVELOPERS LLP</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02227464512</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>OFFICE NO 23 SAI PLAZA CHS LTD PLOT NO 16 SECTOR 15A NEW PANVEL 410206</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>dirdeepakmore@gmail.com</t>
         </is>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, MEGAPLEX PROPERTIES LLP, MEGAPLEX PROPERTIES LLP, HEERA SIDDHI HOMES LLP</t>
         </is>
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, COMMANDERS HEERA SIDDHI HOMES, COMMANDERS HEERA SIDDHI HOMES PHASE III, COMMANDERS HEERA SIDDHI HOMES</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52000017262, P52000023450, P52000000062</t>
         </is>
       </c>
       <c r="AG64" t="inlineStr">
@@ -10984,47 +10929,47 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>RAGHAV BUILDERS AND DEVELOPERS, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>RAGHAV FLORENCE, Godrej Elements</t>
         </is>
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P50300013994, P52100016626</t>
         </is>
       </c>
       <c r="AG65" t="inlineStr">
@@ -11146,32 +11091,27 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>A R S DEVELOPERS</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02483275051</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>COURT ROAD AMBAD</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>rsbusinesscenter@gmail.com</t>
         </is>
       </c>
       <c r="AD66" t="inlineStr">
@@ -11308,32 +11248,32 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD67" t="inlineStr">
@@ -11465,47 +11405,47 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Realty Estates</t>
         </is>
       </c>
       <c r="AE68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Geras World of Joy S, Geras World of Joy D, Geras World of Joy L, Geras World of Joy C, Geras Imperium Rise, Geras Misty Waters, Geras Isle Royale Tower 2 and 3, Geras Misty Waters, Geras Imperium Rise, Geras Imperium Alpha, Geras Imperium Oasis, Geras Adara</t>
         </is>
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100022499, P52100022598, P52100022530, P52100022522, P52100001786, P52100001176, P52100009870, P52100001176, P52100001786, P52100015242, P52100015514, P52100000889</t>
         </is>
       </c>
       <c r="AG68" t="inlineStr">
@@ -11632,47 +11572,47 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>SANJAY PAIDLEWAR &amp; OTHER, SANDESH DEVELOPERS, PANKAJ CHANDRAKANT WAGHMARE, AADITYA INFRASTRUCTURES, AADITYA INFRASTRUCTURES, AADITYA INFRASTRUCTURES, LEVERAGE REALITIES, LEVERAGE REALITIES, MACHHINDRA KADAM AND VIJAY BORUNDIYA, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>SHREE LAXMI NAGAR - II, MATOSHRI 2, ANANDAM ELITE PHASE I, AADITYA PREMIUM 5, AADITYA PREMIUM III PHASE 2, Aaditya Premium 7, LEVERAGE GREEN HEIGHTS WING A, LEVERAGE GREEN HEIGHTS WING B, SHIVAM EMPIRE, Godrej Elements</t>
         </is>
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P50500047069, P50500022535, P50500031969, P50500023628, P50500015877, P50500027965, P50500049151, P50500049149, P50500020459, P52100016626</t>
         </is>
       </c>
       <c r="AG69" t="inlineStr">
@@ -11799,47 +11739,47 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1, 2</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>NatRight Realty Solutions Private Ltd, NatRight Realty Solutions Private Limited</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02532472993, 02532472993</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Plot no 48 - 49,Survey No 799, Govind Nagar No-6 , Near New Era School  Nashik 422009, 450 ,A Wing, 4th Floor,Balaji Bhavan, Plot No 42/A, Sector 11,Near CBD Belapur Railway Station ,Navi Mumbai 400416</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>rajesh.kulthe@reta.co.in, rajesh.kulthe@reta.co.in</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t xml:space="preserve">, </t>
         </is>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Macrotech Developers Limited, Macrotech Developers Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Lodha Buildcon Private Ltd (Lodha Develoopers Pvt Ltd), MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, Poddar Housing and Development Limited, Poddar Housing and Development Limited, Poddar Housing and Development Limited, MACROTECH DEVELOPERS LIMITED</t>
         </is>
       </c>
       <c r="AE70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements, Lodha Belmondo St. Andrews B,C,D  Villa 1 to 28, Lodha Belmondo - Townhouses, Lodha Belmondo - Tower 30, Lodha Belmondo - Pebble Beach D, LODHA BELMONDO ST. ANDREWS E, LODHA BELMONDO ASHBRIDGE D, E, LODHA BELMONDO AUGUSTA C, Lodha Belmondo - Tower 29, Lodha Belmondo St. Andrews A, Lodha Belmondo - Tower 31, Lodha Belmondo - Tower 32, LODHA BELMONDO AUGUSTA B, LODHA BELMONDO SAWGRASS B, LODHA BELMONDO Pebble Beach E, Estancia A, Lodha Belmondo - Sawgrass A, LODHA BELMONDO - ESTANCIA B, PALAVA PRIMIA E to J, PALAVA CROWN, PALAVA LAKESIDE I TO O, PALAVA REGALIA A to F, Palava - Trinity A to C, PALAVA - ELITE - A to J, PALAVA ELITE K TO T, PALAVA LAGOONA A TO F, PALAVA LAKESIDE A to H, PALAVA VIENTO A to D, PALAVA VISTA A to D, Palava Cielo A - F, PALAVA - UNO H - O, Palava - Retail Shop no 15 to 33 - Car Park Building C1, PALAVA - PASEO - D to H, Lodha Adrina, LODHA PARK - TOWN HOUSES, LODHA PARK, CODENAME- MUST-HAVE, Foresta &amp; Fiora, Palava Serenity C, Elite 2 Shops, Clara Shops, PALAVA CLARA E - I, PALAVA URBANO D AND E, Urbano 2 Shops, PALAVA OLIVIA A, PALAVA SERENITY A, PALAVA SERENITY D, Lakeside 2 Shops, Elite 1 Shop, PALAVA SERENITY B, North MLCP Shop, PALAVA CLARA A to D, D1, Palava Clara J-M, PALAVA CLUSTER 2-06 -  A - G, I - N, Palava Olivia C, PALAVA URBANO G AND H, PALAVA EVIVA K to T, URBANO A, B, C and F, URBANO I to T, Palava Florea - A to D, Palava Magnolia, Lakeside 1 Shops, Regalia Shops, LODHA ETERNIS SERENA C, Lodha Supremus - Andheri, LODHA ETERNIS IDYLLIA B, SERENA B, NATURA B AND C, LODHA ETERNIS NATURA A, LODHA ETERNIS SERENA A, PALAVA MARVELLA B,C,D,E,F,G, PALVA MILANO D, G, PALAVA MILANO E, F, PALAVA AURORA B, C, PALAVA MARVELLA A, H, PALAVA MILANO A,B,C,H,I,J, LODHA SEAVIEW, PALAVA SAVANA AND SIENA, LODHA FRESHIA WING D, E, LODHA FRESHIA WING A, B, C, Lodha iThink B, PALAVA RIVER VIEW E AND F, FONTANA A ,B, I and J, PALAVA AURELIA - C, H, I, PALAVA ESTELA A, B, C, PALAVA ESTELA H, I, J, PALAVA - ESTELA D to G, Lodha Majiwada - Tower 4, Lodha Parel Project, Lodha Majiwada - Tower 5, Lodha Majiwada - Tower 1, NEW CUFFE PARADE -LODHA ALTIA, NEW CUFFE PARADE - LODHA ESTRELLA, NEW CUFFE PARADE - LODHA ENCHANTE, NEW CUFFE PARADE - LODHA DIORO AND ELISIUM, NEW CUFFE PARADE - LODHA EVOQ 41st Floor, New Cuffe Parade - Lodha Gardenia, LODHA SPLENDORA - PLATINO - B, LODHA SPLENDORA - PLATINO - D, Lodha Fiorenza, Lodha Panacea I, Lodha Quality Home Tower 4, Lodha Global Park, CASA UNIVIS - CIELO D, Lodha Panacea II, Lodha Quality Home Tower 1, Lodha Quality Home Tower - 5, Lodha Quality Home Tower 2, Lodha Quality Home Tower 3, LODHA SPLENDORA PLATINO E TO G , VIVANT A TO D, Jasmine L and M, Orchid M N O, Jasmine A, B, C, G, H and I, Jasmine D, E and F, Orchid A to L, Jasmine T, LODHA AZZURO, LODHA VENEZIA - 49TH TO 65TH FLOOR, One Lodha Place, THE WORLD TOWERS - WORLD ONE - TIER III AND TRINITY, Upper Thane - Sereno A, B, B1, Casa Selva A to C, UPPER THANE - Woodlands E and F, Upper Thane - Tiara H, Magnolia A B and C, Upper Thane - Ecopolis A, Upper Thane - Meadows A, Upper Thane - Sereno A1, C &amp; C1, Upper Thane - Tiara E, F, Upper Thane - Sereno D and E, UPPER THANE - WOODLANDS A, B AND J, UPPER THANE -SERENO A1, UPPER THANE - TIARA D, Upper Thane - Meadows E, F, G, UPPER THANE - Tiara I, Upper Thane - Tiara C, UPPER THANE - WOODLANDS C AND D, Upper Thane Treetops A - C, C1, C2, D - F, Upper Thane Greenville A - E, E1, F - I, Upper Thane Ecopolis A - B, UPPER THANE - TIARA A to B, Casa Royale - Grande, Lodha Patel Estate - Tower E, F, Lodha Patel Estate - Tower A, B, Lodha Patel Estate - Tower C, D, Lodha Amara - Tower 6, 22, Lodha Kolshet Plot A - Tower K, Lodha Amara - Wing 40 and 41, Lodha Supremus - Thane, Kolshet, Lodha Amara Tower 44, LODHA AMARA - TOWER 38 and 39, Lodha Kolshet Plot A - Tower J, Lodha Amara - Tower 46, Lodha Sterling - Tower G, LODHA AMARA - TOWER 32,33, Lodha Amara Tower 24 and 25, Lodha Amara Tower 47 and 48, Lodha Amara Tower 49 and 50, Lodha Amara - Tower 36 37, Lodha Amara - Tower 45, Lodha Sterling - Tower H, LODHA AMARA - TOWER 23, Lodha Amara -Tower 42 and 43, Lodha Amara MLCP Retail, LODHA AMARA - TOWER 26, 27, 28, 30, 34, 35, LODHA AMARA - TOWER 1 - 5, 7 - 19, LODHA AMARA - TOWER 29,31, PALAVA AURELIA A, PALAVA - AURELIA - D TO G, PALAVA FONTANA C - H, THE WORLD TOWERS -  WORLD ONE - TIER II, PODDAR RIVIERA PHASE - II, PODDAR RIVIERA PHASE - I, PODDAR RIVIERA PHASE - III, Lodha Mira Road Project 1</t>
         </is>
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626, P52100000283, P52100017082, P52100020188, P52100018308, P52100000182, P52100011522, P52100000174, P52100020142, P52100020156, P52100020172, P52100020190, P52100000406, P52100000221, P52100000350, P52100019434, P52100016840, P51700000391, P51700010935, P51700000410, P51700000390, P51700014396, P51700000125, P51700000389, P51700000124, P51700000384, P51700000342, P51700000395, P51700000378, P51700000142, P51700016941, P51700000269, P51900014937, P51900016526, P51900001339, P51900029416, P51700017506, P51700020159, P51700025470, P51700025495, P51700000540, P51700000577, P51700025475, P51700020214, P51700020155, P51700020124, P51700025535, P51700025471, P51700020253, P51700025674, P51700000448, P51700000420, P51700000802, P51700017590, P51700000696, P51700000419, P51700017487, P51700020131, P51700025522, P51700025474, P51800020147, P51800013696, P51800000293, P51800000345, P51800000294, P51700013462, P51700010109, P51700011629, P51700010960, P51700015660, P51700015016, P51900010326, P51700000546, P51700006149, P51700004667, P51700025627, P51700008764, P51700000506, P51700013073, P51700013158, P51700013145, P51700011068, P51700013789, P51900014910, P51700019519, P51700013263, P51900000629, P51900000521, P51900000367, P51900000314, P51900000567, P51900015715, P51700000258, P51700000659, P51800000195, P51700017078, P51700024777, P51700017924, P51700001153, P51700017060, P51700022250, P51700027449, P51700022251, P51700022533, P51700000199, P51700024141, P51700019809, P51700020381, P51700020354, P51700016747, P51700020373, P51900000828, P51900005378, P51900014984, P51900008962, P51700016243, P51700020268, P51700018107, P51700020154, P51700020197, P51700016666, P51700020266, P51700020217, P51700020141, P51700014770, P51700020104, P51700020191, P51700019121, P51700020170, P51700018035, P51700016437, P51700020225, P51700008449, P51700006147, P51700007192, P51700014814, P51700001517, P51800014869, P51800014891, P51800014860, P51700014760, P51700015040, P51700020088, P51700015598, P51700020123, P51700018393, P51700015243, P51700018579, P51700020158, P51700001030, P51700020128, P51700020151, P51700020157, P51700013961, P51700018593, P51700020189, P51700020093, P51700020164, P51700025892, P51700001031, P51700001065, P51700000981, P51700020161, P51700000511, P51700000596, P51900008345, P51700023181, P51700023508, P51700023296, P51700012991</t>
         </is>
       </c>
       <c r="AG70" t="inlineStr">
@@ -11961,32 +11901,32 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD71" t="inlineStr">
@@ -12123,47 +12063,47 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
@@ -12290,32 +12230,27 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>RISE RE</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02228333628</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>G3, B11, Silver Park, Mira Bhayander Road, Mira Road East, Thane, Maharastra - 401107</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>satishpatel29@gmail.com</t>
         </is>
       </c>
       <c r="AD73" t="inlineStr">
@@ -12452,47 +12387,47 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Rajendra Suresh Jain, Rajendra Suresh Jain, Rajendra Suresh Jain, Rajendra Suresh Jain, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Puranik Builders Limited, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Manjari Housing Projects LLP, SUNGUARD BUILDERS LLP, NYATI REALTORS LLP, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, Kalpataru Construction (Pune), Godrej Skyline Developers Private Limited, NAIKNAVARE PROFILE CONSTRUCTIONS PVT LTD, VH Township Private Limited, MATRIX ASSOCIATES, Regency Aawishkar Sarsan Developers LLP, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, Gera Realty Estates, M/S. AVIOR MERLIN VENTURE LLP, RISING ASSOCIATES, Peninsula Land Limited, Peninsula Land Limited, Peninsula Land Limited, Peninsula Land Limited, M/S. AVIOR MERLIN VENTURE LLP, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, Mahindra Lifespace Developers limited, DREAM WORLD LANDMARKS LLP, DREAM WORLD LANDMARKS LLP, Kunal Spaces Pvt Ltd, Kunal Spaces Pvt Ltd, Kunal Spaces Pvt Ltd, Kasturi Builders, Kasturi Builders, Kasturi Builders, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, Puranik Buildcon Private Limited, ADI HOMES, Ajanta Enterprises, Rising welworth Enterprises LLP, Rising welworth Enterprises LLP, GANRAJ HOMES LLP, Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., International Biotech Park Limited, HINJAWADI INFRADEVELOPMENT PVT LTD, HINJAWADI INFRADEVELOPMENT PVT LTD, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Kalpataru Gardens Pvt. Ltd., Pride Purple Properties, RIBERA PROJECTS LLP, Mountview Properties LLP, Bhandari Patel Venture, SIA Developers, Sigma Realty, Sim Realty, Sim Realty, Sim Realty, NANDAN ASSOCIATES, NANDAN ASSOCIATES, NANDAN ASSOCIATES, NANDAN ASSOCIATES, Manjari Housing Projects LLP, NANDAN DEVELOPERS, NANDAN DEVELOPERS, B A Consulting, B A Consulting, B A Consulting, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, PRIDE PURPLE INFRASTRUCTURE, KOLTE-PATIL DEVELOPERS LIMITED, KOLTE-PATIL DEVELOPERS LIMITED, OXFORD REALTY LLP, SHAMKANT KESHAV KOTKAR, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Supreme High Spaces LLP, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Mahalunge Township Developers LLP, Mahalunge Township Developers LLP, PRIDE BUILDERS LLP, Mahalunge Township Developers LLP, Cherry Contruction Pvt. Ltd., Godrej Skyline Developers Private Limited, MAJESTIQUE HOMES LLP, MAJESTIQUE HOMES LLP, PAX HOMES LLP, Axis Landmarks, DOREA HOMES LLP, Godrej Properties Limited, Rising welworth Enterprises LLP, Rising welworth Enterprises LLP, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, Astrum Developments Private Limited, NAIKNAVAREPROFILECONSTRUCTIONSPVTLTD, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, MARVEL ZETA DEVELOPERS PVT LTD, Kasturi Developers, Kasturi Developers, Kasturi Developers, Kasturi Developers, Kasturi Developers, Kasturi Developers, Kasturi Developers, Apex Builders, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Skylark Promoters Pvt. Ltd., Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, GODREJ SKYLINE DEVELOPERS PRIVATE LIMITED, Jaikul Associates, Jaikul Associates, SHIV CONSTRUCTIONS, ROHAN BUILDERS &amp; DEVELOPERS PRIVATE LIMITED, Supreme Palatial Developers LLP, Pearlite Real Properties Private Limited, S S Properties, S S Properties, Kalpataru Retail Ventures Private Limited, Kalpataru Retail Ventures Private Limited, Kalpataru Retail Ventures Private Limited, Kalpataru Retail Ventures Private Limited, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL OMEGA BUILDERS PVT LTD, MARVEL OMEGA BUILDERS PVT LTD, M/S. AVIOR MAJESTIQUE PROPERTIES, Kasturi Shelters, Classic Promoters and Builders Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited, Joyville Shapoorji Housing Private Limited</t>
         </is>
       </c>
       <c r="AE74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Runal Elanza, Runal Gateway Phase 1, RUNAL GATEWAY PHASE - II, Runal Spacio, Sayama Phase 3, Aldea Annexo - D, Sayama Phase 2, Sayama Phase 4, Aldea Annexo -C1, Aldea Annexo - C2, Building A2 Eon Homes, Building D3 Eon Homes, Building A3 Eon homes, GODREJ BOULEVARD, PARK IVORY PHASE II, NYATI ESTEBAN I, KUMAR PRAJWAL, Primavera - B6 and S1, Kalpataru Estate Building 8, Godrej Wood Park, AVON VISTA PROJECT -1, The Cliff Garden, Adi Elementis, REGENCY ASTRA PHASE I, Marvel Fuego, MARVEL CITRINE A BUILDING, MARVEL CERISE Bldg-A, MARVEL CERISE BLDG B, C, D, MARVEL AQUANAS, Marvel Aurum, Marvel Brisa, MARVEL ISOLA J BUILDING, Marvel Ganga Sangria D,E Building, Marvel Ganga Sangria G,H,J Building, Geras Adara, Navyangan 2- Building C1, KOHINOOR JEEVA, addressOne - Phase 1, addressOne - Phase 3, addressOne - Phase 2, addressOne - Phase 4, BUILDING D - WING D-2 - NAVYANGAN PHASE - II, Antheia C1, Antheia A4, Antheia B4, Antheia D4, Antheia C2, Antheia A3, Antheia B3, Antheia B3, Antheia C3, Antheia C3, Godrej Greens, Godrej Greens, Kunal Aspiree Phase IV, Kunal Aspiree  Phase II, Kunal Aspiree Phase III, Apostrophe Next, Apostrophe Next, Apostrophe Next, Aldea Espanola Phase VII, Puraniks Abitante Phase 1A, Puraniks Abitante Phase 1B, Aldea Espanola Phase V, Aldea Espanola Phase VI, ADI AVENTURA, Forest Edge Phase 1, Hi Life, Hi Life phase 2, GANGA ACROPOLIS, PICASSO - O, Park Infinia Phase IV, Park Infinia Phase III, Park Infinia - I1, I2, I3, J2, J3 and K1, The Crown Greens, Apostrophe Hinjawadi Tower C, Apostrophe Hinjawadi Tower B, Marvel Cascada E Building, Marvel Castella A And B Building, Marvel Bounty J Building, Marvel Bounty K Building, MARVEL BOUNTY BUILDING L, MARVEL ARCO B BUILDING, MARVEL ARCO E BUILDING, MARVEL SERA A,B,C BUILDING, Marvel Kyra A AND B Building, Marvel Basilo A AND B Building, Marvel Cascada C Building, Marvel Cascada D building, Megapolis Springs - D and E, Megapolis Mystic Phase 2, Megapolis Symphony Phase I, Kalpataru Serenity - Bldg. 5, PARK TITANIUM PHASE II, Marvel Ribera A Building, Lords Estate, BA IRIS, Vermont, Unnati, Swaraj Phase IV TUV, Swaraj Capital Phase 2, Swaraj Capital - Phase I, NANDAN AMAIRA, NANDAN PROBIZ, NANDAN PROSPERA GOLD, NANDAN FORTURA, Godrej Parkridge, VATSALYA PURAM BUILDING A, VATSALYA PURAM BUILDING A, 7 Plumeria Drive- Phase 1, 7 Plumeria Drive- Phase 2, 7 Plumeria Drive- Phase 3, Platinum Square Phase 2, Windermere Phase 1, Platinum Square Phase 1, Windermere Phase 2, Vascon Goodlife Phase C, Vascon Goodlife Phase B, PARK CONNECT, PARK ASTRA, PARK TITAN PHASE III, PARK CONNECT PHASE II, PARK TITAN, PARK ASTRA PHASE III, PARK TITAN PHASE IV, PARK TITAN PHASE II, 24K ATRIA, 24K OPULA, Godrej Rejuve, NANDAN ASPIRA, T13 - PHASE OF THE PROJECT COMPRISING BUILDING T12 AND T13, T8 named LUXURIANT Phase 2 of Raheja Reserve being Buildings T7 T8 T9 T10 in RV Premiere, VISTAS CENTREPOINT, T12 NAMED MAGNA BEING PHASE 2 OF THE PROJECT COMPRISING BUILDINGS T12 AND T13, T9 Chronos and T10 Supremus Phase 1 Of Raheja Reserve being Buildings T7 T8 T9 T10 in RV Premiere, RAHEJA VISTAS BUILDING B2, Supreme Amadore, Geras Imperium Rise, Geras Imperium Rise, Geras Misty Waters, Geras Imperium Oasis, Geras Isle Royale Tower 2 and 3, Geras Misty Waters, Geras Imperium Alpha, Godrej Hillside 1, Godrej Hillside 2, MANHATTAN, Godrej Green Cove, Citron Phase 2, Godrej Park Greens, Majestique Signature Towers B5, MAJESTIQUE SIGNATURE TOWERS PHASE 1, Marvel Fria P1, P2, P3 Building, AXIS CENTRA, Marvel Ideal Spacio Phase 01, Godrej Emerald Waters, hi life phase3, Altitude, Kalpataru Jade Residences B, Kalpataru Jade Residences C, Kalpataru Jade Residences E, Kalpataru Jade Residences F, Kalpataru Jade Residences G, AVON VISTA PROJECT 2, PLOT NO.7, VIVA, PIRANGUT, PLOT NO 8, VIVA, PIRANGUT, PLOT NO. 10, VIVA,PIRANGUT,PUNE, PLOT NO. B-01 TO B-21 VIVA,PIRANGUT,PUNE, Marvel Piazza phase -01, EPITOME PHASE I, EPITOME PHASE I, EPITOME PHASE I, Epitome Phase II, Epitome Phase II, Epitome Phase II, EPITOME PHASE I, Apostrophe, Moshi, Geras World of Joy D, Geras World of Joy S, Geras World of Joy C, Geras World of Joy L, Geras World of Joy L, Kumar Prospera - A1 and A2, Kumar Prospera - A3, A4 and A5, NeaPlus, Joyville Hinjawadi - I, Phase 2, Joyville Hinjawadi - I, Phase 1, Joyville Hinjawadi - I, Phase 6, Joyville Hinjawadi - I, Phase 5, Joyville Hinjawadi - I, Phase 4, Joyville Hinjawadi - I, Phase 3, Godrej Nurture, KINGSBURY PHASE II, KINGSBURY PHASE III, SAI PARADISE, ROHAN ANANTA PHASE III, Supreme Estia Phase I, Godrej Elements, 32 Pinewood Drive -Phase 1, 32 Pinewood Drive -Phase 1, Kalpataru Exquisite - Wing D, Kalpataru Exquisite - Wing 3, Kalpataru Exquisite - Wing 2, Kalpataru Exquisite - Wing 1, Marvel Ganga Sangria K,L,M Building, Marvel Ganga Sangria A,B,C Building, Marvel Ganga Boulevard Phase 02, MARVEL ZEPHYR BUILDING U, Marvel Selva Ridge A,B Building, Marvel Selva Ridge Villa Phase 01, VANALIKA-PARADISE- III -3B, Building D Voyage, Solitaire Business Hub Viman Nagar Phase 1, Joyville Virar Phase 4, Joyville Virar Phase 5, Joyville Virar Phase 3, Joyville Virar Phase 1, Joyville Virar Phase 2</t>
         </is>
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100002255, P52100002021, P52100019500, P52100019467, P52100002137, P52100020092, P52100004782, P52100005004, P52100000979, P52100002665, P52100006888, P52100001860, P52100013714, P52100024616, P52100015699, P52100003767, P52100017868, P52100021093, P52100017535, P52100028133, P52100000371, P52100004906, P52100033217, P52100032177, P52100006192, P52100007908, P52100001091, P52100002648, P52100001521, P52100002240, P52100001627, P52100001843, P52100002064, P52100002371, P52100000889, P52100016149, P52100018548, P52100015756, P52100015779, P52100015747, P52100015803, P52100016163, P52100000217, P52100000210, P52100000281, P52100000416, P52100000249, P52100000171, P52100016677, P52100016677, P52100016619, P52100016619, P52100000985, P52100000985, P52100027175, P52100001814, P52100002540, P52100001275, P52100001275, P52100001275, P52100004340, P52100000437, P52100000569, P52100000572, P52100000537, P52100016461, P52100014725, P52100016413, P52100017433, P52100001396, P52100018205, P52100014939, P52100000084, P52100017239, P52100001864, P52100031595, P52100048177, P52100002242, P52100002438, P52100006797, P52100007453, P52100010835, P52100008708, P52100007022, P52100001878, P52100010211, P52100001711, P52100006134, P52100003507, P52100015188, P52100001391, P52100000887, P52100001267, P52100001274, P52100002377, P52100012004, P52100013967, P52100001456, P52100000976, P52100015606, P52100016982, P52100003900, P52100000883, P52100001376, P52100000563, P52100021481, P52100028310, P52100033502, P52100033502, P52100001152, P52100023970, P52100050087, P52100012916, P52100003865, P52100001434, P52100002368, P52100016293, P52100016237, P52100020766, P52100024449, P52100049631, P52100031776, P52100031768, P52100049640, P52100055911, P52100034961, P52100000428, P52100000398, P52100018720, P52100000971, P52100000707, P52100024187, P52100016359, P52100015996, P52100021356, P52100000919, P52100001750, P52100001786, P52100001786, P52100001176, P52100015514, P52100009870, P52100001176, P52100015242, P52100022099, P52100022153, P52100026529, P52100026875, P52100018850, P52100019639, P52100027411, P52100017133, P52100001522, P52100002121, P52100001583, P52100051200, P52100017456, P52100024885, P52100000926, P52100000676, P52100001392, P52100000869, P52100018194, P52100017914, P52100002681, P52100002113, P52100002702, P52100001800, P52100003653, P52100000703, P52100000703, P52100000703, P52100024071, P52100024071, P52100024071, P52100000703, P52100000905, P52100022598, P52100022499, P52100022522, P52100022530, P52100022530, P52100014951, P52100022619, P52100000823, P52100016252, P52100016131, P52100018502, P52100018500, P52100016786, P52100016775, P52100020686, P52100019148, P52100023913, P52100002193, P52100019997, P52100024783, P52100016626, P52100001171, P52100001171, P52100016932, P52100018100, P52100001266, P52100000298, P52100002514, P52100001815, P52100002574, P52100010976, P52100003648, P52100011640, P52100016963, P52100006188, P52100006995, P99000019538, P99000019531, P99000018521, P51900000444, P99000013612</t>
         </is>
       </c>
       <c r="AG74" t="inlineStr">
@@ -12614,47 +12549,47 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG75" t="inlineStr">
@@ -12776,47 +12711,42 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>KOSHER CONSTRUCTIONS</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>09822352197</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>FLAT NO 201 BHAGYALAXMI APPT,RAHATE COLONY SQ NAGPUR</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>amjadkhn97@gmail.com</t>
         </is>
       </c>
       <c r="AD76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>SADESH REALTY BUILDERS LLP, SADESH REALTY BUILDERS LLP, SANDESH PROJECTS, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, Sandesh Infrastructures Pvt Ltd, R SANDESH DEVELOPERS, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>DIVINE CITY, DIVINE CITY II, SANDESH NAGARI-II, Sandesh City Apartment 1, Sandesh City Apartments 2, Sandesh City Apartments 3, SANDESH CITY APARTMENTS- 4, Sandesh City Apartment 5, SANDESH CITY - AELLYSIA - I, HIGHWAY RADIANCE, HIGHWAY RADIANCE 2, SANDESH MEDICLAVE, Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P50500019810, P50500020052, P50500021007, P50500006822, P50500010049, P50500012459, P50500010124, P50500013102, P50500032569, P50500032207, P50500033342, P50500031388, P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG76" t="inlineStr">
@@ -12938,32 +12868,32 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD77" t="inlineStr">
@@ -13100,47 +13030,47 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Godrej Elements</t>
         </is>
       </c>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P52100016626</t>
         </is>
       </c>
       <c r="AG78" t="inlineStr">
@@ -13262,47 +13192,47 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Peninsula Land Limited, Peninsula Land Limited, Peninsula Land Limited, Peninsula Land Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Macrotech Developers Limited, Macrotech Developers Limited, Macrotech Developers Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Raymond Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, Palava Dwellers Pvt Ltd, ERA REALTORS PRIVATE LIMITED, Aniline Construction Company Private Limited, Raymond Limited, Raymond Limited, MACROTECH DEVELOPERS LIMITED, Raymond Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, PRL Developers Private Limited, Ms ASHAR VENTURES, Ms ASHAR VENTURES, Ms ASHAR VENTURES, Ms ASHAR VENTURES, Ms ASHAR REALTORS, Glider Buildcon Realtors Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Lodha Buildcon Private Ltd (Lodha Develoopers Pvt Ltd), Shree Sukhakarta Developers Private Limited, Raunak Jigna Associates, Raunak Jigna Associates, Raymond Limited, UNNATHI ASSOCIATES, UNNATHI ASSOCIATES, Raymond Limited, Raymond Limited, Raymond Limited, National Happy Homes, Palava Dwellers Pvt Ltd, Macrotech Developers Limited, Macrotech Developers Limited, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, MACROTECH DEVELOPERS LIMITED, T Bhimjyani Realty Pvt.Ltd., UNNATHI ESTATES, SPENTA ENCLAVE PRIVATE LIMITED, SPENTA ENCLAVE PRIVATE LIMITED, Labdhi Siddhivinayak Realtors LLP, SHREE SAIBABA GRIHANIRIMITI PRIVATE LIMITED, SHREE SAIBABA GRIHANIRMITI PRIVATE LIMITED, SHREE SAIBABA GRIHANIRMITI PRIVATE LIMITED, COVENTRY PROPERTIES PRIVATE LIMITED, RAUNAK AVENUE REALTY, RAUNAK AVENUE REALTY, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Palava Dwellers Private Limited, Raymond Limited, RAUNAK CORPORATION, RAUNAK CORPORATION, RAUNAK CORPORATION, RAUNAK CORPORATION, RAUNAK CORPORATION</t>
         </is>
       </c>
       <c r="AE79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>addressOne - Phase 2, addressOne - Phase 3, addressOne - Phase 4, addressOne - Phase 1, LODHA BELMONDO - ESTANCIA B, LODHA BELMONDO ASHBRIDGE D, E, LODHA BELMONDO Pebble Beach E, Estancia A, Lodha Belmondo - Pebble Beach D, Lodha Belmondo St. Andrews B,C,D  Villa 1 to 28, Lodha Belmondo - Townhouses, Lodha Belmondo - Tower 30, LODHA BELMONDO ST. ANDREWS E, LODHA BELMONDO SAWGRASS B, Lodha Belmondo - Tower 31, Lodha Belmondo St. Andrews A, LODHA BELMONDO AUGUSTA C, LODHA BELMONDO AUGUSTA B, Lodha Belmondo - Tower 29, Lodha Belmondo - Tower 32, Lodha Belmondo - Sawgrass A, LODHA AMARA - TOWER 38 and 39, Lodha Amara - Wing 40 and 41, Lodha Amara MLCP Retail, Lodha Amara - Tower 46, Lodha Amara - Tower 36 37, Lodha Amara - Tower 6, 22, Lodha Amara - Tower 20, 21, LODHA AMARA - TOWER 26, 27, 28, 30, 34, 35, Lodha Amara - Tower 45, Lodha Sterling - Tower H, Lodha Supremus - Thane, Kolshet, Lodha Amara Tower 24 and 25, Lodha Kolshet Plot A - Tower K, Lodha Amara Tower 47 and 48, LODHA AMARA - TOWER 23, Lodha Amara -Tower 42 and 43, Lodha Sterling - Tower G, Lodha Kolshet Plot A - Tower J, LODHA AMARA - TOWER 1 - 5, 7 - 19, Lodha Amara Tower 44, Lodha Amara Tower 49 and 50, LODHA AMARA - TOWER 32,33, LODHA AMARA - TOWER 29,31, LODHA PARK, Lodha Adrina, LODHA PARK - TOWN HOUSES, CODENAME- MUST-HAVE, PALAVA SERENITY D, Urbano 2 Shops, Palava Serenity C, Elite 1 Shop, Regalia Shops, North MLCP Shop, Palava Florea - A to D, Palava Magnolia, Lakeside 1 Shops, Clara Shops, Palava Clara J-M, PALAVA CLUSTER 2-06 -  A - G, I - N, PALAVA SERENITY B, Lakeside 2 Shops, PALAVA URBANO G AND H, Palava Olivia C, PALAVA OLIVIA A, PALAVA URBANO D AND E, Foresta &amp; Fiora, PALAVA SERENITY A, Elite 2 Shops, PALAVA CLARA A to D, D1, PALAVA EVIVA K to T, URBANO A, B, C and F, URBANO I to T, LODHA ETERNIS SERENA A, LODHA ETERNIS NATURA A, LODHA ETERNIS IDYLLIA B, SERENA B, NATURA B AND C, LODHA ETERNIS SERENA C, PALAVA MARVELLA B,C,D,E,F,G, PALAVA AURORA A,D, PALAVA AURORA B, C, PALAVA MILANO E, F, PALAVA MILANO A,B,C,H,I,J, PALAVA MARVELLA A, H, PALAVA SAVANA AND SIENA, PALAVA RIVER VIEW E AND F, Lodha iThink B, FONTANA A ,B, I and J, PALAVA ESTELA H, I, J, PALAVA ESTELA A, B, C, TEN X HABITAT Raymond Realty Tower E, Lodha Patel Estate - Tower C, D, Lodha Patel Estate - Tower E, F, Lodha Patel Estate - Tower A, B, Lodha Patel Estate - Tower G, Upper Thane - Sereno A, B, B1, UPPER THANE - Tiara I, UPPER THANE -SERENO A1, Upper Thane Greenville A - E, E1, F - I, Upper Thane - Woodlands G,H,I, Upper Thane - Tiara E, F, Upper Thane Ecopolis A - B, Upper Thane Treetops A - C, C1, C2, D - F, Upper Thane - Ecopolis A, UPPER THANE - WOODLANDS C AND D, UPPER THANE - Woodlands E and F, Upper Thane - Meadows A, Casa Selva A to C, Upper Thane - Tiara H, Upper Thane - Meadows E, F, G, Magnolia A B and C, UPPER THANE - TIARA D, UPPER THANE - WOODLANDS A, B AND J, Upper Thane - Sereno A1, C &amp; C1, Upper Thane - Tiara C, Upper Thane - Sereno D and E, UPPER THANE - TIARA A to B, Orchid A to L, Jasmine A, B, C, G, H and I, Jasmine D, E and F, Orchid M N O, Jasmine T, Alta Monte and Signet, PARKWOODS D5, TEN X HABITAT Raymond Realty Tower K, TEN X HABITAT Raymond Realty Tower C, Lodha Mira Road Project 1, TEN X HABITAT Raymond Realty Tower J, Lodha Majiwada - Tower 1, Lodha Majiwada - Tower 4, Lodha Majiwada - Tower 5, Lodha Parel Project, NEW CUFFE PARADE - LODHA ENCHANTE, NEW CUFFE PARADE - LODHA DIORO AND ELISIUM, NEW CUFFE PARADE - LODHA ESTRELLA, New Cuffe Parade - Lodha Gardenia, NEW CUFFE PARADE - LODHA EVOQ 41st Floor, LODHA SPLENDORA PLATINO E TO G , VIVANT A TO D, Lodha Global Park, Lodha Panacea II, Lodha Quality Home Tower - 5, LODHA SPLENDORA - PLATINO - B, Lodha Quality Home Tower 3, CASA UNIVIS - CIELO D, Lodha Quality Home Tower 1, Lodha Quality Home Tower 2, Lodha Splendora - River View, Lodha Panacea I, Lodha Quality Home Tower 4, Lodha Fiorenza, LODHA SPLENDORA - PLATINO - D, Piramal Revanta - Tower 4, ASHAR EDGE GALLERIA- PHASE I, ASHAR EDGE WING B PHASE III, ASHAR EDGE WING A PHASE II, ASHAR ARIA, ASHAR MAPLE PHASE 1 BUILDING NO.2, Piramal Aranya - Wing B, PALAVA PRIMIA E to J, PALAVA LAKESIDE I TO O, PALAVA REGALIA A to F, PALAVA CROWN, PALAVA VISTA A to D, PALAVA VIENTO A to D, PALAVA LAKESIDE A to H, PALAVA ELITE K TO T, Palava - Trinity A to C, Palava - Retail Shop no 15 to 33 - Car Park Building C1, Palava Cielo A - F, PALAVA - PASEO - D to H, PALAVA - UNO H - O, PALAVA - ELITE - A to J, PALAVA LAGOONA A TO F, Casa Royale - Grande, RUPAREL LUMINARE, RAUNAK CENTRUM, RAUNAK CENTRUM - A, TEN X HABITAT Raymond Realty Tower H, RAUNAK BLISS B2, RAUNAK BLISS B2, TEN X HABITAT Raymond Realty | Tower A &amp; B, Raymond Realty Premium I, TEN X HABITAT Raymond Realty Tower D, Kamal Kunj, Jasmine L and M, LODHA VENEZIA - 49TH TO 65TH FLOOR, LODHA AZZURO, THE WORLD TOWERS - WORLD ONE - TIER III AND TRINITY, One Lodha Place, THE WORLD TOWERS -  WORLD ONE - TIER II, Neelkanth Woods Olivia, RAUNAK RESIDENCY, Altavista - Phase 1, Altavista - Phase 2, Labdhi Seabreeze, ASHAR METRO TOWERS, ASHAR METRO TOWERS, ASHAR METRO TOWERS, THE CANVAS RESIDENCES - CANVAS 1, CANVAS 2, CANVAS 3, Raunak White House, RAUNAK IMPERIAL, PALAVA - AURELIA - D TO G, PALAVA AURELIA A, PALAVA - ESTELA D to G, PALAVA FONTANA C - H, PALAVA AURELIA - C, H, I, Codename INSIGNIA I Tower A, RAUNAK CITY SECTOR IV - D8, RAUNAK CITY SECTOR IV - D7, RAUNAK CITY SECTOR VI - F2, RAUNAK CITY SECTOR VI - F3, RAUNAK CITY SECTOR IV - D5</t>
         </is>
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100015747, P52100015779, P52100015803, P52100015756, P52100016840, P52100011522, P52100000350, P52100018308, P52100000283, P52100017082, P52100020188, P52100000182, P52100000221, P52100020172, P52100020156, P52100000174, P52100000406, P52100020142, P52100020190, P52100019434, P51700018393, P51700020088, P51700025892, P51700018579, P51700013961, P51700014760, P51700016961, P51700001031, P51700018593, P51700020189, P51700015598, P51700020128, P51700015040, P51700020151, P51700020093, P51700020164, P51700020158, P51700015243, P51700001065, P51700020123, P51700020157, P51700001030, P51700000981, P51900001339, P51900014937, P51900016526, P51900029416, P51700020124, P51700025475, P51700020159, P51700025471, P51700025474, P51700025674, P51700017487, P51700020131, P51700025522, P51700025495, P51700000420, P51700000802, P51700020253, P51700025535, P51700000696, P51700017590, P51700020214, P51700000577, P51700017506, P51700020155, P51700025470, P51700000448, P51700000419, P51800000294, P51800000345, P51800000293, P51800020147, P51700013462, P51700015090, P51700010960, P51700011629, P51700015016, P51700015660, P51700000546, P51700008764, P51700025627, P51700000506, P51700013145, P51700013158, P51700022779, P51800014860, P51800014869, P51800014891, P51800016528, P51700016243, P51700018035, P51700020191, P51700006147, P51700016245, P51700020141, P51700007192, P51700008449, P51700016666, P51700020225, P51700018107, P51700020266, P51700020268, P51700020154, P51700020170, P51700020197, P51700019121, P51700020104, P51700020217, P51700016437, P51700014770, P51700014814, P51700016747, P51700020381, P51700020354, P51700019809, P51700020373, P51800010463, P51700007024, P51700022940, P51700020256, P51700012991, P51700025355, P51700013263, P51700013789, P51700019519, P51900014910, P51900000367, P51900000314, P51900000521, P51900015715, P51900000567, P51700000199, P51700017924, P51700017060, P51700027449, P51700000258, P51700022533, P51700001153, P51700022250, P51700022251, P51700016375, P51700017078, P51700024777, P51800000195, P51700000659, P51800031310, P51700016033, P51700016016, P51700016015, P51700017518, P51700000969, P51900018039, P51700000391, P51700000410, P51700000390, P51700010935, P51700000395, P51700000342, P51700000384, P51700000389, P51700014396, P51700016941, P51700000378, P51700000269, P51700000142, P51700000125, P51700000124, P51700001517, P51900034393, P51800006705, P51800033269, P51700027036, P51700046565, P51700046565, P51700019265, P51700020222, P51700020881, P51900002602, P51700024141, P51900005378, P51900000828, P51900008962, P51900014984, P51900008345, P51700004591, P51700009540, P51800001050, P51800000956, P51900023708, P51700006329, P51700009352, P51700007507, P51900026182, P51700048307, P51700052635, P51700000511, P51700020161, P51700011068, P51700000596, P51700013073, P51700022525, P51700020182, P51700020241, P51700033757, P51700033972, P51700020240</t>
         </is>
       </c>
       <c r="AG79" t="inlineStr">
@@ -13424,47 +13354,47 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>OXFORD REALTY LLP, OXFORD REALTY LLP, NITIN DWARKADAS NYATI, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, KEWAL REAL ESTATE DEVELOPERS PRIVATE LIMITED, Gera Realty Estates, Cherry Contruction Pvt. Ltd., Godrej Skyline Developers Private Limited, Godrej Skyline Developers Private Limited, Mahalunge Township Developers LLP, Mahalunge Township Developers LLP, TUSCAN REAL ESTATE PRIVATE LIMITED, ONE EARTH, KOLTE-PATIL REAL ESTATE PRIVATE LIMITED, KOLTE-PATIL REAL ESTATE PRIVATE LIMITED, Kumar Construction and Properties Pvt Ltd, Kumar Construction and Properties Pvt Ltd, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, One Earth, Vilas Javdekar Eco Housing LLP, Vilas Javdekar Eco Housing LLP, KOLTE-PATIL DEVELOPERS LIMITED, Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., Kumar Properties and Real Estate Pvt. Ltd., KUMAR KERING DEVELOPERS LLP, ONE EARTH, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Kumar Agro Products Pvt Ltd - Kumar Company (Now known as Kumar Construction and Properties Pvt Ltd) JV, Duville Estates Private Limited, Duville Estates Private Limited, Duville Estates Private Limited, Kumar Properties and Developers LLP, Mahindra Lifespace Developers limited, DREAM WORLD LANDMARKS LLP, Viraj Properties (Now known as Viraj Properties &amp; Real Estate Pvt Ltd) - Amogh Construction JV, Vertical Infra, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Manikchand Kumar Properties, Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Pegasus Properties Pvt. Ltd., Ajanta Enterprises, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Kumar Agro Products Pvt Ltd, Manjari Housing Projects LLP, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vilas Javdekar Infinitee Developers Pvt. Ltd., DREAM WORLD LANDMARKS LLP, Pearlite Real Properties Private Limited, Pearlite Real Properties Private Limited, Kumar Properties Infratech Developers Pvt Ltd, Parasmani Constructions Pvt .Ltd</t>
         </is>
       </c>
       <c r="AE80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Infinity, Godrej Rejuve, NYATI ELYSIA I, Primavera - B6 and S1, KUMAR PRAJWAL, Geras Adara, Citron Phase 2, Godrej Park Greens, Godrej Wood Park, Godrej Hillside 1, Godrej Hillside 2, TUSCAN ESTATE, Florida Water Color I, CITY VISTA, Xenia, Princeville - B4 and B5, Primus - A, Geras Imperium Rise, Geras Planet of Joy Project IV, Geras Misty Waters, Geras Isle Royale Tower 2 and 3, Geras Imperium Alpha, Geras Imperium Rise, Geras Imperium Gateway B, Geras Imperium Oasis, Geras Planet of Joy Project I, Geras Misty Waters, Geras Imperium Gateway A and C, Geras Planet of Joy Project II, Geras Planet of Joy Project III, FLORIDA RIVER WALK- II, 51B Inclusive Housing, Palladio Balewadi Central Phase 1, 24K World Residences, Park Infinia Phase III, Park Infinia Phase IV, Park Infinia - I1, I2, I3, J2, J3 and K1, Park Infinia - L2, L3, L4, K4, K5 and J4, PICASSO - O, Park Infinia - L1, K3 and I4, Palmspring Towers - A6, A7 and B3, FLORIDA RIVER WALK PHASE I, Geras World of Joy S, 343 CREST, Geras World of Joy M, Geras World of Joy D, Geras World of Joy L, Geras World of Joy C, Kumar Prospera - A1 and A2, Kumar Prospera - A3, A4 and A5, Kumar Prospera - A7 and A8, Riverdale Residences-I, Riverdale Heights, Riverdale Suites, 47 East - A, Happinest Tathawade Phase-1, Godrej Greens, Siddhachal - A4, Vertical Oriana Phase II, Princetown Royal - B5, Princetown Royal - B2, Princetown Tower - C3, Princetown Tower - C2, Princetown Royal - B3 and B6, Megapolis Symphony Phase I, Megapolis Springs - D and E, Megapolis Springs - C, Megapolis Springs - B and F, Megapolis Springs - A, Megapolis Saffron - Shops, Megapolis Serenity A8 to A12, B2 and Conv shop B, Megapolis Serenity A1 to A7, B1 and Conv shop A, Megapolis Saffron - A3 to A9, Megapolis Saffron - A10 to A14, Megapolis Mystic - F, Forest Edge Phase 1, Princeville - A2, C2 and Conv Shop 2, Peninsula C, Kumar Pratham - A B C and Shops, Priyadarshan - J, GODREJ BOULEVARD, Platinum Square Phase 2, Platinum Square Phase 1, Windermere Phase 2, Vascon Goodlife Phase C, Vascon Goodlife Phase B, Yashwin Enchante Phase 1, Godrej Prana, Godrej Elements, Godrej 24, Kumar Parc residences - A1, Parasmani - B</t>
         </is>
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100003129, P52100018720, P52100000860, P52100021093, P52100017868, P52100000889, P52100018850, P52100019639, P52100028133, P52100022099, P52100022153, P52100000439, P52100000870, P52100007612, P52100000575, P52100015685, P52100004518, P52100001786, P52100031876, P52100001176, P52100009870, P52100015242, P52100001786, P52100030167, P52100015514, P52100031802, P52100001176, P52100030184, P52100031809, P52100031875, P52100022780, P52100051227, P52100051590, P52100007679, P52100000084, P52100014939, P52100017239, P52100026185, P52100018205, P52100045667, P52100018532, P52100015819, P52100022499, P52100022737, P52100022744, P52100022598, P52100022530, P52100022522, P52100014951, P52100022619, P52100035207, P52100004692, P52100008035, P52100014163, P52100024598, P52100028049, P52100000985, P52100018775, P52100003699, P52100027928, P52100018309, P52100009077, P52100045982, P52100046228, P52100000887, P52100015188, P52100016848, P52100017386, P52100018284, P52100034988, P52100022957, P52100023051, P52100018779, P52100021609, P52100029121, P52100014725, P52100018603, P52100028012, P52100022486, P52100029119, P52100024616, P52100012916, P52100001434, P52100002368, P52100016293, P52100016237, P52100046510, P52100001372, P52100016626, P52100001005, P52100032022, P51900023727</t>
         </is>
       </c>
       <c r="AG80" t="inlineStr">
@@ -13586,47 +13516,42 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>PROPSOLUTIONS</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02532580231</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>SHOP NO 4  SUNANDA  DR AVHAD HOSPITAL KARMAYOGI NAGAR UNTWADI  GOVINDNAGAR LINK ROAD  NASHIK 7</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC81" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>propsolutions16@gmail.com</t>
         </is>
       </c>
       <c r="AD81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, Tata Housing Development Company Limited, Tata Housing Development Company Limited, ARDENT PROPERTIES PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="AE81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, Aveza Phase 1, Aveza Phase 2, Serein Phase 1</t>
         </is>
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P51900007527, P51900007740, P51700000295</t>
         </is>
       </c>
       <c r="AG81" t="inlineStr">
@@ -13748,47 +13673,47 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Properties Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Orchard Estate, Godrej Elements</t>
         </is>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P50500048466, P52100016626</t>
         </is>
       </c>
       <c r="AG82" t="inlineStr">
@@ -13910,32 +13835,32 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD83" t="inlineStr">
@@ -14072,32 +13997,32 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD84" t="inlineStr">
@@ -14234,47 +14159,47 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>AAP Realtors Ltd., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., UNITED ENTERPRISES, MARATHON REALTY PVT LTD, MARATHON REALTY PVT LTD, Transcon Iconica Private Limited, PRL Developers Private Limited, PRL Developers Private Limited, Samta Builders Pvt. Ltd., M/S Suyog Developers, NEXZONE BUILDCON LLP, NEXZONE ENERGY UTILITES LLP</t>
         </is>
       </c>
       <c r="AE85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Tirumala Habitats, MARATHON NEXZONE ALTIS -2, MARATHON NEXZONE AVIOR -1, MARATHON NEXZONE AVIOR -2, MARATHON NEXZONE ACRUX -1, MARATHON NEXZONE  ZODIAC -1, MARATHON NEXZONE ZODIAC -2, MARATHON NEXZONE ACRUX -2, MARATHON NEXZONE ALTIS -1, MARATHON EMBLEM-1, MARATHON NAGARI NX VIGO D, MARATHON NAGARI NX VITORIA D, Transcon Ramdev Plaza, Piramal Revanta - Tower 4, Piramal Revanta - Tower 3, Transcon Fortune 500 Tower 1, MARATHON NEOSKIES, MARATHON EMINENCE, MARATHON NEOHILLS 1</t>
         </is>
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P51800004278, P52000000677, P52000000502, P52000000713, P52000000670, P52000000547, P52000000661, P52000001062, P52000000573, P51800000645, P51700005045, P51700005049, P51800010457, P51800031310, P51800018099, P51800012431, P51800018106, P51800016063, P51800018328</t>
         </is>
       </c>
       <c r="AG85" t="inlineStr">
@@ -14396,47 +14321,42 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>ANV REALTY</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>02029993734</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Sacred world , s26, wanowarie Pune 411040</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>nikhil@anvrealty.com</t>
         </is>
       </c>
       <c r="AD86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>NAIKNAVARE PROFILE CONSTRUCTIONS PVT LTD, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, Cavalcade Properties Private Limited, VERDANT REALTY, Classic Promoters and Builders Private Limited, Mountview Properties LLP, NAIKNAVAREPROFILECONSTRUCTIONSPVTLTD, NYATI REALTORS LLP, NAIKNAVAREPROFILECONSTRUCTIONSPVTLTD, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, Vascon Engineers Ltd, PETHKAR PROJECTS, Cherry Contruction Pvt. Ltd., Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, DOREA HOMES LLP, Rachana Lifespaces, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL SIGMA HOMES PRIVATE LIMITED, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL REALTORS AND DEVELOPERS LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL LANDMARKS PVT LTD, MARVEL OMEGA BUILDERS PVT LTD, MARVEL OMEGA BUILDERS PVT LTD, Gera Realty Estates, NAIKNAVARE PROFILE CONSTRUCTIONS PVT LTD, BENCHMARK TOWN PLANNING LLP, BENCHMARK TOWN PLANNING LLP, Rising welworth Enterprises LLP, Rising welworth Enterprises LLP, Rising welworth Enterprises LLP, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Hinjawadi Infradevelopment Pvt Ltd, Home Corp &amp; Associates, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, PACT REAL ESTATE PRIVATE LIMITED, MARVEL ZETA DEVELOPERS PVT LTD, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Gera Developments Private Limited, Bramhacorp Limited, Bramhacorp Limited, Bramhacorp Limited, Bramhacorp Limited, Bramhacorp Limited, RIBERA PROJECTS LLP, Ajanta Enterprises, PAX HOMES LLP</t>
         </is>
       </c>
       <c r="AE86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>AVON VISTA PROJECT 3, T13 - PHASE OF THE PROJECT COMPRISING BUILDING T12 AND T13, VISTAS CENTREPOINT, T9 Chronos and T10 Supremus Phase 1 Of Raheja Reserve being Buildings T7 T8 T9 T10 in RV Premiere, RAHEJA VISTAS BUILDING B2, T8 named LUXURIANT Phase 2 of Raheja Reserve being Buildings T7 T8 T9 T10 in RV Premiere, T12 NAMED MAGNA BEING PHASE 2 OF THE PROJECT COMPRISING BUILDINGS T12 AND T13, VERDANT 84, Solitaire Business Hub Viman Nagar Phase 1, Lords Estate, AVON VISTA PROJECT 2, NYATI ESTEBAN I, AVONVISTAPROJECT4, Windermere Phase 1, Platinum Square Phase 1, Windermere Phase 2, Vascon Goodlife Phase A, Platinum Square Phase 2, Vascon Goodlife Phase C, Vascon Goodlife Phase B, Siyona Phase - I, Citron Phase 2, Geras Misty Waters, Geras Imperium Oasis, Geras Imperium Rise, Geras Isle Royale Tower 2 and 3, Geras Imperium Rise, Geras Imperium Oasis, Geras Misty Waters, Geras Imperium Alpha, Marvel Ideal Spacio Phase 01, Bellacasa, Marvel Bounty J Building, Marvel Bounty K Building, MARVEL BOUNTY BUILDING L, MARVEL ARCO B BUILDING, MARVEL ARCO E BUILDING, Marvel Cascada E Building, Marvel Castella A And B Building, Marvel Basilo A AND B Building, Marvel Cascada C Building, Marvel Cascada D building, MARVEL SERA A,B,C BUILDING, Marvel Kyra A AND B Building, Marvel Fuego, MARVEL CITRINE A BUILDING, MARVEL CERISE Bldg-A, MARVEL CERISE BLDG B, C, D, MARVEL AQUANAS, Marvel Aurum, Marvel Brisa, Marvel Ganga Sangria A,B,C Building, Marvel Ganga Boulevard Phase 02, MARVEL ZEPHYR BUILDING U, MARVEL ISOLA J BUILDING, Marvel Ganga Sangria D,E Building, Marvel Ganga Sangria G,H,J Building, Marvel Ganga Sangria K,L,M Building, Marvel Selva Ridge A,B Building, Marvel Selva Ridge Villa Phase 01, Geras Adara, AVON VISTA PROJECT -1, CYPRUS, SIROCCO GRANDE, Hi Life, Hi Life phase 2, Altitude, Building A2 Eon Homes, Building A3 Eon homes, Building D3 Eon Homes, Celesta, PLOT NO. B-01 TO B-21 VIVA,PIRANGUT,PUNE, PLOT NO.7, VIVA, PIRANGUT, PLOT NO 8, VIVA, PIRANGUT, PLOT NO. 10, VIVA,PIRANGUT,PUNE, Marvel Piazza phase -01, Geras World of Joy L, Geras World of Joy D, Geras World of Joy C, Geras World of Joy S, F RESIDENCES T5 T6 and T7, Bramha Exuberance C, F Residences T8, Bramha Vantage C, Boulevard part of Towers Phase 1, Marvel Ribera A Building, Forest Edge Phase 1, Marvel Fria P1, P2, P3 Building</t>
         </is>
       </c>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100023133, P52100000707, P52100016359, P52100021356, P52100000919, P52100024187, P52100015996, P52100030664, P52100006995, P52100012004, P52100017914, P52100003767, P52100029724, P52100003865, P52100001434, P52100002368, P52100016242, P52100012916, P52100016293, P52100016237, P52100000155, P52100018850, P52100001176, P52100015514, P52100001786, P52100009870, P52100001786, P52100015514, P52100001176, P52100015242, P52100001583, P52100002878, P52100006797, P52100007453, P52100010835, P52100008708, P52100007022, P52100002242, P52100002438, P52100001711, P52100006134, P52100003507, P52100001878, P52100010211, P52100006192, P52100007908, P52100001091, P52100002648, P52100001521, P52100002240, P52100001627, P52100001815, P52100002574, P52100010976, P52100001843, P52100002064, P52100002371, P52100002514, P52100003648, P52100011640, P52100000889, P52100000371, P52100000561, P52100000326, P52100016413, P52100017433, P52100024885, P52100006888, P52100013714, P52100001860, P52100004798, P52100001800, P52100002681, P52100002113, P52100002702, P52100003653, P52100022530, P52100022598, P52100022522, P52100022499, P52100001526, P52100001076, P52100002099, P52100002254, P52100004150, P52100002377, P52100014725, P52100001522</t>
         </is>
       </c>
       <c r="AG86" t="inlineStr">
@@ -14563,47 +14483,47 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>FIRE Arcor Infrastructure Private Limited, Pearlite Real Properties Private Limited</t>
         </is>
       </c>
       <c r="AE87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Daffodil Highs, Unity Studio Apartments and Eternity Villa, Godrej Elements</t>
         </is>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P50500001342, P52100016626</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
@@ -14730,32 +14650,32 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD88" t="inlineStr">
@@ -14892,32 +14812,32 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD89" t="inlineStr">
@@ -15054,32 +14974,32 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="AD90" t="inlineStr">
@@ -15221,47 +15141,42 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>SEVAGIRI REALTORS</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>08286082860</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>MAHAAVIR HERITAGE SHOP NO 14 PLOT NO 3 SEC 35G KHARGHAR NAVI MUMBAI</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>pravin@sevagiri.com</t>
         </is>
       </c>
       <c r="AD91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Pearlite Real Properties Private Limited, MARATHON REALTY PVT LTD, MARATHON REALTY PVT LTD, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, Adhiraj Constructions Private Limited, GeeCee Ventures Limited, GeeCee Ventures Limited, GeeCee Ventures Limited, GeeCee Ventures Limited, GeeCee Ventures Limited, NEXZONE ENERGY UTILITES LLP, MYCITY CONSTRUCTIONS LLP, M/S Suyog Developers, SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., SANVO RESORTS PVT. LTD., Raheja Universal (Pvt.) Ltd., Raheja Universal (Pvt.) Ltd., Mahaavir Enterprises, SMB PropertiesLLP, SAINATH MOTOR BODY BUILDERS</t>
         </is>
       </c>
       <c r="AE91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Godrej Elements, MARATHON NAGARI NX VIGO D, MARATHON NAGARI NX VITORIA D, Adhiraj Samyama Tower 1C, Adhiraj Samyama Tower 1D, Adhiraj Samyama Tower 1B, Adhiraj Samyama Tower 1A, Adhiraj Samyama Tower 2A, Adhiraj Samyama Tower 2B, Adhiraj Samyama Tower 3B, Adhiraj Capital City Tower Meraki, Adhiraj Capital City Tower Oreka, PROXIMUS, GeeCee Aspira 206, The Mist Phase II, GeeCee Emerald, Laxmi Kunj, MARATHON NEOHILLS 1, UNIMAX PRIDE, MARATHON NEOSKIES, MARATHON NEXZONE ALTIS -1, MARATHON NEXZONE ALTIS -2, MARATHON NEXZONE AVIOR -1, MARATHON NEXZONE AVIOR -2, MARATHON NEXZONE ZODIAC -2, MARATHON NEXZONE TRITON -2, MARATHON NEXZONE ACRUX -1, MARATHON NEXZONE ACRUX -2, MARATHON NEXZONE  ZODIAC -1, Tesla - Building No.2, Raheja Imperia - I, MAHAAVIR MANAN, United Emporio, DREAM DIGIT</t>
         </is>
       </c>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>P52100016626, P51700005045, P51700005049, P52000014859, P52000014856, P52000004493, P52000004449, P52000007539, P52000003039, P52000004189, P52000022975, P52000022907, P51800027318, P52000019788, P52000024728, P52000050116, P51800046721, P51800018328, P52000031129, P51800018106, P52000000573, P52000000677, P52000000502, P52000000713, P52000000661, P52000000668, P52000000670, P52000001062, P52000000547, P51700019181, P51900009379, P52000019642, P52000019207, P51700027292</t>
         </is>
       </c>
       <c r="AG91" t="inlineStr">
